--- a/Simple-Gantt-chart.xlsx
+++ b/Simple-Gantt-chart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanz\Documents\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403BCC03-5643-4CA0-9550-EE745AB6B443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -279,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
@@ -917,6 +916,20 @@
     <xf numFmtId="164" fontId="29" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,33 +952,19 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Date" xfId="6"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Name" xfId="7" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Name" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Task" xfId="9" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Project Start" xfId="8"/>
+    <cellStyle name="Task" xfId="9"/>
     <cellStyle name="Title" xfId="3" builtinId="15"/>
-    <cellStyle name="zHiddenText" xfId="10" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="zHiddenText" xfId="10"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1149,7 +1148,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{8474A647-0F6F-46BF-944A-1F5C94579F70}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1504,29 +1503,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:EB64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="16" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="36.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="2.75" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
-    <col min="70" max="70" width="10.296875" customWidth="1"/>
-    <col min="71" max="71" width="8.69921875" hidden="1" customWidth="1"/>
+    <col min="9" max="65" width="2.75" customWidth="1"/>
+    <col min="70" max="70" width="10.25" customWidth="1"/>
+    <col min="71" max="71" width="8.75" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" ht="90" customHeight="1">
@@ -1539,29 +1538,29 @@
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="68">
+      <c r="Q1" s="60">
         <f ca="1">TODAY()</f>
-        <v>45888</v>
-      </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
+        <v>45890</v>
+      </c>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
     </row>
     <row r="2" spans="1:132" ht="30" customHeight="1">
       <c r="B2" s="52" t="s">
@@ -1573,28 +1572,28 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="23"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
       <c r="P2" s="42"/>
-      <c r="Q2" s="70">
+      <c r="Q2" s="62">
         <v>1</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
     </row>
     <row r="3" spans="1:132" ht="30" customHeight="1">
       <c r="B3" s="25"/>
@@ -1604,199 +1603,199 @@
       <c r="A4" s="18"/>
       <c r="B4" s="27"/>
       <c r="E4" s="28"/>
-      <c r="I4" s="71">
+      <c r="I4" s="63">
         <f ca="1">I5</f>
         <v>45887</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64">
         <f ca="1">P5</f>
         <v>45894</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58">
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64">
         <f ca="1">W5</f>
         <v>45901</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58">
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64">
         <f ca="1">AD5</f>
         <v>45908</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58">
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64">
         <f ca="1">AK5</f>
         <v>45915</v>
       </c>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58">
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64">
         <f ca="1">AR5</f>
         <v>45922</v>
       </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58">
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64">
         <f ca="1">AY5</f>
         <v>45929</v>
       </c>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58">
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
+      <c r="BC4" s="64"/>
+      <c r="BD4" s="64"/>
+      <c r="BE4" s="64"/>
+      <c r="BF4" s="64">
         <f ca="1">BF5</f>
         <v>45936</v>
       </c>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="58">
+      <c r="BG4" s="64"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="64"/>
+      <c r="BJ4" s="64"/>
+      <c r="BK4" s="64"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="64">
         <f ca="1">BM5</f>
         <v>45943</v>
       </c>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="58"/>
-      <c r="BP4" s="58"/>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="58" t="s">
+      <c r="BN4" s="64"/>
+      <c r="BO4" s="64"/>
+      <c r="BP4" s="64"/>
+      <c r="BQ4" s="64"/>
+      <c r="BR4" s="64"/>
+      <c r="BS4" s="65"/>
+      <c r="BT4" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="58"/>
-      <c r="BX4" s="58"/>
-      <c r="BY4" s="58"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="58">
+      <c r="BU4" s="64"/>
+      <c r="BV4" s="64"/>
+      <c r="BW4" s="64"/>
+      <c r="BX4" s="64"/>
+      <c r="BY4" s="64"/>
+      <c r="BZ4" s="65"/>
+      <c r="CA4" s="64">
         <f ca="1">CA5</f>
         <v>45957</v>
       </c>
-      <c r="CB4" s="58"/>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="58"/>
-      <c r="CF4" s="58"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="58">
+      <c r="CB4" s="64"/>
+      <c r="CC4" s="64"/>
+      <c r="CD4" s="64"/>
+      <c r="CE4" s="64"/>
+      <c r="CF4" s="64"/>
+      <c r="CG4" s="65"/>
+      <c r="CH4" s="64">
         <f ca="1">CH5</f>
         <v>45964</v>
       </c>
-      <c r="CI4" s="58"/>
-      <c r="CJ4" s="58"/>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="58"/>
-      <c r="CM4" s="58"/>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="58">
+      <c r="CI4" s="64"/>
+      <c r="CJ4" s="64"/>
+      <c r="CK4" s="64"/>
+      <c r="CL4" s="64"/>
+      <c r="CM4" s="64"/>
+      <c r="CN4" s="65"/>
+      <c r="CO4" s="64">
         <f ca="1">CO5</f>
         <v>45971</v>
       </c>
-      <c r="CP4" s="58"/>
-      <c r="CQ4" s="58"/>
-      <c r="CR4" s="58"/>
-      <c r="CS4" s="58"/>
-      <c r="CT4" s="58"/>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="58">
+      <c r="CP4" s="64"/>
+      <c r="CQ4" s="64"/>
+      <c r="CR4" s="64"/>
+      <c r="CS4" s="64"/>
+      <c r="CT4" s="64"/>
+      <c r="CU4" s="65"/>
+      <c r="CV4" s="64">
         <f ca="1">CV5</f>
         <v>45978</v>
       </c>
-      <c r="CW4" s="58"/>
-      <c r="CX4" s="58"/>
-      <c r="CY4" s="58"/>
-      <c r="CZ4" s="58"/>
-      <c r="DA4" s="58"/>
-      <c r="DB4" s="59"/>
-      <c r="DC4" s="58">
+      <c r="CW4" s="64"/>
+      <c r="CX4" s="64"/>
+      <c r="CY4" s="64"/>
+      <c r="CZ4" s="64"/>
+      <c r="DA4" s="64"/>
+      <c r="DB4" s="65"/>
+      <c r="DC4" s="64">
         <f ca="1">DC5</f>
         <v>45985</v>
       </c>
-      <c r="DD4" s="58"/>
-      <c r="DE4" s="58"/>
-      <c r="DF4" s="58"/>
-      <c r="DG4" s="58"/>
-      <c r="DH4" s="58"/>
-      <c r="DI4" s="59"/>
-      <c r="DJ4" s="58">
+      <c r="DD4" s="64"/>
+      <c r="DE4" s="64"/>
+      <c r="DF4" s="64"/>
+      <c r="DG4" s="64"/>
+      <c r="DH4" s="64"/>
+      <c r="DI4" s="65"/>
+      <c r="DJ4" s="64">
         <f ca="1">DJ5</f>
         <v>45992</v>
       </c>
-      <c r="DK4" s="58"/>
-      <c r="DL4" s="58"/>
-      <c r="DM4" s="58"/>
-      <c r="DN4" s="58"/>
-      <c r="DO4" s="58"/>
-      <c r="DP4" s="59"/>
-      <c r="DQ4" s="58">
+      <c r="DK4" s="64"/>
+      <c r="DL4" s="64"/>
+      <c r="DM4" s="64"/>
+      <c r="DN4" s="64"/>
+      <c r="DO4" s="64"/>
+      <c r="DP4" s="65"/>
+      <c r="DQ4" s="64">
         <f ca="1">DQ5</f>
         <v>45999</v>
       </c>
-      <c r="DR4" s="58"/>
-      <c r="DS4" s="58"/>
-      <c r="DT4" s="58"/>
-      <c r="DU4" s="58"/>
-      <c r="DV4" s="58"/>
-      <c r="DW4" s="59"/>
-      <c r="DX4" s="58">
+      <c r="DR4" s="64"/>
+      <c r="DS4" s="64"/>
+      <c r="DT4" s="64"/>
+      <c r="DU4" s="64"/>
+      <c r="DV4" s="64"/>
+      <c r="DW4" s="65"/>
+      <c r="DX4" s="64">
         <f ca="1">DX5</f>
         <v>46006</v>
       </c>
-      <c r="DY4" s="58"/>
-      <c r="DZ4" s="58"/>
-      <c r="EA4" s="58"/>
-      <c r="EB4" s="58"/>
+      <c r="DY4" s="64"/>
+      <c r="DZ4" s="64"/>
+      <c r="EA4" s="64"/>
+      <c r="EB4" s="64"/>
     </row>
     <row r="5" spans="1:132" ht="15" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="66" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="43">
@@ -2297,12 +2296,12 @@
       </c>
     </row>
     <row r="6" spans="1:132" ht="15" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
       <c r="I6" s="46" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="71">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -4527,7 +4526,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="57">
         <v>45895</v>
@@ -10014,6 +10013,27 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:EB4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="I2:O2"/>
@@ -10021,27 +10041,6 @@
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:EB4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D56">
     <cfRule type="dataBar" priority="242">
@@ -10088,16 +10087,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -10130,19 +10129,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="87" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.6">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10152,7 +10151,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -10167,42 +10166,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.05" customHeight="1">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.15" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="41.4">
+    <row r="9" spans="1:2" ht="57">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.05" customHeight="1">
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6">
+    <row r="12" spans="1:2" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.05" customHeight="1">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -10212,7 +10211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="69">
+    <row r="16" spans="1:2" ht="71.25">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -10243,9 +10242,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10566,15 +10565,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -10594,6 +10584,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs/>
@@ -10601,13 +10600,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Simple-Gantt-chart.xlsx
+++ b/Simple-Gantt-chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB70CA-36FE-4AE3-A2E7-2B2E870D93D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>Project start:</t>
   </si>
@@ -134,9 +135,6 @@
     <t>WEEKLY MILESTONE 1: The Final output of your daily Task</t>
   </si>
   <si>
-    <t>Frontend Development</t>
-  </si>
-  <si>
     <t>HAPAG BAYANIHAN: A community Kitchen and Food Assistance Management System</t>
   </si>
   <si>
@@ -165,9 +163,6 @@
   </si>
   <si>
     <t>Define System Components</t>
-  </si>
-  <si>
-    <t>Create Mockups (High-Fidelity)</t>
   </si>
   <si>
     <t>Apply UX Principles</t>
@@ -269,16 +264,34 @@
     <t>WEEKLY MILESTONE 5:Use Case &amp; User Story Development</t>
   </si>
   <si>
-    <t>WEEKLY MILESTONE 6:UI/UX Wireframes &amp; Mockups</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>WEEKLY MILESTONE 6:UI/UX Design using Figma</t>
+  </si>
+  <si>
+    <t>Identify functionality of each button</t>
+  </si>
+  <si>
+    <t>Create UI design</t>
+  </si>
+  <si>
+    <t>Define Actors and System Boundaries</t>
+  </si>
+  <si>
+    <t>Review &amp; Validate Use Cases</t>
+  </si>
+  <si>
+    <t>Create System Architecture Diagram</t>
+  </si>
+  <si>
+    <t>Review Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
@@ -765,7 +778,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -916,20 +929,6 @@
     <xf numFmtId="164" fontId="29" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -952,19 +951,36 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Date" xfId="6"/>
+    <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Name" xfId="7"/>
+    <cellStyle name="Name" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="8"/>
-    <cellStyle name="Task" xfId="9"/>
+    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Task" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="3" builtinId="15"/>
-    <cellStyle name="zHiddenText" xfId="10"/>
+    <cellStyle name="zHiddenText" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1148,7 +1164,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1503,64 +1519,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EB64"/>
+  <dimension ref="A1:EB69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" customWidth="1"/>
+    <col min="3" max="3" width="36.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.75" customWidth="1"/>
-    <col min="70" max="70" width="10.25" customWidth="1"/>
-    <col min="71" max="71" width="8.75" hidden="1" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="70" max="70" width="10.19921875" customWidth="1"/>
+    <col min="71" max="71" width="8.69921875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" ht="90" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="60">
+      <c r="Q1" s="68">
         <f ca="1">TODAY()</f>
-        <v>45890</v>
-      </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
+        <v>45897</v>
+      </c>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
     </row>
     <row r="2" spans="1:132" ht="30" customHeight="1">
       <c r="B2" s="52" t="s">
@@ -1572,28 +1588,28 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="23"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
       <c r="P2" s="42"/>
-      <c r="Q2" s="62">
+      <c r="Q2" s="70">
         <v>1</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
     </row>
     <row r="3" spans="1:132" ht="30" customHeight="1">
       <c r="B3" s="25"/>
@@ -1603,705 +1619,705 @@
       <c r="A4" s="18"/>
       <c r="B4" s="27"/>
       <c r="E4" s="28"/>
-      <c r="I4" s="63">
+      <c r="I4" s="71">
         <f ca="1">I5</f>
-        <v>45887</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64">
+        <v>45894</v>
+      </c>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58">
         <f ca="1">P5</f>
-        <v>45894</v>
-      </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64">
+        <v>45901</v>
+      </c>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58">
         <f ca="1">W5</f>
-        <v>45901</v>
-      </c>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64">
+        <v>45908</v>
+      </c>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58">
         <f ca="1">AD5</f>
-        <v>45908</v>
-      </c>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="64"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="64">
+        <v>45915</v>
+      </c>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58">
         <f ca="1">AK5</f>
-        <v>45915</v>
-      </c>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64">
+        <v>45922</v>
+      </c>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58">
         <f ca="1">AR5</f>
-        <v>45922</v>
-      </c>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="64">
+        <v>45929</v>
+      </c>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58">
         <f ca="1">AY5</f>
-        <v>45929</v>
-      </c>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="64"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="64">
+        <v>45936</v>
+      </c>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="58"/>
+      <c r="BF4" s="58">
         <f ca="1">BF5</f>
-        <v>45936</v>
-      </c>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="64">
+        <v>45943</v>
+      </c>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="58">
         <f ca="1">BM5</f>
-        <v>45943</v>
-      </c>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="64"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="BU4" s="64"/>
-      <c r="BV4" s="64"/>
-      <c r="BW4" s="64"/>
-      <c r="BX4" s="64"/>
-      <c r="BY4" s="64"/>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="64">
+        <v>45950</v>
+      </c>
+      <c r="BN4" s="58"/>
+      <c r="BO4" s="58"/>
+      <c r="BP4" s="58"/>
+      <c r="BQ4" s="58"/>
+      <c r="BR4" s="58"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU4" s="58"/>
+      <c r="BV4" s="58"/>
+      <c r="BW4" s="58"/>
+      <c r="BX4" s="58"/>
+      <c r="BY4" s="58"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="58">
         <f ca="1">CA5</f>
-        <v>45957</v>
-      </c>
-      <c r="CB4" s="64"/>
-      <c r="CC4" s="64"/>
-      <c r="CD4" s="64"/>
-      <c r="CE4" s="64"/>
-      <c r="CF4" s="64"/>
-      <c r="CG4" s="65"/>
-      <c r="CH4" s="64">
+        <v>45964</v>
+      </c>
+      <c r="CB4" s="58"/>
+      <c r="CC4" s="58"/>
+      <c r="CD4" s="58"/>
+      <c r="CE4" s="58"/>
+      <c r="CF4" s="58"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="58">
         <f ca="1">CH5</f>
-        <v>45964</v>
-      </c>
-      <c r="CI4" s="64"/>
-      <c r="CJ4" s="64"/>
-      <c r="CK4" s="64"/>
-      <c r="CL4" s="64"/>
-      <c r="CM4" s="64"/>
-      <c r="CN4" s="65"/>
-      <c r="CO4" s="64">
+        <v>45971</v>
+      </c>
+      <c r="CI4" s="58"/>
+      <c r="CJ4" s="58"/>
+      <c r="CK4" s="58"/>
+      <c r="CL4" s="58"/>
+      <c r="CM4" s="58"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="58">
         <f ca="1">CO5</f>
-        <v>45971</v>
-      </c>
-      <c r="CP4" s="64"/>
-      <c r="CQ4" s="64"/>
-      <c r="CR4" s="64"/>
-      <c r="CS4" s="64"/>
-      <c r="CT4" s="64"/>
-      <c r="CU4" s="65"/>
-      <c r="CV4" s="64">
+        <v>45978</v>
+      </c>
+      <c r="CP4" s="58"/>
+      <c r="CQ4" s="58"/>
+      <c r="CR4" s="58"/>
+      <c r="CS4" s="58"/>
+      <c r="CT4" s="58"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="58">
         <f ca="1">CV5</f>
-        <v>45978</v>
-      </c>
-      <c r="CW4" s="64"/>
-      <c r="CX4" s="64"/>
-      <c r="CY4" s="64"/>
-      <c r="CZ4" s="64"/>
-      <c r="DA4" s="64"/>
-      <c r="DB4" s="65"/>
-      <c r="DC4" s="64">
+        <v>45985</v>
+      </c>
+      <c r="CW4" s="58"/>
+      <c r="CX4" s="58"/>
+      <c r="CY4" s="58"/>
+      <c r="CZ4" s="58"/>
+      <c r="DA4" s="58"/>
+      <c r="DB4" s="59"/>
+      <c r="DC4" s="58">
         <f ca="1">DC5</f>
-        <v>45985</v>
-      </c>
-      <c r="DD4" s="64"/>
-      <c r="DE4" s="64"/>
-      <c r="DF4" s="64"/>
-      <c r="DG4" s="64"/>
-      <c r="DH4" s="64"/>
-      <c r="DI4" s="65"/>
-      <c r="DJ4" s="64">
+        <v>45992</v>
+      </c>
+      <c r="DD4" s="58"/>
+      <c r="DE4" s="58"/>
+      <c r="DF4" s="58"/>
+      <c r="DG4" s="58"/>
+      <c r="DH4" s="58"/>
+      <c r="DI4" s="59"/>
+      <c r="DJ4" s="58">
         <f ca="1">DJ5</f>
-        <v>45992</v>
-      </c>
-      <c r="DK4" s="64"/>
-      <c r="DL4" s="64"/>
-      <c r="DM4" s="64"/>
-      <c r="DN4" s="64"/>
-      <c r="DO4" s="64"/>
-      <c r="DP4" s="65"/>
-      <c r="DQ4" s="64">
+        <v>45999</v>
+      </c>
+      <c r="DK4" s="58"/>
+      <c r="DL4" s="58"/>
+      <c r="DM4" s="58"/>
+      <c r="DN4" s="58"/>
+      <c r="DO4" s="58"/>
+      <c r="DP4" s="59"/>
+      <c r="DQ4" s="58">
         <f ca="1">DQ5</f>
-        <v>45999</v>
-      </c>
-      <c r="DR4" s="64"/>
-      <c r="DS4" s="64"/>
-      <c r="DT4" s="64"/>
-      <c r="DU4" s="64"/>
-      <c r="DV4" s="64"/>
-      <c r="DW4" s="65"/>
-      <c r="DX4" s="64">
+        <v>46006</v>
+      </c>
+      <c r="DR4" s="58"/>
+      <c r="DS4" s="58"/>
+      <c r="DT4" s="58"/>
+      <c r="DU4" s="58"/>
+      <c r="DV4" s="58"/>
+      <c r="DW4" s="59"/>
+      <c r="DX4" s="58">
         <f ca="1">DX5</f>
-        <v>46006</v>
-      </c>
-      <c r="DY4" s="64"/>
-      <c r="DZ4" s="64"/>
-      <c r="EA4" s="64"/>
-      <c r="EB4" s="64"/>
+        <v>46013</v>
+      </c>
+      <c r="DY4" s="58"/>
+      <c r="DZ4" s="58"/>
+      <c r="EA4" s="58"/>
+      <c r="EB4" s="58"/>
     </row>
     <row r="5" spans="1:132" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="43">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45887</v>
+        <v>45894</v>
       </c>
       <c r="J5" s="43">
         <f ca="1">I5+1</f>
-        <v>45888</v>
+        <v>45895</v>
       </c>
       <c r="K5" s="43">
         <f t="shared" ref="K5:AZ5" ca="1" si="0">J5+1</f>
-        <v>45889</v>
+        <v>45896</v>
       </c>
       <c r="L5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45897</v>
       </c>
       <c r="M5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45898</v>
       </c>
       <c r="N5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45899</v>
       </c>
       <c r="O5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45893</v>
+        <v>45900</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="Q5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="R5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="S5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="T5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="U5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="V5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="X5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="Y5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="Z5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="AA5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="AB5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="AC5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45907</v>
+        <v>45914</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="AE5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="AF5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="AG5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="AH5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="AI5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45913</v>
+        <v>45920</v>
       </c>
       <c r="AJ5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45914</v>
+        <v>45921</v>
       </c>
       <c r="AK5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="AL5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="AM5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="AN5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="AO5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="AP5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45920</v>
+        <v>45927</v>
       </c>
       <c r="AQ5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45921</v>
+        <v>45928</v>
       </c>
       <c r="AR5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45922</v>
+        <v>45929</v>
       </c>
       <c r="AS5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="AT5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="AU5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="AV5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AW5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="AX5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45928</v>
+        <v>45935</v>
       </c>
       <c r="AY5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45929</v>
+        <v>45936</v>
       </c>
       <c r="AZ5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45930</v>
+        <v>45937</v>
       </c>
       <c r="BA5" s="43">
         <f t="shared" ref="BA5:BG5" ca="1" si="1">AZ5+1</f>
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="BB5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="BC5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45933</v>
+        <v>45940</v>
       </c>
       <c r="BD5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45934</v>
+        <v>45941</v>
       </c>
       <c r="BE5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>45935</v>
+        <v>45942</v>
       </c>
       <c r="BF5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="BG5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45937</v>
+        <v>45944</v>
       </c>
       <c r="BH5" s="43">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45938</v>
+        <v>45945</v>
       </c>
       <c r="BI5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="BJ5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45940</v>
+        <v>45947</v>
       </c>
       <c r="BK5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45941</v>
+        <v>45948</v>
       </c>
       <c r="BL5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45942</v>
+        <v>45949</v>
       </c>
       <c r="BM5" s="45">
         <f t="shared" ref="BM5" ca="1" si="3">BL5+1</f>
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="BN5" s="43">
         <f t="shared" ref="BN5" ca="1" si="4">BM5+1</f>
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="BO5" s="43">
         <f t="shared" ref="BO5" ca="1" si="5">BN5+1</f>
-        <v>45945</v>
+        <v>45952</v>
       </c>
       <c r="BP5" s="43">
         <f t="shared" ref="BP5" ca="1" si="6">BO5+1</f>
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="BQ5" s="43">
         <f t="shared" ref="BQ5" ca="1" si="7">BP5+1</f>
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="BR5" s="43">
         <f t="shared" ref="BR5" ca="1" si="8">BQ5+1</f>
-        <v>45948</v>
+        <v>45955</v>
       </c>
       <c r="BS5" s="43">
         <f t="shared" ref="BS5" ca="1" si="9">BR5+1</f>
-        <v>45949</v>
+        <v>45956</v>
       </c>
       <c r="BT5" s="45">
         <f t="shared" ref="BT5" ca="1" si="10">BS5+1</f>
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="BU5" s="43">
         <f t="shared" ref="BU5" ca="1" si="11">BT5+1</f>
-        <v>45951</v>
+        <v>45958</v>
       </c>
       <c r="BV5" s="43">
         <f t="shared" ref="BV5" ca="1" si="12">BU5+1</f>
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="BW5" s="43">
         <f t="shared" ref="BW5" ca="1" si="13">BV5+1</f>
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="BX5" s="43">
         <f t="shared" ref="BX5" ca="1" si="14">BW5+1</f>
-        <v>45954</v>
+        <v>45961</v>
       </c>
       <c r="BY5" s="43">
         <f t="shared" ref="BY5" ca="1" si="15">BX5+1</f>
-        <v>45955</v>
+        <v>45962</v>
       </c>
       <c r="BZ5" s="43">
         <f t="shared" ref="BZ5" ca="1" si="16">BY5+1</f>
-        <v>45956</v>
+        <v>45963</v>
       </c>
       <c r="CA5" s="45">
         <f t="shared" ref="CA5" ca="1" si="17">BZ5+1</f>
-        <v>45957</v>
+        <v>45964</v>
       </c>
       <c r="CB5" s="43">
         <f t="shared" ref="CB5" ca="1" si="18">CA5+1</f>
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="CC5" s="43">
         <f t="shared" ref="CC5" ca="1" si="19">CB5+1</f>
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="CD5" s="43">
         <f t="shared" ref="CD5" ca="1" si="20">CC5+1</f>
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="CE5" s="43">
         <f t="shared" ref="CE5" ca="1" si="21">CD5+1</f>
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="CF5" s="43">
         <f t="shared" ref="CF5" ca="1" si="22">CE5+1</f>
-        <v>45962</v>
+        <v>45969</v>
       </c>
       <c r="CG5" s="43">
         <f t="shared" ref="CG5" ca="1" si="23">CF5+1</f>
-        <v>45963</v>
+        <v>45970</v>
       </c>
       <c r="CH5" s="45">
         <f t="shared" ref="CH5" ca="1" si="24">CG5+1</f>
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="CI5" s="43">
         <f t="shared" ref="CI5" ca="1" si="25">CH5+1</f>
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="CJ5" s="43">
         <f t="shared" ref="CJ5" ca="1" si="26">CI5+1</f>
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="CK5" s="43">
         <f t="shared" ref="CK5" ca="1" si="27">CJ5+1</f>
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="CL5" s="43">
         <f t="shared" ref="CL5" ca="1" si="28">CK5+1</f>
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="CM5" s="43">
         <f t="shared" ref="CM5" ca="1" si="29">CL5+1</f>
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="CN5" s="43">
         <f t="shared" ref="CN5" ca="1" si="30">CM5+1</f>
-        <v>45970</v>
+        <v>45977</v>
       </c>
       <c r="CO5" s="45">
         <f t="shared" ref="CO5" ca="1" si="31">CN5+1</f>
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="CP5" s="43">
         <f t="shared" ref="CP5" ca="1" si="32">CO5+1</f>
-        <v>45972</v>
+        <v>45979</v>
       </c>
       <c r="CQ5" s="43">
         <f t="shared" ref="CQ5" ca="1" si="33">CP5+1</f>
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="CR5" s="43">
         <f t="shared" ref="CR5" ca="1" si="34">CQ5+1</f>
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="CS5" s="43">
         <f t="shared" ref="CS5" ca="1" si="35">CR5+1</f>
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="CT5" s="43">
         <f t="shared" ref="CT5" ca="1" si="36">CS5+1</f>
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="CU5" s="43">
         <f t="shared" ref="CU5" ca="1" si="37">CT5+1</f>
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="CV5" s="45">
         <f t="shared" ref="CV5" ca="1" si="38">CU5+1</f>
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="CW5" s="43">
         <f t="shared" ref="CW5" ca="1" si="39">CV5+1</f>
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="CX5" s="43">
         <f t="shared" ref="CX5" ca="1" si="40">CW5+1</f>
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="CY5" s="43">
         <f t="shared" ref="CY5" ca="1" si="41">CX5+1</f>
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="CZ5" s="43">
         <f t="shared" ref="CZ5" ca="1" si="42">CY5+1</f>
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="DA5" s="43">
         <f t="shared" ref="DA5" ca="1" si="43">CZ5+1</f>
-        <v>45983</v>
+        <v>45990</v>
       </c>
       <c r="DB5" s="43">
         <f t="shared" ref="DB5" ca="1" si="44">DA5+1</f>
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="DC5" s="45">
         <f t="shared" ref="DC5" ca="1" si="45">DB5+1</f>
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="DD5" s="43">
         <f t="shared" ref="DD5" ca="1" si="46">DC5+1</f>
-        <v>45986</v>
+        <v>45993</v>
       </c>
       <c r="DE5" s="43">
         <f t="shared" ref="DE5" ca="1" si="47">DD5+1</f>
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="DF5" s="43">
         <f t="shared" ref="DF5" ca="1" si="48">DE5+1</f>
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="DG5" s="43">
         <f t="shared" ref="DG5" ca="1" si="49">DF5+1</f>
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="DH5" s="43">
         <f t="shared" ref="DH5" ca="1" si="50">DG5+1</f>
-        <v>45990</v>
+        <v>45997</v>
       </c>
       <c r="DI5" s="43">
         <f t="shared" ref="DI5" ca="1" si="51">DH5+1</f>
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="DJ5" s="45">
         <f t="shared" ref="DJ5" ca="1" si="52">DI5+1</f>
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="DK5" s="43">
         <f t="shared" ref="DK5" ca="1" si="53">DJ5+1</f>
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="DL5" s="43">
         <f t="shared" ref="DL5" ca="1" si="54">DK5+1</f>
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="DM5" s="43">
         <f t="shared" ref="DM5" ca="1" si="55">DL5+1</f>
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="DN5" s="43">
         <f t="shared" ref="DN5" ca="1" si="56">DM5+1</f>
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="DO5" s="43">
         <f t="shared" ref="DO5" ca="1" si="57">DN5+1</f>
-        <v>45997</v>
+        <v>46004</v>
       </c>
       <c r="DP5" s="43">
         <f t="shared" ref="DP5" ca="1" si="58">DO5+1</f>
-        <v>45998</v>
+        <v>46005</v>
       </c>
       <c r="DQ5" s="45">
         <f t="shared" ref="DQ5" ca="1" si="59">DP5+1</f>
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="DR5" s="43">
         <f t="shared" ref="DR5" ca="1" si="60">DQ5+1</f>
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="DS5" s="43">
         <f t="shared" ref="DS5" ca="1" si="61">DR5+1</f>
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="DT5" s="43">
         <f t="shared" ref="DT5" ca="1" si="62">DS5+1</f>
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="DU5" s="43">
         <f t="shared" ref="DU5" ca="1" si="63">DT5+1</f>
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="DV5" s="43">
         <f t="shared" ref="DV5" ca="1" si="64">DU5+1</f>
-        <v>46004</v>
+        <v>46011</v>
       </c>
       <c r="DW5" s="43">
         <f t="shared" ref="DW5" ca="1" si="65">DV5+1</f>
-        <v>46005</v>
+        <v>46012</v>
       </c>
       <c r="DX5" s="45">
         <f t="shared" ref="DX5" ca="1" si="66">DW5+1</f>
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="DY5" s="43">
         <f t="shared" ref="DY5" ca="1" si="67">DX5+1</f>
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="DZ5" s="43">
         <f t="shared" ref="DZ5" ca="1" si="68">DY5+1</f>
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="EA5" s="43">
         <f t="shared" ref="EA5" ca="1" si="69">DZ5+1</f>
-        <v>46009</v>
+        <v>46016</v>
       </c>
       <c r="EB5" s="43">
         <f t="shared" ref="EB5" ca="1" si="70">EA5+1</f>
-        <v>46010</v>
+        <v>46017</v>
       </c>
     </row>
     <row r="6" spans="1:132" ht="15" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="I6" s="46" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="71">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -3514,7 +3530,7 @@
     <row r="12" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="18"/>
       <c r="B12" s="55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
@@ -3653,13 +3669,13 @@
     <row r="13" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A13" s="18"/>
       <c r="B13" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="57">
         <v>45887</v>
@@ -3801,13 +3817,13 @@
     <row r="14" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="18"/>
       <c r="B14" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="57">
         <v>45887</v>
@@ -3946,7 +3962,7 @@
     <row r="15" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A15" s="18"/>
       <c r="B15" s="54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>23</v>
@@ -4091,7 +4107,7 @@
     <row r="16" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="18"/>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>22</v>
@@ -4235,7 +4251,7 @@
     </row>
     <row r="17" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
@@ -4373,13 +4389,13 @@
     </row>
     <row r="18" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B18" s="54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="57">
         <v>45895</v>
@@ -4520,7 +4536,7 @@
     </row>
     <row r="19" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -4664,7 +4680,7 @@
     </row>
     <row r="20" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B20" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>22</v>
@@ -4811,7 +4827,7 @@
     </row>
     <row r="21" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -4819,7 +4835,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="38"/>
       <c r="H21" s="39" t="str">
-        <f t="shared" ref="H21:H26" si="79">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H21:H30" si="79">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I21" s="49"/>
@@ -4949,7 +4965,7 @@
     </row>
     <row r="22" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B22" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>23</v>
@@ -5096,7 +5112,7 @@
     </row>
     <row r="23" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B23" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="35" t="s">
         <v>22</v>
@@ -5108,13 +5124,13 @@
         <v>45901</v>
       </c>
       <c r="F23" s="37">
-        <f>E23+18</f>
-        <v>45919</v>
+        <f>E23+20</f>
+        <v>45921</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
@@ -5242,13 +5258,22 @@
       <c r="EB23" s="49"/>
     </row>
     <row r="24" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="B24" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="40">
+        <v>0</v>
+      </c>
+      <c r="E24" s="57">
+        <v>45901</v>
+      </c>
+      <c r="F24" s="37">
+        <f>E24+20</f>
+        <v>45921</v>
+      </c>
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
       <c r="I24" s="49"/>
@@ -5378,7 +5403,7 @@
     </row>
     <row r="25" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="54" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>22</v>
@@ -5387,11 +5412,11 @@
         <v>0</v>
       </c>
       <c r="E25" s="57">
-        <v>45918</v>
+        <v>45901</v>
       </c>
       <c r="F25" s="37">
-        <f>E25+15</f>
-        <v>45933</v>
+        <f>E25+20</f>
+        <v>45921</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="39"/>
@@ -5522,17 +5547,14 @@
     </row>
     <row r="26" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="55" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="38"/>
-      <c r="H26" s="39" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
+      <c r="H26" s="39"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
       <c r="K26" s="49"/>
@@ -5549,7 +5571,7 @@
       <c r="V26" s="49"/>
       <c r="W26" s="49"/>
       <c r="X26" s="49"/>
-      <c r="Y26" s="50"/>
+      <c r="Y26" s="49"/>
       <c r="Z26" s="49"/>
       <c r="AA26" s="49"/>
       <c r="AB26" s="49"/>
@@ -5660,10 +5682,10 @@
     </row>
     <row r="27" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="54" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="40">
         <v>0</v>
@@ -5672,14 +5694,11 @@
         <v>45918</v>
       </c>
       <c r="F27" s="37">
-        <f>E27+30</f>
-        <v>45948</v>
+        <f>E27+15</f>
+        <v>45933</v>
       </c>
       <c r="G27" s="38"/>
-      <c r="H27" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
-      </c>
+      <c r="H27" s="39"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
@@ -5806,11 +5825,11 @@
       <c r="EB27" s="49"/>
     </row>
     <row r="28" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="54" t="s">
-        <v>40</v>
+      <c r="B28" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" s="40">
         <v>0</v>
@@ -5819,14 +5838,11 @@
         <v>45918</v>
       </c>
       <c r="F28" s="37">
-        <f>F27</f>
-        <v>45948</v>
+        <f>E28+15</f>
+        <v>45933</v>
       </c>
       <c r="G28" s="38"/>
-      <c r="H28" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
-      </c>
+      <c r="H28" s="39"/>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
@@ -5953,11 +5969,11 @@
       <c r="EB28" s="49"/>
     </row>
     <row r="29" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="54" t="s">
-        <v>41</v>
+      <c r="B29" s="72" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="40">
         <v>0</v>
@@ -5966,13 +5982,10 @@
         <v>45918</v>
       </c>
       <c r="F29" s="37">
-        <f>E29+30</f>
-        <v>45948</v>
-      </c>
-      <c r="G29" s="37">
-        <f>F29+10</f>
-        <v>45958</v>
-      </c>
+        <f>E29+15</f>
+        <v>45933</v>
+      </c>
+      <c r="G29" s="38"/>
       <c r="H29" s="39"/>
       <c r="I29" s="49"/>
       <c r="J29" s="49"/>
@@ -6101,7 +6114,7 @@
     </row>
     <row r="30" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B30" s="55" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
@@ -6109,7 +6122,7 @@
       <c r="F30" s="33"/>
       <c r="G30" s="38"/>
       <c r="H30" s="39" t="str">
-        <f t="shared" ref="H30" si="80">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="I30" s="49"/>
@@ -6239,25 +6252,25 @@
     </row>
     <row r="31" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B31" s="54" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="40">
         <v>0</v>
       </c>
       <c r="E31" s="57">
-        <v>45926</v>
+        <v>45918</v>
       </c>
       <c r="F31" s="37">
-        <f>E31+30</f>
-        <v>45956</v>
+        <f>E31+15</f>
+        <v>45933</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
@@ -6386,25 +6399,25 @@
     </row>
     <row r="32" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B32" s="54" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="40">
         <v>0</v>
       </c>
       <c r="E32" s="57">
-        <v>45926</v>
+        <v>45918</v>
       </c>
       <c r="F32" s="37">
-        <f>E32+31</f>
-        <v>45957</v>
+        <f>E31+30</f>
+        <v>45948</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
@@ -6533,20 +6546,20 @@
     </row>
     <row r="33" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B33" s="54" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="40">
         <v>0</v>
       </c>
       <c r="E33" s="57">
-        <v>45926</v>
+        <v>45918</v>
       </c>
       <c r="F33" s="37">
-        <f>E33+32</f>
-        <v>45958</v>
+        <f>F32</f>
+        <v>45948</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
@@ -6677,20 +6690,20 @@
     </row>
     <row r="34" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B34" s="54" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="40">
         <v>0</v>
       </c>
       <c r="E34" s="57">
-        <v>45926</v>
+        <v>45918</v>
       </c>
       <c r="F34" s="37">
-        <f>E34+32</f>
-        <v>45958</v>
+        <f>E33+30</f>
+        <v>45948</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="39"/>
@@ -6820,24 +6833,18 @@
       <c r="EB34" s="49"/>
     </row>
     <row r="35" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="40">
-        <v>0</v>
-      </c>
-      <c r="E35" s="57">
-        <v>45926</v>
-      </c>
-      <c r="F35" s="37">
-        <f>E35+33</f>
-        <v>45959</v>
-      </c>
+      <c r="B35" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39" t="str">
+        <f t="shared" ref="H35" si="80">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
@@ -6854,7 +6861,7 @@
       <c r="V35" s="49"/>
       <c r="W35" s="49"/>
       <c r="X35" s="49"/>
-      <c r="Y35" s="49"/>
+      <c r="Y35" s="50"/>
       <c r="Z35" s="49"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
@@ -6965,10 +6972,10 @@
     </row>
     <row r="36" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B36" s="54" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="40">
         <v>0</v>
@@ -6977,11 +6984,14 @@
         <v>45926</v>
       </c>
       <c r="F36" s="37">
-        <f>E36+34</f>
-        <v>45960</v>
+        <f>E36+30</f>
+        <v>45956</v>
       </c>
       <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="H36" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>31</v>
+      </c>
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
       <c r="K36" s="49"/>
@@ -7109,10 +7119,10 @@
     </row>
     <row r="37" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B37" s="54" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="40">
         <v>0</v>
@@ -7121,11 +7131,14 @@
         <v>45926</v>
       </c>
       <c r="F37" s="37">
-        <f>E37+35</f>
-        <v>45961</v>
+        <f>E37+31</f>
+        <v>45957</v>
       </c>
       <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>32</v>
+      </c>
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
       <c r="K37" s="49"/>
@@ -7253,10 +7266,10 @@
     </row>
     <row r="38" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B38" s="54" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="40">
         <v>0</v>
@@ -7265,8 +7278,8 @@
         <v>45926</v>
       </c>
       <c r="F38" s="37">
-        <f>E38+36</f>
-        <v>45962</v>
+        <f>E38+32</f>
+        <v>45958</v>
       </c>
       <c r="G38" s="38"/>
       <c r="H38" s="39"/>
@@ -7396,18 +7409,24 @@
       <c r="EB38" s="49"/>
     </row>
     <row r="39" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B39" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="B39" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="40">
+        <v>0</v>
+      </c>
+      <c r="E39" s="57">
+        <v>45926</v>
+      </c>
+      <c r="F39" s="37">
+        <f>E39+32</f>
+        <v>45958</v>
+      </c>
       <c r="G39" s="38"/>
-      <c r="H39" s="39" t="str">
-        <f t="shared" ref="H39" si="81">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H39" s="39"/>
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
       <c r="K39" s="49"/>
@@ -7424,7 +7443,7 @@
       <c r="V39" s="49"/>
       <c r="W39" s="49"/>
       <c r="X39" s="49"/>
-      <c r="Y39" s="50"/>
+      <c r="Y39" s="49"/>
       <c r="Z39" s="49"/>
       <c r="AA39" s="49"/>
       <c r="AB39" s="49"/>
@@ -7535,7 +7554,7 @@
     </row>
     <row r="40" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="54" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>22</v>
@@ -7544,17 +7563,14 @@
         <v>0</v>
       </c>
       <c r="E40" s="57">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="F40" s="37">
-        <f>E40+30</f>
-        <v>45976</v>
+        <f>E40+33</f>
+        <v>45959</v>
       </c>
       <c r="G40" s="38"/>
-      <c r="H40" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
-      </c>
+      <c r="H40" s="39"/>
       <c r="I40" s="49"/>
       <c r="J40" s="49"/>
       <c r="K40" s="49"/>
@@ -7682,7 +7698,7 @@
     </row>
     <row r="41" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B41" s="54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>23</v>
@@ -7691,17 +7707,14 @@
         <v>0</v>
       </c>
       <c r="E41" s="57">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="F41" s="37">
-        <f>E41+31</f>
-        <v>45977</v>
+        <f>E41+34</f>
+        <v>45960</v>
       </c>
       <c r="G41" s="38"/>
-      <c r="H41" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>32</v>
-      </c>
+      <c r="H41" s="39"/>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
       <c r="K41" s="49"/>
@@ -7829,7 +7842,7 @@
     </row>
     <row r="42" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>22</v>
@@ -7838,11 +7851,11 @@
         <v>0</v>
       </c>
       <c r="E42" s="57">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="F42" s="37">
-        <f>E42+32</f>
-        <v>45978</v>
+        <f>E42+35</f>
+        <v>45961</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
@@ -7973,7 +7986,7 @@
     </row>
     <row r="43" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B43" s="54" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C43" s="35" t="s">
         <v>23</v>
@@ -7982,11 +7995,11 @@
         <v>0</v>
       </c>
       <c r="E43" s="57">
-        <v>45946</v>
+        <v>45926</v>
       </c>
       <c r="F43" s="37">
-        <f>E43+33</f>
-        <v>45979</v>
+        <f>E43+36</f>
+        <v>45962</v>
       </c>
       <c r="G43" s="38"/>
       <c r="H43" s="39"/>
@@ -8117,7 +8130,7 @@
     </row>
     <row r="44" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B44" s="55" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="33"/>
@@ -8125,7 +8138,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="38"/>
       <c r="H44" s="39" t="str">
-        <f t="shared" ref="H44" si="82">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H44" si="81">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I44" s="49"/>
@@ -8255,7 +8268,7 @@
     </row>
     <row r="45" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B45" s="54" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C45" s="35" t="s">
         <v>22</v>
@@ -8264,16 +8277,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="57">
-        <v>45979</v>
+        <v>45946</v>
       </c>
       <c r="F45" s="37">
-        <f t="shared" ref="F45:F51" si="83">E45+12</f>
-        <v>45991</v>
+        <f>E45+30</f>
+        <v>45976</v>
       </c>
       <c r="G45" s="38"/>
       <c r="H45" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
@@ -8402,7 +8415,7 @@
     </row>
     <row r="46" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B46" s="54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>23</v>
@@ -8411,16 +8424,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="57">
-        <v>45979</v>
+        <v>45946</v>
       </c>
       <c r="F46" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
+        <f>E46+31</f>
+        <v>45977</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I46" s="49"/>
       <c r="J46" s="49"/>
@@ -8549,7 +8562,7 @@
     </row>
     <row r="47" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C47" s="35" t="s">
         <v>22</v>
@@ -8558,11 +8571,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="57">
-        <v>45979</v>
+        <v>45946</v>
       </c>
       <c r="F47" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
+        <f>E47+32</f>
+        <v>45978</v>
       </c>
       <c r="G47" s="38"/>
       <c r="H47" s="39"/>
@@ -8693,7 +8706,7 @@
     </row>
     <row r="48" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B48" s="54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>23</v>
@@ -8702,11 +8715,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="57">
+        <v>45946</v>
+      </c>
+      <c r="F48" s="37">
+        <f>E48+33</f>
         <v>45979</v>
-      </c>
-      <c r="F48" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
       </c>
       <c r="G48" s="38"/>
       <c r="H48" s="39"/>
@@ -8836,24 +8849,18 @@
       <c r="EB48" s="49"/>
     </row>
     <row r="49" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="40">
-        <v>0</v>
-      </c>
-      <c r="E49" s="57">
-        <v>45979</v>
-      </c>
-      <c r="F49" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
-      </c>
+      <c r="B49" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39" t="str">
+        <f t="shared" ref="H49" si="82">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
       <c r="K49" s="49"/>
@@ -8870,7 +8877,7 @@
       <c r="V49" s="49"/>
       <c r="W49" s="49"/>
       <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
+      <c r="Y49" s="50"/>
       <c r="Z49" s="49"/>
       <c r="AA49" s="49"/>
       <c r="AB49" s="49"/>
@@ -8981,10 +8988,10 @@
     </row>
     <row r="50" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B50" s="54" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="40">
         <v>0</v>
@@ -8993,11 +9000,14 @@
         <v>45979</v>
       </c>
       <c r="F50" s="37">
-        <f t="shared" si="83"/>
+        <f>E50+12</f>
         <v>45991</v>
       </c>
       <c r="G50" s="38"/>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>13</v>
+      </c>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
       <c r="K50" s="49"/>
@@ -9125,10 +9135,10 @@
     </row>
     <row r="51" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B51" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D51" s="40">
         <v>0</v>
@@ -9137,11 +9147,14 @@
         <v>45979</v>
       </c>
       <c r="F51" s="37">
-        <f t="shared" si="83"/>
+        <f>E51+12</f>
         <v>45991</v>
       </c>
       <c r="G51" s="38"/>
-      <c r="H51" s="39"/>
+      <c r="H51" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>13</v>
+      </c>
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
       <c r="K51" s="49"/>
@@ -9268,18 +9281,24 @@
       <c r="EB51" s="49"/>
     </row>
     <row r="52" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B52" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
+      <c r="B52" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="40">
+        <v>0</v>
+      </c>
+      <c r="E52" s="57">
+        <v>45979</v>
+      </c>
+      <c r="F52" s="37">
+        <f>E52+12</f>
+        <v>45991</v>
+      </c>
       <c r="G52" s="38"/>
-      <c r="H52" s="39" t="str">
-        <f t="shared" ref="H52" si="84">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H52" s="39"/>
       <c r="I52" s="49"/>
       <c r="J52" s="49"/>
       <c r="K52" s="49"/>
@@ -9296,7 +9315,7 @@
       <c r="V52" s="49"/>
       <c r="W52" s="49"/>
       <c r="X52" s="49"/>
-      <c r="Y52" s="50"/>
+      <c r="Y52" s="49"/>
       <c r="Z52" s="49"/>
       <c r="AA52" s="49"/>
       <c r="AB52" s="49"/>
@@ -9407,26 +9426,23 @@
     </row>
     <row r="53" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B53" s="54" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D53" s="40">
         <v>0</v>
       </c>
       <c r="E53" s="57">
-        <v>45994</v>
+        <v>45979</v>
       </c>
       <c r="F53" s="37">
-        <f>E53+10</f>
-        <v>46004</v>
+        <f>E53+12</f>
+        <v>45991</v>
       </c>
       <c r="G53" s="38"/>
-      <c r="H53" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>11</v>
-      </c>
+      <c r="H53" s="39"/>
       <c r="I53" s="49"/>
       <c r="J53" s="49"/>
       <c r="K53" s="49"/>
@@ -9554,26 +9570,23 @@
     </row>
     <row r="54" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="54" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D54" s="40">
         <v>0</v>
       </c>
       <c r="E54" s="57">
-        <v>45994</v>
+        <v>45979</v>
       </c>
       <c r="F54" s="37">
-        <f>E54+10</f>
-        <v>46004</v>
+        <f>E54+12</f>
+        <v>45991</v>
       </c>
       <c r="G54" s="38"/>
-      <c r="H54" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>11</v>
-      </c>
+      <c r="H54" s="39"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
@@ -9699,25 +9712,25 @@
       <c r="EA54" s="49"/>
       <c r="EB54" s="49"/>
     </row>
-    <row r="55" spans="2:132" ht="30" customHeight="1">
+    <row r="55" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B55" s="54" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="D55" s="40">
         <v>0</v>
       </c>
       <c r="E55" s="57">
-        <v>45994</v>
+        <v>45979</v>
       </c>
       <c r="F55" s="37">
-        <f>E55+10</f>
-        <v>46004</v>
+        <f>E55+12</f>
+        <v>45991</v>
       </c>
       <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="H55" s="39"/>
       <c r="I55" s="49"/>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -9843,25 +9856,25 @@
       <c r="EA55" s="49"/>
       <c r="EB55" s="49"/>
     </row>
-    <row r="56" spans="2:132" ht="30" customHeight="1">
+    <row r="56" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B56" s="54" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="D56" s="40">
         <v>0</v>
       </c>
       <c r="E56" s="57">
-        <v>45994</v>
+        <v>45979</v>
       </c>
       <c r="F56" s="37">
-        <f>E56+10</f>
-        <v>46004</v>
+        <f>E56+12</f>
+        <v>45991</v>
       </c>
       <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="H56" s="39"/>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -9987,20 +10000,725 @@
       <c r="EA56" s="49"/>
       <c r="EB56" s="49"/>
     </row>
-    <row r="57" spans="2:132" ht="30" customHeight="1">
-      <c r="E57"/>
+    <row r="57" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B57" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="39" t="str">
+        <f t="shared" ref="H57" si="83">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="50"/>
+      <c r="Z57" s="49"/>
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="49"/>
+      <c r="AC57" s="49"/>
+      <c r="AD57" s="49"/>
+      <c r="AE57" s="49"/>
+      <c r="AF57" s="49"/>
+      <c r="AG57" s="49"/>
+      <c r="AH57" s="49"/>
+      <c r="AI57" s="49"/>
+      <c r="AJ57" s="49"/>
+      <c r="AK57" s="49"/>
+      <c r="AL57" s="49"/>
+      <c r="AM57" s="49"/>
+      <c r="AN57" s="49"/>
+      <c r="AO57" s="49"/>
+      <c r="AP57" s="49"/>
+      <c r="AQ57" s="49"/>
+      <c r="AR57" s="49"/>
+      <c r="AS57" s="49"/>
+      <c r="AT57" s="49"/>
+      <c r="AU57" s="49"/>
+      <c r="AV57" s="49"/>
+      <c r="AW57" s="49"/>
+      <c r="AX57" s="49"/>
+      <c r="AY57" s="49"/>
+      <c r="AZ57" s="49"/>
+      <c r="BA57" s="49"/>
+      <c r="BB57" s="49"/>
+      <c r="BC57" s="49"/>
+      <c r="BD57" s="49"/>
+      <c r="BE57" s="49"/>
+      <c r="BF57" s="49"/>
+      <c r="BG57" s="49"/>
+      <c r="BH57" s="49"/>
+      <c r="BI57" s="49"/>
+      <c r="BJ57" s="49"/>
+      <c r="BK57" s="49"/>
+      <c r="BL57" s="49"/>
+      <c r="BM57" s="49"/>
+      <c r="BN57" s="49"/>
+      <c r="BO57" s="49"/>
+      <c r="BP57" s="49"/>
+      <c r="BQ57" s="49"/>
+      <c r="BR57" s="49"/>
+      <c r="BS57" s="49"/>
+      <c r="BT57" s="49"/>
+      <c r="BU57" s="49"/>
+      <c r="BV57" s="49"/>
+      <c r="BW57" s="49"/>
+      <c r="BX57" s="49"/>
+      <c r="BY57" s="49"/>
+      <c r="BZ57" s="49"/>
+      <c r="CA57" s="49"/>
+      <c r="CB57" s="49"/>
+      <c r="CC57" s="49"/>
+      <c r="CD57" s="49"/>
+      <c r="CE57" s="49"/>
+      <c r="CF57" s="49"/>
+      <c r="CG57" s="49"/>
+      <c r="CH57" s="49"/>
+      <c r="CI57" s="49"/>
+      <c r="CJ57" s="49"/>
+      <c r="CK57" s="49"/>
+      <c r="CL57" s="49"/>
+      <c r="CM57" s="49"/>
+      <c r="CN57" s="49"/>
+      <c r="CO57" s="49"/>
+      <c r="CP57" s="49"/>
+      <c r="CQ57" s="49"/>
+      <c r="CR57" s="49"/>
+      <c r="CS57" s="49"/>
+      <c r="CT57" s="49"/>
+      <c r="CU57" s="49"/>
+      <c r="CV57" s="49"/>
+      <c r="CW57" s="49"/>
+      <c r="CX57" s="49"/>
+      <c r="CY57" s="49"/>
+      <c r="CZ57" s="49"/>
+      <c r="DA57" s="49"/>
+      <c r="DB57" s="49"/>
+      <c r="DC57" s="49"/>
+      <c r="DD57" s="49"/>
+      <c r="DE57" s="49"/>
+      <c r="DF57" s="49"/>
+      <c r="DG57" s="49"/>
+      <c r="DH57" s="49"/>
+      <c r="DI57" s="49"/>
+      <c r="DJ57" s="49"/>
+      <c r="DK57" s="49"/>
+      <c r="DL57" s="49"/>
+      <c r="DM57" s="49"/>
+      <c r="DN57" s="49"/>
+      <c r="DO57" s="49"/>
+      <c r="DP57" s="49"/>
+      <c r="DQ57" s="49"/>
+      <c r="DR57" s="49"/>
+      <c r="DS57" s="49"/>
+      <c r="DT57" s="49"/>
+      <c r="DU57" s="49"/>
+      <c r="DV57" s="49"/>
+      <c r="DW57" s="49"/>
+      <c r="DX57" s="49"/>
+      <c r="DY57" s="49"/>
+      <c r="DZ57" s="49"/>
+      <c r="EA57" s="49"/>
+      <c r="EB57" s="49"/>
     </row>
-    <row r="58" spans="2:132" ht="30" customHeight="1">
-      <c r="E58"/>
+    <row r="58" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B58" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="40">
+        <v>0</v>
+      </c>
+      <c r="E58" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F58" s="37">
+        <f>E58+10</f>
+        <v>46004</v>
+      </c>
+      <c r="G58" s="38"/>
+      <c r="H58" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>11</v>
+      </c>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="49"/>
+      <c r="AC58" s="49"/>
+      <c r="AD58" s="49"/>
+      <c r="AE58" s="49"/>
+      <c r="AF58" s="49"/>
+      <c r="AG58" s="49"/>
+      <c r="AH58" s="49"/>
+      <c r="AI58" s="49"/>
+      <c r="AJ58" s="49"/>
+      <c r="AK58" s="49"/>
+      <c r="AL58" s="49"/>
+      <c r="AM58" s="49"/>
+      <c r="AN58" s="49"/>
+      <c r="AO58" s="49"/>
+      <c r="AP58" s="49"/>
+      <c r="AQ58" s="49"/>
+      <c r="AR58" s="49"/>
+      <c r="AS58" s="49"/>
+      <c r="AT58" s="49"/>
+      <c r="AU58" s="49"/>
+      <c r="AV58" s="49"/>
+      <c r="AW58" s="49"/>
+      <c r="AX58" s="49"/>
+      <c r="AY58" s="49"/>
+      <c r="AZ58" s="49"/>
+      <c r="BA58" s="49"/>
+      <c r="BB58" s="49"/>
+      <c r="BC58" s="49"/>
+      <c r="BD58" s="49"/>
+      <c r="BE58" s="49"/>
+      <c r="BF58" s="49"/>
+      <c r="BG58" s="49"/>
+      <c r="BH58" s="49"/>
+      <c r="BI58" s="49"/>
+      <c r="BJ58" s="49"/>
+      <c r="BK58" s="49"/>
+      <c r="BL58" s="49"/>
+      <c r="BM58" s="49"/>
+      <c r="BN58" s="49"/>
+      <c r="BO58" s="49"/>
+      <c r="BP58" s="49"/>
+      <c r="BQ58" s="49"/>
+      <c r="BR58" s="49"/>
+      <c r="BS58" s="49"/>
+      <c r="BT58" s="49"/>
+      <c r="BU58" s="49"/>
+      <c r="BV58" s="49"/>
+      <c r="BW58" s="49"/>
+      <c r="BX58" s="49"/>
+      <c r="BY58" s="49"/>
+      <c r="BZ58" s="49"/>
+      <c r="CA58" s="49"/>
+      <c r="CB58" s="49"/>
+      <c r="CC58" s="49"/>
+      <c r="CD58" s="49"/>
+      <c r="CE58" s="49"/>
+      <c r="CF58" s="49"/>
+      <c r="CG58" s="49"/>
+      <c r="CH58" s="49"/>
+      <c r="CI58" s="49"/>
+      <c r="CJ58" s="49"/>
+      <c r="CK58" s="49"/>
+      <c r="CL58" s="49"/>
+      <c r="CM58" s="49"/>
+      <c r="CN58" s="49"/>
+      <c r="CO58" s="49"/>
+      <c r="CP58" s="49"/>
+      <c r="CQ58" s="49"/>
+      <c r="CR58" s="49"/>
+      <c r="CS58" s="49"/>
+      <c r="CT58" s="49"/>
+      <c r="CU58" s="49"/>
+      <c r="CV58" s="49"/>
+      <c r="CW58" s="49"/>
+      <c r="CX58" s="49"/>
+      <c r="CY58" s="49"/>
+      <c r="CZ58" s="49"/>
+      <c r="DA58" s="49"/>
+      <c r="DB58" s="49"/>
+      <c r="DC58" s="49"/>
+      <c r="DD58" s="49"/>
+      <c r="DE58" s="49"/>
+      <c r="DF58" s="49"/>
+      <c r="DG58" s="49"/>
+      <c r="DH58" s="49"/>
+      <c r="DI58" s="49"/>
+      <c r="DJ58" s="49"/>
+      <c r="DK58" s="49"/>
+      <c r="DL58" s="49"/>
+      <c r="DM58" s="49"/>
+      <c r="DN58" s="49"/>
+      <c r="DO58" s="49"/>
+      <c r="DP58" s="49"/>
+      <c r="DQ58" s="49"/>
+      <c r="DR58" s="49"/>
+      <c r="DS58" s="49"/>
+      <c r="DT58" s="49"/>
+      <c r="DU58" s="49"/>
+      <c r="DV58" s="49"/>
+      <c r="DW58" s="49"/>
+      <c r="DX58" s="49"/>
+      <c r="DY58" s="49"/>
+      <c r="DZ58" s="49"/>
+      <c r="EA58" s="49"/>
+      <c r="EB58" s="49"/>
     </row>
-    <row r="59" spans="2:132" ht="30" customHeight="1">
-      <c r="E59"/>
+    <row r="59" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B59" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0</v>
+      </c>
+      <c r="E59" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F59" s="37">
+        <f>E59+10</f>
+        <v>46004</v>
+      </c>
+      <c r="G59" s="38"/>
+      <c r="H59" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>11</v>
+      </c>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="49"/>
+      <c r="U59" s="49"/>
+      <c r="V59" s="49"/>
+      <c r="W59" s="49"/>
+      <c r="X59" s="49"/>
+      <c r="Y59" s="49"/>
+      <c r="Z59" s="49"/>
+      <c r="AA59" s="49"/>
+      <c r="AB59" s="49"/>
+      <c r="AC59" s="49"/>
+      <c r="AD59" s="49"/>
+      <c r="AE59" s="49"/>
+      <c r="AF59" s="49"/>
+      <c r="AG59" s="49"/>
+      <c r="AH59" s="49"/>
+      <c r="AI59" s="49"/>
+      <c r="AJ59" s="49"/>
+      <c r="AK59" s="49"/>
+      <c r="AL59" s="49"/>
+      <c r="AM59" s="49"/>
+      <c r="AN59" s="49"/>
+      <c r="AO59" s="49"/>
+      <c r="AP59" s="49"/>
+      <c r="AQ59" s="49"/>
+      <c r="AR59" s="49"/>
+      <c r="AS59" s="49"/>
+      <c r="AT59" s="49"/>
+      <c r="AU59" s="49"/>
+      <c r="AV59" s="49"/>
+      <c r="AW59" s="49"/>
+      <c r="AX59" s="49"/>
+      <c r="AY59" s="49"/>
+      <c r="AZ59" s="49"/>
+      <c r="BA59" s="49"/>
+      <c r="BB59" s="49"/>
+      <c r="BC59" s="49"/>
+      <c r="BD59" s="49"/>
+      <c r="BE59" s="49"/>
+      <c r="BF59" s="49"/>
+      <c r="BG59" s="49"/>
+      <c r="BH59" s="49"/>
+      <c r="BI59" s="49"/>
+      <c r="BJ59" s="49"/>
+      <c r="BK59" s="49"/>
+      <c r="BL59" s="49"/>
+      <c r="BM59" s="49"/>
+      <c r="BN59" s="49"/>
+      <c r="BO59" s="49"/>
+      <c r="BP59" s="49"/>
+      <c r="BQ59" s="49"/>
+      <c r="BR59" s="49"/>
+      <c r="BS59" s="49"/>
+      <c r="BT59" s="49"/>
+      <c r="BU59" s="49"/>
+      <c r="BV59" s="49"/>
+      <c r="BW59" s="49"/>
+      <c r="BX59" s="49"/>
+      <c r="BY59" s="49"/>
+      <c r="BZ59" s="49"/>
+      <c r="CA59" s="49"/>
+      <c r="CB59" s="49"/>
+      <c r="CC59" s="49"/>
+      <c r="CD59" s="49"/>
+      <c r="CE59" s="49"/>
+      <c r="CF59" s="49"/>
+      <c r="CG59" s="49"/>
+      <c r="CH59" s="49"/>
+      <c r="CI59" s="49"/>
+      <c r="CJ59" s="49"/>
+      <c r="CK59" s="49"/>
+      <c r="CL59" s="49"/>
+      <c r="CM59" s="49"/>
+      <c r="CN59" s="49"/>
+      <c r="CO59" s="49"/>
+      <c r="CP59" s="49"/>
+      <c r="CQ59" s="49"/>
+      <c r="CR59" s="49"/>
+      <c r="CS59" s="49"/>
+      <c r="CT59" s="49"/>
+      <c r="CU59" s="49"/>
+      <c r="CV59" s="49"/>
+      <c r="CW59" s="49"/>
+      <c r="CX59" s="49"/>
+      <c r="CY59" s="49"/>
+      <c r="CZ59" s="49"/>
+      <c r="DA59" s="49"/>
+      <c r="DB59" s="49"/>
+      <c r="DC59" s="49"/>
+      <c r="DD59" s="49"/>
+      <c r="DE59" s="49"/>
+      <c r="DF59" s="49"/>
+      <c r="DG59" s="49"/>
+      <c r="DH59" s="49"/>
+      <c r="DI59" s="49"/>
+      <c r="DJ59" s="49"/>
+      <c r="DK59" s="49"/>
+      <c r="DL59" s="49"/>
+      <c r="DM59" s="49"/>
+      <c r="DN59" s="49"/>
+      <c r="DO59" s="49"/>
+      <c r="DP59" s="49"/>
+      <c r="DQ59" s="49"/>
+      <c r="DR59" s="49"/>
+      <c r="DS59" s="49"/>
+      <c r="DT59" s="49"/>
+      <c r="DU59" s="49"/>
+      <c r="DV59" s="49"/>
+      <c r="DW59" s="49"/>
+      <c r="DX59" s="49"/>
+      <c r="DY59" s="49"/>
+      <c r="DZ59" s="49"/>
+      <c r="EA59" s="49"/>
+      <c r="EB59" s="49"/>
     </row>
     <row r="60" spans="2:132" ht="30" customHeight="1">
-      <c r="E60"/>
+      <c r="B60" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="40">
+        <v>0</v>
+      </c>
+      <c r="E60" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F60" s="37">
+        <f>E60+10</f>
+        <v>46004</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="49"/>
+      <c r="V60" s="49"/>
+      <c r="W60" s="49"/>
+      <c r="X60" s="49"/>
+      <c r="Y60" s="49"/>
+      <c r="Z60" s="49"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="49"/>
+      <c r="AC60" s="49"/>
+      <c r="AD60" s="49"/>
+      <c r="AE60" s="49"/>
+      <c r="AF60" s="49"/>
+      <c r="AG60" s="49"/>
+      <c r="AH60" s="49"/>
+      <c r="AI60" s="49"/>
+      <c r="AJ60" s="49"/>
+      <c r="AK60" s="49"/>
+      <c r="AL60" s="49"/>
+      <c r="AM60" s="49"/>
+      <c r="AN60" s="49"/>
+      <c r="AO60" s="49"/>
+      <c r="AP60" s="49"/>
+      <c r="AQ60" s="49"/>
+      <c r="AR60" s="49"/>
+      <c r="AS60" s="49"/>
+      <c r="AT60" s="49"/>
+      <c r="AU60" s="49"/>
+      <c r="AV60" s="49"/>
+      <c r="AW60" s="49"/>
+      <c r="AX60" s="49"/>
+      <c r="AY60" s="49"/>
+      <c r="AZ60" s="49"/>
+      <c r="BA60" s="49"/>
+      <c r="BB60" s="49"/>
+      <c r="BC60" s="49"/>
+      <c r="BD60" s="49"/>
+      <c r="BE60" s="49"/>
+      <c r="BF60" s="49"/>
+      <c r="BG60" s="49"/>
+      <c r="BH60" s="49"/>
+      <c r="BI60" s="49"/>
+      <c r="BJ60" s="49"/>
+      <c r="BK60" s="49"/>
+      <c r="BL60" s="49"/>
+      <c r="BM60" s="49"/>
+      <c r="BN60" s="49"/>
+      <c r="BO60" s="49"/>
+      <c r="BP60" s="49"/>
+      <c r="BQ60" s="49"/>
+      <c r="BR60" s="49"/>
+      <c r="BS60" s="49"/>
+      <c r="BT60" s="49"/>
+      <c r="BU60" s="49"/>
+      <c r="BV60" s="49"/>
+      <c r="BW60" s="49"/>
+      <c r="BX60" s="49"/>
+      <c r="BY60" s="49"/>
+      <c r="BZ60" s="49"/>
+      <c r="CA60" s="49"/>
+      <c r="CB60" s="49"/>
+      <c r="CC60" s="49"/>
+      <c r="CD60" s="49"/>
+      <c r="CE60" s="49"/>
+      <c r="CF60" s="49"/>
+      <c r="CG60" s="49"/>
+      <c r="CH60" s="49"/>
+      <c r="CI60" s="49"/>
+      <c r="CJ60" s="49"/>
+      <c r="CK60" s="49"/>
+      <c r="CL60" s="49"/>
+      <c r="CM60" s="49"/>
+      <c r="CN60" s="49"/>
+      <c r="CO60" s="49"/>
+      <c r="CP60" s="49"/>
+      <c r="CQ60" s="49"/>
+      <c r="CR60" s="49"/>
+      <c r="CS60" s="49"/>
+      <c r="CT60" s="49"/>
+      <c r="CU60" s="49"/>
+      <c r="CV60" s="49"/>
+      <c r="CW60" s="49"/>
+      <c r="CX60" s="49"/>
+      <c r="CY60" s="49"/>
+      <c r="CZ60" s="49"/>
+      <c r="DA60" s="49"/>
+      <c r="DB60" s="49"/>
+      <c r="DC60" s="49"/>
+      <c r="DD60" s="49"/>
+      <c r="DE60" s="49"/>
+      <c r="DF60" s="49"/>
+      <c r="DG60" s="49"/>
+      <c r="DH60" s="49"/>
+      <c r="DI60" s="49"/>
+      <c r="DJ60" s="49"/>
+      <c r="DK60" s="49"/>
+      <c r="DL60" s="49"/>
+      <c r="DM60" s="49"/>
+      <c r="DN60" s="49"/>
+      <c r="DO60" s="49"/>
+      <c r="DP60" s="49"/>
+      <c r="DQ60" s="49"/>
+      <c r="DR60" s="49"/>
+      <c r="DS60" s="49"/>
+      <c r="DT60" s="49"/>
+      <c r="DU60" s="49"/>
+      <c r="DV60" s="49"/>
+      <c r="DW60" s="49"/>
+      <c r="DX60" s="49"/>
+      <c r="DY60" s="49"/>
+      <c r="DZ60" s="49"/>
+      <c r="EA60" s="49"/>
+      <c r="EB60" s="49"/>
     </row>
     <row r="61" spans="2:132" ht="30" customHeight="1">
-      <c r="E61"/>
+      <c r="B61" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="40">
+        <v>0</v>
+      </c>
+      <c r="E61" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F61" s="37">
+        <f>E61+10</f>
+        <v>46004</v>
+      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="49"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="49"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="49"/>
+      <c r="AS61" s="49"/>
+      <c r="AT61" s="49"/>
+      <c r="AU61" s="49"/>
+      <c r="AV61" s="49"/>
+      <c r="AW61" s="49"/>
+      <c r="AX61" s="49"/>
+      <c r="AY61" s="49"/>
+      <c r="AZ61" s="49"/>
+      <c r="BA61" s="49"/>
+      <c r="BB61" s="49"/>
+      <c r="BC61" s="49"/>
+      <c r="BD61" s="49"/>
+      <c r="BE61" s="49"/>
+      <c r="BF61" s="49"/>
+      <c r="BG61" s="49"/>
+      <c r="BH61" s="49"/>
+      <c r="BI61" s="49"/>
+      <c r="BJ61" s="49"/>
+      <c r="BK61" s="49"/>
+      <c r="BL61" s="49"/>
+      <c r="BM61" s="49"/>
+      <c r="BN61" s="49"/>
+      <c r="BO61" s="49"/>
+      <c r="BP61" s="49"/>
+      <c r="BQ61" s="49"/>
+      <c r="BR61" s="49"/>
+      <c r="BS61" s="49"/>
+      <c r="BT61" s="49"/>
+      <c r="BU61" s="49"/>
+      <c r="BV61" s="49"/>
+      <c r="BW61" s="49"/>
+      <c r="BX61" s="49"/>
+      <c r="BY61" s="49"/>
+      <c r="BZ61" s="49"/>
+      <c r="CA61" s="49"/>
+      <c r="CB61" s="49"/>
+      <c r="CC61" s="49"/>
+      <c r="CD61" s="49"/>
+      <c r="CE61" s="49"/>
+      <c r="CF61" s="49"/>
+      <c r="CG61" s="49"/>
+      <c r="CH61" s="49"/>
+      <c r="CI61" s="49"/>
+      <c r="CJ61" s="49"/>
+      <c r="CK61" s="49"/>
+      <c r="CL61" s="49"/>
+      <c r="CM61" s="49"/>
+      <c r="CN61" s="49"/>
+      <c r="CO61" s="49"/>
+      <c r="CP61" s="49"/>
+      <c r="CQ61" s="49"/>
+      <c r="CR61" s="49"/>
+      <c r="CS61" s="49"/>
+      <c r="CT61" s="49"/>
+      <c r="CU61" s="49"/>
+      <c r="CV61" s="49"/>
+      <c r="CW61" s="49"/>
+      <c r="CX61" s="49"/>
+      <c r="CY61" s="49"/>
+      <c r="CZ61" s="49"/>
+      <c r="DA61" s="49"/>
+      <c r="DB61" s="49"/>
+      <c r="DC61" s="49"/>
+      <c r="DD61" s="49"/>
+      <c r="DE61" s="49"/>
+      <c r="DF61" s="49"/>
+      <c r="DG61" s="49"/>
+      <c r="DH61" s="49"/>
+      <c r="DI61" s="49"/>
+      <c r="DJ61" s="49"/>
+      <c r="DK61" s="49"/>
+      <c r="DL61" s="49"/>
+      <c r="DM61" s="49"/>
+      <c r="DN61" s="49"/>
+      <c r="DO61" s="49"/>
+      <c r="DP61" s="49"/>
+      <c r="DQ61" s="49"/>
+      <c r="DR61" s="49"/>
+      <c r="DS61" s="49"/>
+      <c r="DT61" s="49"/>
+      <c r="DU61" s="49"/>
+      <c r="DV61" s="49"/>
+      <c r="DW61" s="49"/>
+      <c r="DX61" s="49"/>
+      <c r="DY61" s="49"/>
+      <c r="DZ61" s="49"/>
+      <c r="EA61" s="49"/>
+      <c r="EB61" s="49"/>
     </row>
     <row r="62" spans="2:132" ht="30" customHeight="1">
       <c r="E62"/>
@@ -10011,29 +10729,23 @@
     <row r="64" spans="2:132" ht="30" customHeight="1">
       <c r="E64"/>
     </row>
+    <row r="65" spans="5:5" ht="30" customHeight="1">
+      <c r="E65"/>
+    </row>
+    <row r="66" spans="5:5" ht="30" customHeight="1">
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="5:5" ht="30" customHeight="1">
+      <c r="E67"/>
+    </row>
+    <row r="68" spans="5:5" ht="30" customHeight="1">
+      <c r="E68"/>
+    </row>
+    <row r="69" spans="5:5" ht="30" customHeight="1">
+      <c r="E69"/>
+    </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:EB4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="I2:O2"/>
@@ -10041,8 +10753,29 @@
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:EB4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D56">
+  <conditionalFormatting sqref="D7:D61">
     <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10056,47 +10789,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:EA56">
+  <conditionalFormatting sqref="I4:EA61">
     <cfRule type="expression" dxfId="5" priority="23">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:EA51">
+  <conditionalFormatting sqref="I9:EA56">
     <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:EA56">
+  <conditionalFormatting sqref="I57:EA61">
     <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:EB56">
+  <conditionalFormatting sqref="I9:EB61">
     <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EB4:EB56">
+  <conditionalFormatting sqref="EB4:EB61">
     <cfRule type="expression" dxfId="1" priority="244">
       <formula>AND(TODAY()&gt;=EB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EB9:EB56">
+  <conditionalFormatting sqref="EB9:EB61">
     <cfRule type="expression" dxfId="0" priority="248" stopIfTrue="1">
       <formula>AND(task_end&gt;=EB$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -10120,7 +10853,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D56</xm:sqref>
+          <xm:sqref>D7:D61</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10129,19 +10862,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="87" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10151,7 +10884,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -10166,42 +10899,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.15" customHeight="1">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.2" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57">
+    <row r="9" spans="1:2" ht="41.4">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.2" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5">
+    <row r="12" spans="1:2" ht="27.6">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.2" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -10211,7 +10944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="71.25">
+    <row r="16" spans="1:2" ht="69">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -10242,9 +10975,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10253,6 +10986,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10564,26 +11317,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10594,13 +11327,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/Simple-Gantt-chart.xlsx
+++ b/Simple-Gantt-chart.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Carlo_ThesisFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB70CA-36FE-4AE3-A2E7-2B2E870D93D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Project start:</t>
   </si>
@@ -165,9 +164,6 @@
     <t>Define System Components</t>
   </si>
   <si>
-    <t>Apply UX Principles</t>
-  </si>
-  <si>
     <t>Draw Use Case Diagram</t>
   </si>
   <si>
@@ -287,11 +283,14 @@
   <si>
     <t>Review Architecture</t>
   </si>
+  <si>
+    <t>Apply Button  Functionality in UI Design</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
@@ -929,6 +928,9 @@
     <xf numFmtId="164" fontId="29" fillId="5" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="166" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,22 +967,19 @@
     <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Date" xfId="6"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Name" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Name" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Task" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Project Start" xfId="8"/>
+    <cellStyle name="Task" xfId="9"/>
     <cellStyle name="Title" xfId="3" builtinId="15"/>
-    <cellStyle name="zHiddenText" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="zHiddenText" xfId="10"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1164,7 +1163,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ToDoList" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1519,29 +1518,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EB69"/>
+  <dimension ref="A1:EB68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="BF41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="DE48" sqref="DE48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="46.19921875" customWidth="1"/>
-    <col min="3" max="3" width="36.69921875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.59765625" customWidth="1"/>
-    <col min="7" max="7" width="2.69921875" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="2.75" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.69921875" customWidth="1"/>
-    <col min="70" max="70" width="10.19921875" customWidth="1"/>
-    <col min="71" max="71" width="8.69921875" hidden="1" customWidth="1"/>
+    <col min="9" max="65" width="2.75" customWidth="1"/>
+    <col min="66" max="66" width="2.875" customWidth="1"/>
+    <col min="67" max="67" width="2.75" customWidth="1"/>
+    <col min="68" max="68" width="2.875" customWidth="1"/>
+    <col min="69" max="69" width="3.125" customWidth="1"/>
+    <col min="70" max="70" width="3.25" customWidth="1"/>
+    <col min="71" max="71" width="8.75" hidden="1" customWidth="1"/>
+    <col min="72" max="73" width="3" customWidth="1"/>
+    <col min="74" max="74" width="3.125" customWidth="1"/>
+    <col min="75" max="75" width="2.875" customWidth="1"/>
+    <col min="76" max="76" width="3" customWidth="1"/>
+    <col min="77" max="77" width="2.875" customWidth="1"/>
+    <col min="78" max="78" width="2.75" customWidth="1"/>
+    <col min="79" max="79" width="3" customWidth="1"/>
+    <col min="80" max="80" width="2.875" customWidth="1"/>
+    <col min="81" max="82" width="3" customWidth="1"/>
+    <col min="83" max="84" width="2.875" customWidth="1"/>
+    <col min="85" max="85" width="3.25" customWidth="1"/>
+    <col min="86" max="87" width="3.125" customWidth="1"/>
+    <col min="88" max="88" width="3" customWidth="1"/>
+    <col min="89" max="89" width="2.875" customWidth="1"/>
+    <col min="90" max="91" width="3.125" customWidth="1"/>
+    <col min="92" max="93" width="3" customWidth="1"/>
+    <col min="94" max="95" width="3.125" customWidth="1"/>
+    <col min="96" max="96" width="3.5" customWidth="1"/>
+    <col min="97" max="97" width="3.625" customWidth="1"/>
+    <col min="98" max="98" width="3.75" customWidth="1"/>
+    <col min="99" max="99" width="3.25" customWidth="1"/>
+    <col min="100" max="100" width="3.125" customWidth="1"/>
+    <col min="101" max="101" width="3" customWidth="1"/>
+    <col min="102" max="102" width="3.5" customWidth="1"/>
+    <col min="103" max="103" width="3.875" customWidth="1"/>
+    <col min="104" max="104" width="3.25" customWidth="1"/>
+    <col min="105" max="105" width="3.375" customWidth="1"/>
+    <col min="106" max="106" width="3.25" customWidth="1"/>
+    <col min="107" max="107" width="2.875" customWidth="1"/>
+    <col min="108" max="108" width="3.125" customWidth="1"/>
+    <col min="109" max="110" width="3" customWidth="1"/>
+    <col min="111" max="112" width="2.75" customWidth="1"/>
+    <col min="113" max="113" width="3.25" customWidth="1"/>
+    <col min="114" max="114" width="3.75" customWidth="1"/>
+    <col min="115" max="115" width="3.125" customWidth="1"/>
+    <col min="116" max="116" width="3.25" customWidth="1"/>
+    <col min="117" max="117" width="3.125" customWidth="1"/>
+    <col min="118" max="118" width="3.25" customWidth="1"/>
+    <col min="119" max="119" width="3.5" customWidth="1"/>
+    <col min="120" max="120" width="3.625" customWidth="1"/>
+    <col min="121" max="123" width="3.25" customWidth="1"/>
+    <col min="124" max="124" width="2.75" customWidth="1"/>
+    <col min="125" max="125" width="3" customWidth="1"/>
+    <col min="126" max="127" width="3.125" customWidth="1"/>
+    <col min="128" max="128" width="3" customWidth="1"/>
+    <col min="129" max="129" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" ht="90" customHeight="1">
@@ -1554,29 +1603,29 @@
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="68">
+      <c r="Q1" s="69">
         <f ca="1">TODAY()</f>
-        <v>45897</v>
-      </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
+        <v>45898</v>
+      </c>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
     </row>
     <row r="2" spans="1:132" ht="30" customHeight="1">
       <c r="B2" s="52" t="s">
@@ -1588,28 +1637,28 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="23"/>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="42"/>
-      <c r="Q2" s="70">
+      <c r="Q2" s="71">
         <v>1</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
     </row>
     <row r="3" spans="1:132" ht="30" customHeight="1">
       <c r="B3" s="25"/>
@@ -1619,199 +1668,199 @@
       <c r="A4" s="18"/>
       <c r="B4" s="27"/>
       <c r="E4" s="28"/>
-      <c r="I4" s="71">
+      <c r="I4" s="72">
         <f ca="1">I5</f>
         <v>45894</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58">
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59">
         <f ca="1">P5</f>
         <v>45901</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="58"/>
-      <c r="W4" s="58">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59">
         <f ca="1">W5</f>
         <v>45908</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="58">
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59">
         <f ca="1">AD5</f>
         <v>45915</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58">
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59">
         <f ca="1">AK5</f>
         <v>45922</v>
       </c>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="58"/>
-      <c r="AR4" s="58">
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59">
         <f ca="1">AR5</f>
         <v>45929</v>
       </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="58"/>
-      <c r="AY4" s="58">
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59">
         <f ca="1">AY5</f>
         <v>45936</v>
       </c>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="58"/>
-      <c r="BF4" s="58">
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59">
         <f ca="1">BF5</f>
         <v>45943</v>
       </c>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="58">
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="59">
         <f ca="1">BM5</f>
         <v>45950</v>
       </c>
-      <c r="BN4" s="58"/>
-      <c r="BO4" s="58"/>
-      <c r="BP4" s="58"/>
-      <c r="BQ4" s="58"/>
-      <c r="BR4" s="58"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU4" s="58"/>
-      <c r="BV4" s="58"/>
-      <c r="BW4" s="58"/>
-      <c r="BX4" s="58"/>
-      <c r="BY4" s="58"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="58">
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="59"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="59">
         <f ca="1">CA5</f>
         <v>45964</v>
       </c>
-      <c r="CB4" s="58"/>
-      <c r="CC4" s="58"/>
-      <c r="CD4" s="58"/>
-      <c r="CE4" s="58"/>
-      <c r="CF4" s="58"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="58">
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="59">
         <f ca="1">CH5</f>
         <v>45971</v>
       </c>
-      <c r="CI4" s="58"/>
-      <c r="CJ4" s="58"/>
-      <c r="CK4" s="58"/>
-      <c r="CL4" s="58"/>
-      <c r="CM4" s="58"/>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="58">
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="59"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="59">
         <f ca="1">CO5</f>
         <v>45978</v>
       </c>
-      <c r="CP4" s="58"/>
-      <c r="CQ4" s="58"/>
-      <c r="CR4" s="58"/>
-      <c r="CS4" s="58"/>
-      <c r="CT4" s="58"/>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="58">
+      <c r="CP4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+      <c r="CS4" s="59"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="59">
         <f ca="1">CV5</f>
         <v>45985</v>
       </c>
-      <c r="CW4" s="58"/>
-      <c r="CX4" s="58"/>
-      <c r="CY4" s="58"/>
-      <c r="CZ4" s="58"/>
-      <c r="DA4" s="58"/>
-      <c r="DB4" s="59"/>
-      <c r="DC4" s="58">
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
+      <c r="CZ4" s="59"/>
+      <c r="DA4" s="59"/>
+      <c r="DB4" s="60"/>
+      <c r="DC4" s="59">
         <f ca="1">DC5</f>
         <v>45992</v>
       </c>
-      <c r="DD4" s="58"/>
-      <c r="DE4" s="58"/>
-      <c r="DF4" s="58"/>
-      <c r="DG4" s="58"/>
-      <c r="DH4" s="58"/>
-      <c r="DI4" s="59"/>
-      <c r="DJ4" s="58">
+      <c r="DD4" s="59"/>
+      <c r="DE4" s="59"/>
+      <c r="DF4" s="59"/>
+      <c r="DG4" s="59"/>
+      <c r="DH4" s="59"/>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="59">
         <f ca="1">DJ5</f>
         <v>45999</v>
       </c>
-      <c r="DK4" s="58"/>
-      <c r="DL4" s="58"/>
-      <c r="DM4" s="58"/>
-      <c r="DN4" s="58"/>
-      <c r="DO4" s="58"/>
-      <c r="DP4" s="59"/>
-      <c r="DQ4" s="58">
+      <c r="DK4" s="59"/>
+      <c r="DL4" s="59"/>
+      <c r="DM4" s="59"/>
+      <c r="DN4" s="59"/>
+      <c r="DO4" s="59"/>
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="59">
         <f ca="1">DQ5</f>
         <v>46006</v>
       </c>
-      <c r="DR4" s="58"/>
-      <c r="DS4" s="58"/>
-      <c r="DT4" s="58"/>
-      <c r="DU4" s="58"/>
-      <c r="DV4" s="58"/>
-      <c r="DW4" s="59"/>
-      <c r="DX4" s="58">
+      <c r="DR4" s="59"/>
+      <c r="DS4" s="59"/>
+      <c r="DT4" s="59"/>
+      <c r="DU4" s="59"/>
+      <c r="DV4" s="59"/>
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="59">
         <f ca="1">DX5</f>
         <v>46013</v>
       </c>
-      <c r="DY4" s="58"/>
-      <c r="DZ4" s="58"/>
-      <c r="EA4" s="58"/>
-      <c r="EB4" s="58"/>
+      <c r="DY4" s="59"/>
+      <c r="DZ4" s="59"/>
+      <c r="EA4" s="59"/>
+      <c r="EB4" s="59"/>
     </row>
     <row r="5" spans="1:132" ht="15" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="61" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="43">
@@ -2312,12 +2361,12 @@
       </c>
     </row>
     <row r="6" spans="1:132" ht="15" customHeight="1">
-      <c r="A6" s="62"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="I6" s="46" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="71">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -3530,7 +3579,7 @@
     <row r="12" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="18"/>
       <c r="B12" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
@@ -4251,7 +4300,7 @@
     </row>
     <row r="17" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
@@ -4827,7 +4876,7 @@
     </row>
     <row r="21" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B21" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -5259,7 +5308,7 @@
     </row>
     <row r="24" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B24" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>23</v>
@@ -5403,7 +5452,7 @@
     </row>
     <row r="25" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B25" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>22</v>
@@ -5547,7 +5596,7 @@
     </row>
     <row r="26" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B26" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="32"/>
       <c r="D26" s="33"/>
@@ -5682,7 +5731,7 @@
     </row>
     <row r="27" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>22</v>
@@ -5691,11 +5740,11 @@
         <v>0</v>
       </c>
       <c r="E27" s="57">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="F27" s="37">
         <f>E27+15</f>
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
@@ -5825,8 +5874,8 @@
       <c r="EB27" s="49"/>
     </row>
     <row r="28" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="72" t="s">
-        <v>76</v>
+      <c r="B28" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>23</v>
@@ -5835,11 +5884,11 @@
         <v>0</v>
       </c>
       <c r="E28" s="57">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="F28" s="37">
         <f>E28+15</f>
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
@@ -5969,8 +6018,8 @@
       <c r="EB28" s="49"/>
     </row>
     <row r="29" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="72" t="s">
-        <v>77</v>
+      <c r="B29" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="C29" s="35" t="s">
         <v>22</v>
@@ -5979,11 +6028,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="57">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="F29" s="37">
         <f>E29+15</f>
-        <v>45933</v>
+        <v>45925</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
@@ -6114,7 +6163,7 @@
     </row>
     <row r="30" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B30" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
@@ -6252,7 +6301,7 @@
     </row>
     <row r="31" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B31" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>23</v>
@@ -6399,7 +6448,7 @@
     </row>
     <row r="32" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B32" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>22</v>
@@ -6546,7 +6595,7 @@
     </row>
     <row r="33" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B33" s="54" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>23</v>
@@ -6689,24 +6738,18 @@
       <c r="EB33" s="49"/>
     </row>
     <row r="34" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="40">
-        <v>0</v>
-      </c>
-      <c r="E34" s="57">
-        <v>45918</v>
-      </c>
-      <c r="F34" s="37">
-        <f>E33+30</f>
-        <v>45948</v>
-      </c>
+      <c r="B34" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="39" t="str">
+        <f t="shared" ref="H34" si="80">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
       <c r="K34" s="49"/>
@@ -6723,7 +6766,7 @@
       <c r="V34" s="49"/>
       <c r="W34" s="49"/>
       <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
+      <c r="Y34" s="50"/>
       <c r="Z34" s="49"/>
       <c r="AA34" s="49"/>
       <c r="AB34" s="49"/>
@@ -6833,17 +6876,26 @@
       <c r="EB34" s="49"/>
     </row>
     <row r="35" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="B35" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="40">
+        <v>0</v>
+      </c>
+      <c r="E35" s="57">
+        <v>45926</v>
+      </c>
+      <c r="F35" s="37">
+        <f>E35+30</f>
+        <v>45956</v>
+      </c>
       <c r="G35" s="38"/>
-      <c r="H35" s="39" t="str">
-        <f t="shared" ref="H35" si="80">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H35" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>31</v>
       </c>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
@@ -6861,7 +6913,7 @@
       <c r="V35" s="49"/>
       <c r="W35" s="49"/>
       <c r="X35" s="49"/>
-      <c r="Y35" s="50"/>
+      <c r="Y35" s="49"/>
       <c r="Z35" s="49"/>
       <c r="AA35" s="49"/>
       <c r="AB35" s="49"/>
@@ -6975,7 +7027,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="40">
         <v>0</v>
@@ -6984,13 +7036,13 @@
         <v>45926</v>
       </c>
       <c r="F36" s="37">
-        <f>E36+30</f>
-        <v>45956</v>
+        <f>E36+31</f>
+        <v>45957</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
@@ -7122,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="40">
         <v>0</v>
@@ -7131,14 +7183,11 @@
         <v>45926</v>
       </c>
       <c r="F37" s="37">
-        <f>E37+31</f>
-        <v>45957</v>
+        <f>E37+32</f>
+        <v>45958</v>
       </c>
       <c r="G37" s="38"/>
-      <c r="H37" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>32</v>
-      </c>
+      <c r="H37" s="39"/>
       <c r="I37" s="49"/>
       <c r="J37" s="49"/>
       <c r="K37" s="49"/>
@@ -7269,7 +7318,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D38" s="40">
         <v>0</v>
@@ -7413,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="40">
         <v>0</v>
@@ -7422,8 +7471,8 @@
         <v>45926</v>
       </c>
       <c r="F39" s="37">
-        <f>E39+32</f>
-        <v>45958</v>
+        <f>E39+33</f>
+        <v>45959</v>
       </c>
       <c r="G39" s="38"/>
       <c r="H39" s="39"/>
@@ -7557,7 +7606,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" s="40">
         <v>0</v>
@@ -7566,8 +7615,8 @@
         <v>45926</v>
       </c>
       <c r="F40" s="37">
-        <f>E40+33</f>
-        <v>45959</v>
+        <f>E40+34</f>
+        <v>45960</v>
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="39"/>
@@ -7701,7 +7750,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="40">
         <v>0</v>
@@ -7710,8 +7759,8 @@
         <v>45926</v>
       </c>
       <c r="F41" s="37">
-        <f>E41+34</f>
-        <v>45960</v>
+        <f>E41+35</f>
+        <v>45961</v>
       </c>
       <c r="G41" s="38"/>
       <c r="H41" s="39"/>
@@ -7845,7 +7894,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" s="40">
         <v>0</v>
@@ -7854,8 +7903,8 @@
         <v>45926</v>
       </c>
       <c r="F42" s="37">
-        <f>E42+35</f>
-        <v>45961</v>
+        <f>E42+36</f>
+        <v>45962</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
@@ -7985,24 +8034,18 @@
       <c r="EB42" s="49"/>
     </row>
     <row r="43" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="40">
-        <v>0</v>
-      </c>
-      <c r="E43" s="57">
-        <v>45926</v>
-      </c>
-      <c r="F43" s="37">
-        <f>E43+36</f>
-        <v>45962</v>
-      </c>
+      <c r="B43" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39" t="str">
+        <f t="shared" ref="H43" si="81">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
@@ -8019,7 +8062,7 @@
       <c r="V43" s="49"/>
       <c r="W43" s="49"/>
       <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
+      <c r="Y43" s="50"/>
       <c r="Z43" s="49"/>
       <c r="AA43" s="49"/>
       <c r="AB43" s="49"/>
@@ -8129,17 +8172,26 @@
       <c r="EB43" s="49"/>
     </row>
     <row r="44" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B44" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="B44" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="40">
+        <v>0</v>
+      </c>
+      <c r="E44" s="57">
+        <v>45946</v>
+      </c>
+      <c r="F44" s="37">
+        <f>E44+30</f>
+        <v>45976</v>
+      </c>
       <c r="G44" s="38"/>
-      <c r="H44" s="39" t="str">
-        <f t="shared" ref="H44" si="81">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H44" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>31</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
@@ -8157,7 +8209,7 @@
       <c r="V44" s="49"/>
       <c r="W44" s="49"/>
       <c r="X44" s="49"/>
-      <c r="Y44" s="50"/>
+      <c r="Y44" s="49"/>
       <c r="Z44" s="49"/>
       <c r="AA44" s="49"/>
       <c r="AB44" s="49"/>
@@ -8271,7 +8323,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D45" s="40">
         <v>0</v>
@@ -8280,13 +8332,13 @@
         <v>45946</v>
       </c>
       <c r="F45" s="37">
-        <f>E45+30</f>
-        <v>45976</v>
+        <f>E45+31</f>
+        <v>45977</v>
       </c>
       <c r="G45" s="38"/>
       <c r="H45" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
@@ -8418,7 +8470,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="40">
         <v>0</v>
@@ -8427,14 +8479,11 @@
         <v>45946</v>
       </c>
       <c r="F46" s="37">
-        <f>E46+31</f>
-        <v>45977</v>
+        <f>E46+32</f>
+        <v>45978</v>
       </c>
       <c r="G46" s="38"/>
-      <c r="H46" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>32</v>
-      </c>
+      <c r="H46" s="39"/>
       <c r="I46" s="49"/>
       <c r="J46" s="49"/>
       <c r="K46" s="49"/>
@@ -8565,7 +8614,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" s="40">
         <v>0</v>
@@ -8574,8 +8623,8 @@
         <v>45946</v>
       </c>
       <c r="F47" s="37">
-        <f>E47+32</f>
-        <v>45978</v>
+        <f>E47+33</f>
+        <v>45979</v>
       </c>
       <c r="G47" s="38"/>
       <c r="H47" s="39"/>
@@ -8705,24 +8754,18 @@
       <c r="EB47" s="49"/>
     </row>
     <row r="48" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="40">
-        <v>0</v>
-      </c>
-      <c r="E48" s="57">
-        <v>45946</v>
-      </c>
-      <c r="F48" s="37">
-        <f>E48+33</f>
-        <v>45979</v>
-      </c>
+      <c r="B48" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="39" t="str">
+        <f t="shared" ref="H48" si="82">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
@@ -8739,7 +8782,7 @@
       <c r="V48" s="49"/>
       <c r="W48" s="49"/>
       <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
+      <c r="Y48" s="50"/>
       <c r="Z48" s="49"/>
       <c r="AA48" s="49"/>
       <c r="AB48" s="49"/>
@@ -8849,17 +8892,26 @@
       <c r="EB48" s="49"/>
     </row>
     <row r="49" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
+      <c r="B49" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="40">
+        <v>0</v>
+      </c>
+      <c r="E49" s="57">
+        <v>45979</v>
+      </c>
+      <c r="F49" s="37">
+        <f t="shared" ref="F49:F55" si="83">E49+12</f>
+        <v>45991</v>
+      </c>
       <c r="G49" s="38"/>
-      <c r="H49" s="39" t="str">
-        <f t="shared" ref="H49" si="82">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H49" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>13</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
@@ -8877,7 +8929,7 @@
       <c r="V49" s="49"/>
       <c r="W49" s="49"/>
       <c r="X49" s="49"/>
-      <c r="Y49" s="50"/>
+      <c r="Y49" s="49"/>
       <c r="Z49" s="49"/>
       <c r="AA49" s="49"/>
       <c r="AB49" s="49"/>
@@ -8991,7 +9043,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D50" s="40">
         <v>0</v>
@@ -9000,7 +9052,7 @@
         <v>45979</v>
       </c>
       <c r="F50" s="37">
-        <f>E50+12</f>
+        <f t="shared" si="83"/>
         <v>45991</v>
       </c>
       <c r="G50" s="38"/>
@@ -9138,7 +9190,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="40">
         <v>0</v>
@@ -9147,14 +9199,11 @@
         <v>45979</v>
       </c>
       <c r="F51" s="37">
-        <f>E51+12</f>
+        <f t="shared" si="83"/>
         <v>45991</v>
       </c>
       <c r="G51" s="38"/>
-      <c r="H51" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>13</v>
-      </c>
+      <c r="H51" s="39"/>
       <c r="I51" s="49"/>
       <c r="J51" s="49"/>
       <c r="K51" s="49"/>
@@ -9285,7 +9334,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" s="40">
         <v>0</v>
@@ -9294,7 +9343,7 @@
         <v>45979</v>
       </c>
       <c r="F52" s="37">
-        <f>E52+12</f>
+        <f t="shared" si="83"/>
         <v>45991</v>
       </c>
       <c r="G52" s="38"/>
@@ -9429,7 +9478,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="40">
         <v>0</v>
@@ -9438,7 +9487,7 @@
         <v>45979</v>
       </c>
       <c r="F53" s="37">
-        <f>E53+12</f>
+        <f t="shared" si="83"/>
         <v>45991</v>
       </c>
       <c r="G53" s="38"/>
@@ -9573,7 +9622,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" s="40">
         <v>0</v>
@@ -9582,7 +9631,7 @@
         <v>45979</v>
       </c>
       <c r="F54" s="37">
-        <f>E54+12</f>
+        <f t="shared" si="83"/>
         <v>45991</v>
       </c>
       <c r="G54" s="38"/>
@@ -9714,10 +9763,10 @@
     </row>
     <row r="55" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B55" s="54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" s="40">
         <v>0</v>
@@ -9857,24 +9906,18 @@
       <c r="EB55" s="49"/>
     </row>
     <row r="56" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B56" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40">
-        <v>0</v>
-      </c>
-      <c r="E56" s="57">
-        <v>45979</v>
-      </c>
-      <c r="F56" s="37">
-        <f>E56+12</f>
-        <v>45991</v>
-      </c>
+      <c r="B56" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="38"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="39" t="str">
+        <f t="shared" ref="H56" si="84">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I56" s="49"/>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -9891,7 +9934,7 @@
       <c r="V56" s="49"/>
       <c r="W56" s="49"/>
       <c r="X56" s="49"/>
-      <c r="Y56" s="49"/>
+      <c r="Y56" s="50"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
       <c r="AB56" s="49"/>
@@ -10001,17 +10044,26 @@
       <c r="EB56" s="49"/>
     </row>
     <row r="57" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
+      <c r="D57" s="40">
+        <v>0</v>
+      </c>
+      <c r="E57" s="57">
+        <v>45992</v>
+      </c>
+      <c r="F57" s="37">
+        <f>E57+11</f>
+        <v>46003</v>
+      </c>
       <c r="G57" s="38"/>
-      <c r="H57" s="39" t="str">
-        <f t="shared" ref="H57" si="83">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
+      <c r="H57" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>12</v>
       </c>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
@@ -10029,7 +10081,7 @@
       <c r="V57" s="49"/>
       <c r="W57" s="49"/>
       <c r="X57" s="49"/>
-      <c r="Y57" s="50"/>
+      <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
       <c r="AA57" s="49"/>
       <c r="AB57" s="49"/>
@@ -10143,22 +10195,22 @@
         <v>59</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="40">
         <v>0</v>
       </c>
       <c r="E58" s="57">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="F58" s="37">
-        <f>E58+10</f>
-        <v>46004</v>
+        <f>E58+11</f>
+        <v>46003</v>
       </c>
       <c r="G58" s="38"/>
       <c r="H58" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -10285,28 +10337,25 @@
       <c r="EA58" s="49"/>
       <c r="EB58" s="49"/>
     </row>
-    <row r="59" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="59" spans="2:132" ht="30" customHeight="1">
       <c r="B59" s="54" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="40">
         <v>0</v>
       </c>
       <c r="E59" s="57">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="F59" s="37">
-        <f>E59+10</f>
-        <v>46004</v>
+        <f>E59+11</f>
+        <v>46003</v>
       </c>
       <c r="G59" s="38"/>
-      <c r="H59" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>11</v>
-      </c>
+      <c r="H59" s="38"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
       <c r="K59" s="49"/>
@@ -10437,17 +10486,17 @@
         <v>61</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="40">
         <v>0</v>
       </c>
       <c r="E60" s="57">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="F60" s="37">
-        <f>E60+10</f>
-        <v>46004</v>
+        <f>E60+11</f>
+        <v>46003</v>
       </c>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
@@ -10577,148 +10626,7 @@
       <c r="EB60" s="49"/>
     </row>
     <row r="61" spans="2:132" ht="30" customHeight="1">
-      <c r="B61" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="40">
-        <v>0</v>
-      </c>
-      <c r="E61" s="57">
-        <v>45994</v>
-      </c>
-      <c r="F61" s="37">
-        <f>E61+10</f>
-        <v>46004</v>
-      </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
-      <c r="Q61" s="49"/>
-      <c r="R61" s="49"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="49"/>
-      <c r="U61" s="49"/>
-      <c r="V61" s="49"/>
-      <c r="W61" s="49"/>
-      <c r="X61" s="49"/>
-      <c r="Y61" s="49"/>
-      <c r="Z61" s="49"/>
-      <c r="AA61" s="49"/>
-      <c r="AB61" s="49"/>
-      <c r="AC61" s="49"/>
-      <c r="AD61" s="49"/>
-      <c r="AE61" s="49"/>
-      <c r="AF61" s="49"/>
-      <c r="AG61" s="49"/>
-      <c r="AH61" s="49"/>
-      <c r="AI61" s="49"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="49"/>
-      <c r="AL61" s="49"/>
-      <c r="AM61" s="49"/>
-      <c r="AN61" s="49"/>
-      <c r="AO61" s="49"/>
-      <c r="AP61" s="49"/>
-      <c r="AQ61" s="49"/>
-      <c r="AR61" s="49"/>
-      <c r="AS61" s="49"/>
-      <c r="AT61" s="49"/>
-      <c r="AU61" s="49"/>
-      <c r="AV61" s="49"/>
-      <c r="AW61" s="49"/>
-      <c r="AX61" s="49"/>
-      <c r="AY61" s="49"/>
-      <c r="AZ61" s="49"/>
-      <c r="BA61" s="49"/>
-      <c r="BB61" s="49"/>
-      <c r="BC61" s="49"/>
-      <c r="BD61" s="49"/>
-      <c r="BE61" s="49"/>
-      <c r="BF61" s="49"/>
-      <c r="BG61" s="49"/>
-      <c r="BH61" s="49"/>
-      <c r="BI61" s="49"/>
-      <c r="BJ61" s="49"/>
-      <c r="BK61" s="49"/>
-      <c r="BL61" s="49"/>
-      <c r="BM61" s="49"/>
-      <c r="BN61" s="49"/>
-      <c r="BO61" s="49"/>
-      <c r="BP61" s="49"/>
-      <c r="BQ61" s="49"/>
-      <c r="BR61" s="49"/>
-      <c r="BS61" s="49"/>
-      <c r="BT61" s="49"/>
-      <c r="BU61" s="49"/>
-      <c r="BV61" s="49"/>
-      <c r="BW61" s="49"/>
-      <c r="BX61" s="49"/>
-      <c r="BY61" s="49"/>
-      <c r="BZ61" s="49"/>
-      <c r="CA61" s="49"/>
-      <c r="CB61" s="49"/>
-      <c r="CC61" s="49"/>
-      <c r="CD61" s="49"/>
-      <c r="CE61" s="49"/>
-      <c r="CF61" s="49"/>
-      <c r="CG61" s="49"/>
-      <c r="CH61" s="49"/>
-      <c r="CI61" s="49"/>
-      <c r="CJ61" s="49"/>
-      <c r="CK61" s="49"/>
-      <c r="CL61" s="49"/>
-      <c r="CM61" s="49"/>
-      <c r="CN61" s="49"/>
-      <c r="CO61" s="49"/>
-      <c r="CP61" s="49"/>
-      <c r="CQ61" s="49"/>
-      <c r="CR61" s="49"/>
-      <c r="CS61" s="49"/>
-      <c r="CT61" s="49"/>
-      <c r="CU61" s="49"/>
-      <c r="CV61" s="49"/>
-      <c r="CW61" s="49"/>
-      <c r="CX61" s="49"/>
-      <c r="CY61" s="49"/>
-      <c r="CZ61" s="49"/>
-      <c r="DA61" s="49"/>
-      <c r="DB61" s="49"/>
-      <c r="DC61" s="49"/>
-      <c r="DD61" s="49"/>
-      <c r="DE61" s="49"/>
-      <c r="DF61" s="49"/>
-      <c r="DG61" s="49"/>
-      <c r="DH61" s="49"/>
-      <c r="DI61" s="49"/>
-      <c r="DJ61" s="49"/>
-      <c r="DK61" s="49"/>
-      <c r="DL61" s="49"/>
-      <c r="DM61" s="49"/>
-      <c r="DN61" s="49"/>
-      <c r="DO61" s="49"/>
-      <c r="DP61" s="49"/>
-      <c r="DQ61" s="49"/>
-      <c r="DR61" s="49"/>
-      <c r="DS61" s="49"/>
-      <c r="DT61" s="49"/>
-      <c r="DU61" s="49"/>
-      <c r="DV61" s="49"/>
-      <c r="DW61" s="49"/>
-      <c r="DX61" s="49"/>
-      <c r="DY61" s="49"/>
-      <c r="DZ61" s="49"/>
-      <c r="EA61" s="49"/>
-      <c r="EB61" s="49"/>
+      <c r="E61"/>
     </row>
     <row r="62" spans="2:132" ht="30" customHeight="1">
       <c r="E62"/>
@@ -10740,9 +10648,6 @@
     </row>
     <row r="68" spans="5:5" ht="30" customHeight="1">
       <c r="E68"/>
-    </row>
-    <row r="69" spans="5:5" ht="30" customHeight="1">
-      <c r="E69"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -10775,7 +10680,7 @@
     <mergeCell ref="DQ4:DW4"/>
     <mergeCell ref="DX4:EB4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D61">
+  <conditionalFormatting sqref="D7:D60">
     <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10789,47 +10694,47 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:EA61">
+  <conditionalFormatting sqref="I4:EA60">
     <cfRule type="expression" dxfId="5" priority="23">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:EA56">
+  <conditionalFormatting sqref="I9:EA55">
     <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57:EA61">
+  <conditionalFormatting sqref="I56:EA60">
     <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:EB61">
+  <conditionalFormatting sqref="I9:EB60">
     <cfRule type="expression" dxfId="2" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EB4:EB61">
+  <conditionalFormatting sqref="EB4:EB60">
     <cfRule type="expression" dxfId="1" priority="244">
       <formula>AND(TODAY()&gt;=EB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EB9:EB61">
+  <conditionalFormatting sqref="EB9:EB60">
     <cfRule type="expression" dxfId="0" priority="248" stopIfTrue="1">
       <formula>AND(task_end&gt;=EB$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
@@ -10853,7 +10758,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D61</xm:sqref>
+          <xm:sqref>D7:D60</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10862,19 +10767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="87" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.6">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10884,7 +10789,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -10899,42 +10804,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.2" customHeight="1">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.15" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="41.4">
+    <row r="9" spans="1:2" ht="57">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.2" customHeight="1">
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="27.6">
+    <row r="12" spans="1:2" ht="28.5">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.2" customHeight="1">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="30">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="31.5">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -10944,7 +10849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="69">
+    <row r="16" spans="1:2" ht="71.25">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -10975,9 +10880,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10986,26 +10891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11317,7 +11202,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11326,20 +11211,40 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Simple-Gantt-chart.xlsx
+++ b/Simple-Gantt-chart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Carlo_ThesisFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F160243B-64BC-43FC-A061-193AA2062007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="task_start" localSheetId="0">'Project schedule'!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>Project start:</t>
   </si>
@@ -170,27 +171,6 @@
     <t>Set up frontend frameworks</t>
   </si>
   <si>
-    <t>Implement authentication pages</t>
-  </si>
-  <si>
-    <t>Build user dashboards (role-based)</t>
-  </si>
-  <si>
-    <t>Design core UI components</t>
-  </si>
-  <si>
-    <t>Integrate backend APIs</t>
-  </si>
-  <si>
-    <t>Implement responsive design</t>
-  </si>
-  <si>
-    <t>Apply UI/UX standards</t>
-  </si>
-  <si>
-    <t>Deploy frontend apps</t>
-  </si>
-  <si>
     <t>Train ML Models (Prototype Stage)</t>
   </si>
   <si>
@@ -236,34 +216,13 @@
     <t>WEEKLY MILESTONE 2: Stakeholder Analysis &amp;  Requirements Gathering</t>
   </si>
   <si>
-    <t>WEEKLY MILESTONE 3:  Backend &amp; Database Development</t>
-  </si>
-  <si>
-    <t>WEEKLY MILESTONE 4:System Architecture Design</t>
-  </si>
-  <si>
-    <t>WEEKLY MILESTONE 7:Frontend Development (Web &amp; Mobile)</t>
-  </si>
-  <si>
-    <t>WEEKLY MILESTONE 8: Integration of ML-based Features</t>
-  </si>
-  <si>
-    <t>WEEKLY MILESTONE 9:Pilot Deployment in Community</t>
-  </si>
-  <si>
     <t>WEEKLY MILESTONE 10:Final Thesis Manuscript Preparation</t>
   </si>
   <si>
     <t>Joe Lito Vince Corminal &amp; Carlo Gelicame</t>
   </si>
   <si>
-    <t>WEEKLY MILESTONE 5:Use Case &amp; User Story Development</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>WEEKLY MILESTONE 6:UI/UX Design using Figma</t>
   </si>
   <si>
     <t>Identify functionality of each button</t>
@@ -284,13 +243,79 @@
     <t>Review Architecture</t>
   </si>
   <si>
-    <t>Apply Button  Functionality in UI Design</t>
+    <t>Apply Buttons Functionality in UI Design</t>
+  </si>
+  <si>
+    <t>WEEKLY MILESTONE 3:Use Case,User Story Development &amp; System Architecture Design</t>
+  </si>
+  <si>
+    <t>WEEKLY MILESTONE 4:Database Development</t>
+  </si>
+  <si>
+    <t>WEEKLY MILESTONE 5:UI/UX Design using Figma</t>
+  </si>
+  <si>
+    <t>WEEKLY MILESTONE 6:Frontend Development (Web &amp; Mobile)</t>
+  </si>
+  <si>
+    <t>Implement authentication pages in Web landing page</t>
+  </si>
+  <si>
+    <t>Implement authentication pages in Mobile onboarding screen</t>
+  </si>
+  <si>
+    <t>Build user , admin, driver, kitchenstaff dashboard in Web</t>
+  </si>
+  <si>
+    <t>Build user , admin, driver, kitchenstaff dashboard in Mobile</t>
+  </si>
+  <si>
+    <t>Create landing page in Web</t>
+  </si>
+  <si>
+    <t>Create mobile onboarding screen</t>
+  </si>
+  <si>
+    <t>Create UI design for food inventory, food request, donation management( Web)</t>
+  </si>
+  <si>
+    <t>Create UI design for food inventory, food request, donation management (Mobile)</t>
+  </si>
+  <si>
+    <t>Adding feed posting in user dashboard and kitchen staff dasboard(Web)</t>
+  </si>
+  <si>
+    <t>Adding feed posting in user dashboard and kitchen staff dasboard(Mobile)</t>
+  </si>
+  <si>
+    <t>Add the UI design for payment and delivery tracking module(Web)</t>
+  </si>
+  <si>
+    <t>Add the UI design for payment and delivery tracking module(Mobile)</t>
+  </si>
+  <si>
+    <t>WEEKLY MILESTONE 7: Integration of ML-based Features</t>
+  </si>
+  <si>
+    <t>WEEKLY MILESTONE 8:Pilot Deployment in Community</t>
+  </si>
+  <si>
+    <t>Implement relationships &amp; constraints</t>
+  </si>
+  <si>
+    <t>Database backup &amp; security setup</t>
+  </si>
+  <si>
+    <t>Add other Process on the Web</t>
+  </si>
+  <si>
+    <t>Add other Process on the Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
@@ -931,6 +956,20 @@
     <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="16" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,35 +992,48 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Date" xfId="6"/>
+    <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Name" xfId="7"/>
+    <cellStyle name="Name" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Project Start" xfId="8"/>
-    <cellStyle name="Task" xfId="9"/>
+    <cellStyle name="Project Start" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Task" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="3" builtinId="15"/>
-    <cellStyle name="zHiddenText" xfId="10"/>
+    <cellStyle name="zHiddenText" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.39991454817346722"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1033,6 +1085,31 @@
       <border>
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1163,16 +1240,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1518,79 +1595,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EB68"/>
+  <dimension ref="A1:EB74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="BF41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="DE48" sqref="DE48"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="48.796875" customWidth="1"/>
+    <col min="3" max="3" width="36.69921875" customWidth="1"/>
+    <col min="4" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" customWidth="1"/>
+    <col min="7" max="7" width="2.69921875" customWidth="1"/>
     <col min="8" max="8" width="6" hidden="1" customWidth="1"/>
-    <col min="9" max="65" width="2.75" customWidth="1"/>
-    <col min="66" max="66" width="2.875" customWidth="1"/>
-    <col min="67" max="67" width="2.75" customWidth="1"/>
-    <col min="68" max="68" width="2.875" customWidth="1"/>
-    <col min="69" max="69" width="3.125" customWidth="1"/>
-    <col min="70" max="70" width="3.25" customWidth="1"/>
-    <col min="71" max="71" width="8.75" hidden="1" customWidth="1"/>
-    <col min="72" max="73" width="3" customWidth="1"/>
-    <col min="74" max="74" width="3.125" customWidth="1"/>
-    <col min="75" max="75" width="2.875" customWidth="1"/>
-    <col min="76" max="76" width="3" customWidth="1"/>
-    <col min="77" max="77" width="2.875" customWidth="1"/>
-    <col min="78" max="78" width="2.75" customWidth="1"/>
-    <col min="79" max="79" width="3" customWidth="1"/>
-    <col min="80" max="80" width="2.875" customWidth="1"/>
-    <col min="81" max="82" width="3" customWidth="1"/>
-    <col min="83" max="84" width="2.875" customWidth="1"/>
-    <col min="85" max="85" width="3.25" customWidth="1"/>
-    <col min="86" max="87" width="3.125" customWidth="1"/>
-    <col min="88" max="88" width="3" customWidth="1"/>
-    <col min="89" max="89" width="2.875" customWidth="1"/>
-    <col min="90" max="91" width="3.125" customWidth="1"/>
-    <col min="92" max="93" width="3" customWidth="1"/>
-    <col min="94" max="95" width="3.125" customWidth="1"/>
-    <col min="96" max="96" width="3.5" customWidth="1"/>
-    <col min="97" max="97" width="3.625" customWidth="1"/>
-    <col min="98" max="98" width="3.75" customWidth="1"/>
-    <col min="99" max="99" width="3.25" customWidth="1"/>
-    <col min="100" max="100" width="3.125" customWidth="1"/>
-    <col min="101" max="101" width="3" customWidth="1"/>
-    <col min="102" max="102" width="3.5" customWidth="1"/>
-    <col min="103" max="103" width="3.875" customWidth="1"/>
-    <col min="104" max="104" width="3.25" customWidth="1"/>
-    <col min="105" max="105" width="3.375" customWidth="1"/>
-    <col min="106" max="106" width="3.25" customWidth="1"/>
-    <col min="107" max="107" width="2.875" customWidth="1"/>
-    <col min="108" max="108" width="3.125" customWidth="1"/>
-    <col min="109" max="110" width="3" customWidth="1"/>
-    <col min="111" max="112" width="2.75" customWidth="1"/>
-    <col min="113" max="113" width="3.25" customWidth="1"/>
-    <col min="114" max="114" width="3.75" customWidth="1"/>
-    <col min="115" max="115" width="3.125" customWidth="1"/>
-    <col min="116" max="116" width="3.25" customWidth="1"/>
-    <col min="117" max="117" width="3.125" customWidth="1"/>
-    <col min="118" max="118" width="3.25" customWidth="1"/>
-    <col min="119" max="119" width="3.5" customWidth="1"/>
-    <col min="120" max="120" width="3.625" customWidth="1"/>
-    <col min="121" max="123" width="3.25" customWidth="1"/>
-    <col min="124" max="124" width="2.75" customWidth="1"/>
-    <col min="125" max="125" width="3" customWidth="1"/>
-    <col min="126" max="127" width="3.125" customWidth="1"/>
-    <col min="128" max="128" width="3" customWidth="1"/>
-    <col min="129" max="129" width="3.25" customWidth="1"/>
+    <col min="9" max="65" width="2.69921875" customWidth="1"/>
+    <col min="66" max="66" width="3.3984375" customWidth="1"/>
+    <col min="67" max="68" width="3.69921875" customWidth="1"/>
+    <col min="69" max="69" width="4.69921875" customWidth="1"/>
+    <col min="70" max="70" width="4.59765625" customWidth="1"/>
+    <col min="71" max="71" width="8.69921875" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="4.3984375" customWidth="1"/>
+    <col min="73" max="73" width="4.796875" customWidth="1"/>
+    <col min="74" max="74" width="4.3984375" customWidth="1"/>
+    <col min="75" max="75" width="4.296875" customWidth="1"/>
+    <col min="76" max="76" width="4.3984375" customWidth="1"/>
+    <col min="77" max="77" width="4.796875" customWidth="1"/>
+    <col min="78" max="78" width="3.796875" customWidth="1"/>
+    <col min="79" max="79" width="3.69921875" customWidth="1"/>
+    <col min="80" max="82" width="4" customWidth="1"/>
+    <col min="83" max="83" width="4.59765625" customWidth="1"/>
+    <col min="84" max="84" width="3.69921875" customWidth="1"/>
+    <col min="85" max="85" width="4.796875" customWidth="1"/>
+    <col min="86" max="86" width="4.296875" customWidth="1"/>
+    <col min="87" max="87" width="4.3984375" customWidth="1"/>
+    <col min="88" max="88" width="5" customWidth="1"/>
+    <col min="89" max="89" width="4.69921875" customWidth="1"/>
+    <col min="90" max="90" width="3.796875" customWidth="1"/>
+    <col min="91" max="91" width="4.3984375" customWidth="1"/>
+    <col min="92" max="92" width="5" customWidth="1"/>
+    <col min="93" max="93" width="5.69921875" customWidth="1"/>
+    <col min="94" max="95" width="4" customWidth="1"/>
+    <col min="96" max="96" width="3.796875" customWidth="1"/>
+    <col min="97" max="97" width="4.3984375" customWidth="1"/>
+    <col min="98" max="98" width="4.59765625" customWidth="1"/>
+    <col min="99" max="99" width="4.09765625" customWidth="1"/>
+    <col min="100" max="100" width="3.3984375" customWidth="1"/>
+    <col min="101" max="101" width="4.59765625" customWidth="1"/>
+    <col min="102" max="102" width="5.59765625" customWidth="1"/>
+    <col min="103" max="103" width="5.296875" customWidth="1"/>
+    <col min="104" max="104" width="5" customWidth="1"/>
+    <col min="105" max="105" width="4.69921875" customWidth="1"/>
+    <col min="106" max="106" width="3.796875" customWidth="1"/>
+    <col min="107" max="108" width="4.69921875" customWidth="1"/>
+    <col min="109" max="109" width="4.59765625" customWidth="1"/>
+    <col min="110" max="110" width="3.796875" customWidth="1"/>
+    <col min="111" max="111" width="3.3984375" customWidth="1"/>
+    <col min="112" max="112" width="2.3984375" customWidth="1"/>
+    <col min="113" max="113" width="4.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:132" ht="90" customHeight="1">
@@ -1603,29 +1671,29 @@
       <c r="E1" s="21"/>
       <c r="F1" s="22"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="42"/>
-      <c r="Q1" s="69">
+      <c r="Q1" s="61">
         <f ca="1">TODAY()</f>
-        <v>45898</v>
-      </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
+        <v>45900</v>
+      </c>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
     </row>
     <row r="2" spans="1:132" ht="30" customHeight="1">
       <c r="B2" s="52" t="s">
@@ -1637,28 +1705,28 @@
       <c r="D2" s="23"/>
       <c r="E2" s="24"/>
       <c r="F2" s="23"/>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
       <c r="P2" s="42"/>
-      <c r="Q2" s="71">
+      <c r="Q2" s="63">
         <v>1</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
     </row>
     <row r="3" spans="1:132" ht="30" customHeight="1">
       <c r="B3" s="25"/>
@@ -1668,705 +1736,705 @@
       <c r="A4" s="18"/>
       <c r="B4" s="27"/>
       <c r="E4" s="28"/>
-      <c r="I4" s="72">
+      <c r="I4" s="64">
         <f ca="1">I5</f>
-        <v>45894</v>
-      </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59">
+        <v>45901</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65">
         <f ca="1">P5</f>
-        <v>45901</v>
-      </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59">
+        <v>45908</v>
+      </c>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65">
         <f ca="1">W5</f>
-        <v>45908</v>
-      </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59">
+        <v>45915</v>
+      </c>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65">
         <f ca="1">AD5</f>
-        <v>45915</v>
-      </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59">
+        <v>45922</v>
+      </c>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65">
         <f ca="1">AK5</f>
-        <v>45922</v>
-      </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59">
+        <v>45929</v>
+      </c>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65">
         <f ca="1">AR5</f>
-        <v>45929</v>
-      </c>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59">
+        <v>45936</v>
+      </c>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65">
         <f ca="1">AY5</f>
-        <v>45936</v>
-      </c>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="59">
+        <v>45943</v>
+      </c>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="65">
         <f ca="1">BF5</f>
-        <v>45943</v>
-      </c>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="59">
+        <v>45950</v>
+      </c>
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="65">
         <f ca="1">BM5</f>
-        <v>45950</v>
-      </c>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="59">
+        <v>45957</v>
+      </c>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU4" s="65"/>
+      <c r="BV4" s="65"/>
+      <c r="BW4" s="65"/>
+      <c r="BX4" s="65"/>
+      <c r="BY4" s="65"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="65">
         <f ca="1">CA5</f>
-        <v>45964</v>
-      </c>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="59">
+        <v>45971</v>
+      </c>
+      <c r="CB4" s="65"/>
+      <c r="CC4" s="65"/>
+      <c r="CD4" s="65"/>
+      <c r="CE4" s="65"/>
+      <c r="CF4" s="65"/>
+      <c r="CG4" s="66"/>
+      <c r="CH4" s="65">
         <f ca="1">CH5</f>
-        <v>45971</v>
-      </c>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="59"/>
-      <c r="CK4" s="59"/>
-      <c r="CL4" s="59"/>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="59">
+        <v>45978</v>
+      </c>
+      <c r="CI4" s="65"/>
+      <c r="CJ4" s="65"/>
+      <c r="CK4" s="65"/>
+      <c r="CL4" s="65"/>
+      <c r="CM4" s="65"/>
+      <c r="CN4" s="66"/>
+      <c r="CO4" s="65">
         <f ca="1">CO5</f>
-        <v>45978</v>
-      </c>
-      <c r="CP4" s="59"/>
-      <c r="CQ4" s="59"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="59"/>
-      <c r="CT4" s="59"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="59">
+        <v>45985</v>
+      </c>
+      <c r="CP4" s="65"/>
+      <c r="CQ4" s="65"/>
+      <c r="CR4" s="65"/>
+      <c r="CS4" s="65"/>
+      <c r="CT4" s="65"/>
+      <c r="CU4" s="66"/>
+      <c r="CV4" s="65">
         <f ca="1">CV5</f>
-        <v>45985</v>
-      </c>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
-      <c r="CZ4" s="59"/>
-      <c r="DA4" s="59"/>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="59">
+        <v>45992</v>
+      </c>
+      <c r="CW4" s="65"/>
+      <c r="CX4" s="65"/>
+      <c r="CY4" s="65"/>
+      <c r="CZ4" s="65"/>
+      <c r="DA4" s="65"/>
+      <c r="DB4" s="66"/>
+      <c r="DC4" s="65">
         <f ca="1">DC5</f>
-        <v>45992</v>
-      </c>
-      <c r="DD4" s="59"/>
-      <c r="DE4" s="59"/>
-      <c r="DF4" s="59"/>
-      <c r="DG4" s="59"/>
-      <c r="DH4" s="59"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="59">
+        <v>45999</v>
+      </c>
+      <c r="DD4" s="65"/>
+      <c r="DE4" s="65"/>
+      <c r="DF4" s="65"/>
+      <c r="DG4" s="65"/>
+      <c r="DH4" s="65"/>
+      <c r="DI4" s="66"/>
+      <c r="DJ4" s="65">
         <f ca="1">DJ5</f>
-        <v>45999</v>
-      </c>
-      <c r="DK4" s="59"/>
-      <c r="DL4" s="59"/>
-      <c r="DM4" s="59"/>
-      <c r="DN4" s="59"/>
-      <c r="DO4" s="59"/>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="59">
+        <v>46006</v>
+      </c>
+      <c r="DK4" s="65"/>
+      <c r="DL4" s="65"/>
+      <c r="DM4" s="65"/>
+      <c r="DN4" s="65"/>
+      <c r="DO4" s="65"/>
+      <c r="DP4" s="66"/>
+      <c r="DQ4" s="65">
         <f ca="1">DQ5</f>
-        <v>46006</v>
-      </c>
-      <c r="DR4" s="59"/>
-      <c r="DS4" s="59"/>
-      <c r="DT4" s="59"/>
-      <c r="DU4" s="59"/>
-      <c r="DV4" s="59"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="59">
+        <v>46013</v>
+      </c>
+      <c r="DR4" s="65"/>
+      <c r="DS4" s="65"/>
+      <c r="DT4" s="65"/>
+      <c r="DU4" s="65"/>
+      <c r="DV4" s="65"/>
+      <c r="DW4" s="66"/>
+      <c r="DX4" s="65">
         <f ca="1">DX5</f>
-        <v>46013</v>
-      </c>
-      <c r="DY4" s="59"/>
-      <c r="DZ4" s="59"/>
-      <c r="EA4" s="59"/>
-      <c r="EB4" s="59"/>
+        <v>46020</v>
+      </c>
+      <c r="DY4" s="65"/>
+      <c r="DZ4" s="65"/>
+      <c r="EA4" s="65"/>
+      <c r="EB4" s="65"/>
     </row>
     <row r="5" spans="1:132" ht="15" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="67" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="43">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>45894</v>
+        <v>45901</v>
       </c>
       <c r="J5" s="43">
         <f ca="1">I5+1</f>
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="K5" s="43">
         <f t="shared" ref="K5:AZ5" ca="1" si="0">J5+1</f>
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="L5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="M5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="N5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45899</v>
+        <v>45906</v>
       </c>
       <c r="O5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45900</v>
+        <v>45907</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="Q5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="R5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="S5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="T5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="U5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45906</v>
+        <v>45913</v>
       </c>
       <c r="V5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45907</v>
+        <v>45914</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="X5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="Y5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="Z5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="AA5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="AB5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45913</v>
+        <v>45920</v>
       </c>
       <c r="AC5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45914</v>
+        <v>45921</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="AE5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="AF5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="AG5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="AH5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45919</v>
+        <v>45926</v>
       </c>
       <c r="AI5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45920</v>
+        <v>45927</v>
       </c>
       <c r="AJ5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45921</v>
+        <v>45928</v>
       </c>
       <c r="AK5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45922</v>
+        <v>45929</v>
       </c>
       <c r="AL5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45923</v>
+        <v>45930</v>
       </c>
       <c r="AM5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="AN5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45925</v>
+        <v>45932</v>
       </c>
       <c r="AO5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45926</v>
+        <v>45933</v>
       </c>
       <c r="AP5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45927</v>
+        <v>45934</v>
       </c>
       <c r="AQ5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45928</v>
+        <v>45935</v>
       </c>
       <c r="AR5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45929</v>
+        <v>45936</v>
       </c>
       <c r="AS5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45930</v>
+        <v>45937</v>
       </c>
       <c r="AT5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="AU5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45932</v>
+        <v>45939</v>
       </c>
       <c r="AV5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45933</v>
+        <v>45940</v>
       </c>
       <c r="AW5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45934</v>
+        <v>45941</v>
       </c>
       <c r="AX5" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>45935</v>
+        <v>45942</v>
       </c>
       <c r="AY5" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45936</v>
+        <v>45943</v>
       </c>
       <c r="AZ5" s="43">
         <f t="shared" ca="1" si="0"/>
-        <v>45937</v>
+        <v>45944</v>
       </c>
       <c r="BA5" s="43">
         <f t="shared" ref="BA5:BG5" ca="1" si="1">AZ5+1</f>
-        <v>45938</v>
+        <v>45945</v>
       </c>
       <c r="BB5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45939</v>
+        <v>45946</v>
       </c>
       <c r="BC5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45940</v>
+        <v>45947</v>
       </c>
       <c r="BD5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45941</v>
+        <v>45948</v>
       </c>
       <c r="BE5" s="44">
         <f t="shared" ca="1" si="1"/>
-        <v>45942</v>
+        <v>45949</v>
       </c>
       <c r="BF5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>45943</v>
+        <v>45950</v>
       </c>
       <c r="BG5" s="43">
         <f t="shared" ca="1" si="1"/>
-        <v>45944</v>
+        <v>45951</v>
       </c>
       <c r="BH5" s="43">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45945</v>
+        <v>45952</v>
       </c>
       <c r="BI5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45946</v>
+        <v>45953</v>
       </c>
       <c r="BJ5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45947</v>
+        <v>45954</v>
       </c>
       <c r="BK5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45948</v>
+        <v>45955</v>
       </c>
       <c r="BL5" s="43">
         <f t="shared" ca="1" si="2"/>
-        <v>45949</v>
+        <v>45956</v>
       </c>
       <c r="BM5" s="45">
         <f t="shared" ref="BM5" ca="1" si="3">BL5+1</f>
-        <v>45950</v>
+        <v>45957</v>
       </c>
       <c r="BN5" s="43">
         <f t="shared" ref="BN5" ca="1" si="4">BM5+1</f>
-        <v>45951</v>
+        <v>45958</v>
       </c>
       <c r="BO5" s="43">
         <f t="shared" ref="BO5" ca="1" si="5">BN5+1</f>
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="BP5" s="43">
         <f t="shared" ref="BP5" ca="1" si="6">BO5+1</f>
-        <v>45953</v>
+        <v>45960</v>
       </c>
       <c r="BQ5" s="43">
         <f t="shared" ref="BQ5" ca="1" si="7">BP5+1</f>
-        <v>45954</v>
+        <v>45961</v>
       </c>
       <c r="BR5" s="43">
         <f t="shared" ref="BR5" ca="1" si="8">BQ5+1</f>
-        <v>45955</v>
+        <v>45962</v>
       </c>
       <c r="BS5" s="43">
         <f t="shared" ref="BS5" ca="1" si="9">BR5+1</f>
-        <v>45956</v>
+        <v>45963</v>
       </c>
       <c r="BT5" s="45">
         <f t="shared" ref="BT5" ca="1" si="10">BS5+1</f>
-        <v>45957</v>
+        <v>45964</v>
       </c>
       <c r="BU5" s="43">
         <f t="shared" ref="BU5" ca="1" si="11">BT5+1</f>
-        <v>45958</v>
+        <v>45965</v>
       </c>
       <c r="BV5" s="43">
         <f t="shared" ref="BV5" ca="1" si="12">BU5+1</f>
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="BW5" s="43">
         <f t="shared" ref="BW5" ca="1" si="13">BV5+1</f>
-        <v>45960</v>
+        <v>45967</v>
       </c>
       <c r="BX5" s="43">
         <f t="shared" ref="BX5" ca="1" si="14">BW5+1</f>
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="BY5" s="43">
         <f t="shared" ref="BY5" ca="1" si="15">BX5+1</f>
-        <v>45962</v>
+        <v>45969</v>
       </c>
       <c r="BZ5" s="43">
         <f t="shared" ref="BZ5" ca="1" si="16">BY5+1</f>
-        <v>45963</v>
+        <v>45970</v>
       </c>
       <c r="CA5" s="45">
         <f t="shared" ref="CA5" ca="1" si="17">BZ5+1</f>
-        <v>45964</v>
+        <v>45971</v>
       </c>
       <c r="CB5" s="43">
         <f t="shared" ref="CB5" ca="1" si="18">CA5+1</f>
-        <v>45965</v>
+        <v>45972</v>
       </c>
       <c r="CC5" s="43">
         <f t="shared" ref="CC5" ca="1" si="19">CB5+1</f>
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="CD5" s="43">
         <f t="shared" ref="CD5" ca="1" si="20">CC5+1</f>
-        <v>45967</v>
+        <v>45974</v>
       </c>
       <c r="CE5" s="43">
         <f t="shared" ref="CE5" ca="1" si="21">CD5+1</f>
-        <v>45968</v>
+        <v>45975</v>
       </c>
       <c r="CF5" s="43">
         <f t="shared" ref="CF5" ca="1" si="22">CE5+1</f>
-        <v>45969</v>
+        <v>45976</v>
       </c>
       <c r="CG5" s="43">
         <f t="shared" ref="CG5" ca="1" si="23">CF5+1</f>
-        <v>45970</v>
+        <v>45977</v>
       </c>
       <c r="CH5" s="45">
         <f t="shared" ref="CH5" ca="1" si="24">CG5+1</f>
-        <v>45971</v>
+        <v>45978</v>
       </c>
       <c r="CI5" s="43">
         <f t="shared" ref="CI5" ca="1" si="25">CH5+1</f>
-        <v>45972</v>
+        <v>45979</v>
       </c>
       <c r="CJ5" s="43">
         <f t="shared" ref="CJ5" ca="1" si="26">CI5+1</f>
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="CK5" s="43">
         <f t="shared" ref="CK5" ca="1" si="27">CJ5+1</f>
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="CL5" s="43">
         <f t="shared" ref="CL5" ca="1" si="28">CK5+1</f>
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="CM5" s="43">
         <f t="shared" ref="CM5" ca="1" si="29">CL5+1</f>
-        <v>45976</v>
+        <v>45983</v>
       </c>
       <c r="CN5" s="43">
         <f t="shared" ref="CN5" ca="1" si="30">CM5+1</f>
-        <v>45977</v>
+        <v>45984</v>
       </c>
       <c r="CO5" s="45">
         <f t="shared" ref="CO5" ca="1" si="31">CN5+1</f>
-        <v>45978</v>
+        <v>45985</v>
       </c>
       <c r="CP5" s="43">
         <f t="shared" ref="CP5" ca="1" si="32">CO5+1</f>
-        <v>45979</v>
+        <v>45986</v>
       </c>
       <c r="CQ5" s="43">
         <f t="shared" ref="CQ5" ca="1" si="33">CP5+1</f>
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="CR5" s="43">
         <f t="shared" ref="CR5" ca="1" si="34">CQ5+1</f>
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="CS5" s="43">
         <f t="shared" ref="CS5" ca="1" si="35">CR5+1</f>
-        <v>45982</v>
+        <v>45989</v>
       </c>
       <c r="CT5" s="43">
         <f t="shared" ref="CT5" ca="1" si="36">CS5+1</f>
-        <v>45983</v>
+        <v>45990</v>
       </c>
       <c r="CU5" s="43">
         <f t="shared" ref="CU5" ca="1" si="37">CT5+1</f>
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="CV5" s="45">
         <f t="shared" ref="CV5" ca="1" si="38">CU5+1</f>
-        <v>45985</v>
+        <v>45992</v>
       </c>
       <c r="CW5" s="43">
         <f t="shared" ref="CW5" ca="1" si="39">CV5+1</f>
-        <v>45986</v>
+        <v>45993</v>
       </c>
       <c r="CX5" s="43">
         <f t="shared" ref="CX5" ca="1" si="40">CW5+1</f>
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="CY5" s="43">
         <f t="shared" ref="CY5" ca="1" si="41">CX5+1</f>
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="CZ5" s="43">
         <f t="shared" ref="CZ5" ca="1" si="42">CY5+1</f>
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="DA5" s="43">
         <f t="shared" ref="DA5" ca="1" si="43">CZ5+1</f>
-        <v>45990</v>
+        <v>45997</v>
       </c>
       <c r="DB5" s="43">
         <f t="shared" ref="DB5" ca="1" si="44">DA5+1</f>
-        <v>45991</v>
+        <v>45998</v>
       </c>
       <c r="DC5" s="45">
         <f t="shared" ref="DC5" ca="1" si="45">DB5+1</f>
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="DD5" s="43">
         <f t="shared" ref="DD5" ca="1" si="46">DC5+1</f>
-        <v>45993</v>
+        <v>46000</v>
       </c>
       <c r="DE5" s="43">
         <f t="shared" ref="DE5" ca="1" si="47">DD5+1</f>
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="DF5" s="43">
         <f t="shared" ref="DF5" ca="1" si="48">DE5+1</f>
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="DG5" s="43">
         <f t="shared" ref="DG5" ca="1" si="49">DF5+1</f>
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="DH5" s="43">
         <f t="shared" ref="DH5" ca="1" si="50">DG5+1</f>
-        <v>45997</v>
+        <v>46004</v>
       </c>
       <c r="DI5" s="43">
         <f t="shared" ref="DI5" ca="1" si="51">DH5+1</f>
-        <v>45998</v>
+        <v>46005</v>
       </c>
       <c r="DJ5" s="45">
         <f t="shared" ref="DJ5" ca="1" si="52">DI5+1</f>
-        <v>45999</v>
+        <v>46006</v>
       </c>
       <c r="DK5" s="43">
         <f t="shared" ref="DK5" ca="1" si="53">DJ5+1</f>
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="DL5" s="43">
         <f t="shared" ref="DL5" ca="1" si="54">DK5+1</f>
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="DM5" s="43">
         <f t="shared" ref="DM5" ca="1" si="55">DL5+1</f>
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="DN5" s="43">
         <f t="shared" ref="DN5" ca="1" si="56">DM5+1</f>
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="DO5" s="43">
         <f t="shared" ref="DO5" ca="1" si="57">DN5+1</f>
-        <v>46004</v>
+        <v>46011</v>
       </c>
       <c r="DP5" s="43">
         <f t="shared" ref="DP5" ca="1" si="58">DO5+1</f>
-        <v>46005</v>
+        <v>46012</v>
       </c>
       <c r="DQ5" s="45">
         <f t="shared" ref="DQ5" ca="1" si="59">DP5+1</f>
-        <v>46006</v>
+        <v>46013</v>
       </c>
       <c r="DR5" s="43">
         <f t="shared" ref="DR5" ca="1" si="60">DQ5+1</f>
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="DS5" s="43">
         <f t="shared" ref="DS5" ca="1" si="61">DR5+1</f>
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="DT5" s="43">
         <f t="shared" ref="DT5" ca="1" si="62">DS5+1</f>
-        <v>46009</v>
+        <v>46016</v>
       </c>
       <c r="DU5" s="43">
         <f t="shared" ref="DU5" ca="1" si="63">DT5+1</f>
-        <v>46010</v>
+        <v>46017</v>
       </c>
       <c r="DV5" s="43">
         <f t="shared" ref="DV5" ca="1" si="64">DU5+1</f>
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="DW5" s="43">
         <f t="shared" ref="DW5" ca="1" si="65">DV5+1</f>
-        <v>46012</v>
+        <v>46019</v>
       </c>
       <c r="DX5" s="45">
         <f t="shared" ref="DX5" ca="1" si="66">DW5+1</f>
-        <v>46013</v>
+        <v>46020</v>
       </c>
       <c r="DY5" s="43">
         <f t="shared" ref="DY5" ca="1" si="67">DX5+1</f>
-        <v>46014</v>
+        <v>46021</v>
       </c>
       <c r="DZ5" s="43">
         <f t="shared" ref="DZ5" ca="1" si="68">DY5+1</f>
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="EA5" s="43">
         <f t="shared" ref="EA5" ca="1" si="69">DZ5+1</f>
-        <v>46016</v>
+        <v>46023</v>
       </c>
       <c r="EB5" s="43">
         <f t="shared" ref="EB5" ca="1" si="70">EA5+1</f>
-        <v>46017</v>
+        <v>46024</v>
       </c>
     </row>
     <row r="6" spans="1:132" ht="15" customHeight="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="I6" s="46" t="str">
         <f t="shared" ref="I6:AN6" ca="1" si="71">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -3579,7 +3647,7 @@
     <row r="12" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="18"/>
       <c r="B12" s="55" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
@@ -4017,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="57">
         <v>45887</v>
@@ -4162,7 +4230,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="57">
         <v>45887</v>
@@ -4298,19 +4366,17 @@
       <c r="EA16" s="49"/>
       <c r="EB16" s="49"/>
     </row>
-    <row r="17" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="17" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="18"/>
       <c r="B17" s="55" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="38"/>
-      <c r="H17" s="39" t="str">
-        <f t="shared" ref="H17" si="78">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H17" s="39"/>
       <c r="I17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
@@ -4327,7 +4393,7 @@
       <c r="V17" s="49"/>
       <c r="W17" s="49"/>
       <c r="X17" s="49"/>
-      <c r="Y17" s="50"/>
+      <c r="Y17" s="49"/>
       <c r="Z17" s="49"/>
       <c r="AA17" s="49"/>
       <c r="AB17" s="49"/>
@@ -4436,28 +4502,26 @@
       <c r="EA17" s="49"/>
       <c r="EB17" s="49"/>
     </row>
-    <row r="18" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="18" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="18"/>
       <c r="B18" s="54" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E18" s="57">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="F18" s="37">
-        <f>E18+25</f>
-        <v>45920</v>
+        <f t="shared" ref="F18:F23" si="78">E18+2</f>
+        <v>45896</v>
       </c>
       <c r="G18" s="38"/>
-      <c r="H18" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>26</v>
-      </c>
+      <c r="H18" s="39"/>
       <c r="I18" s="49"/>
       <c r="J18" s="49"/>
       <c r="K18" s="49"/>
@@ -4583,9 +4647,10 @@
       <c r="EA18" s="49"/>
       <c r="EB18" s="49"/>
     </row>
-    <row r="19" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B19" s="54" t="s">
-        <v>35</v>
+    <row r="19" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="35" t="s">
         <v>23</v>
@@ -4594,11 +4659,11 @@
         <v>1</v>
       </c>
       <c r="E19" s="57">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="F19" s="37">
-        <f>E19+15</f>
-        <v>45910</v>
+        <f t="shared" si="78"/>
+        <v>45896</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
@@ -4727,28 +4792,26 @@
       <c r="EA19" s="49"/>
       <c r="EB19" s="49"/>
     </row>
-    <row r="20" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B20" s="54" t="s">
-        <v>36</v>
+    <row r="20" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="58" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="57">
         <v>45895</v>
       </c>
       <c r="F20" s="37">
-        <f>E20+15</f>
-        <v>45910</v>
+        <f t="shared" si="78"/>
+        <v>45897</v>
       </c>
       <c r="G20" s="38"/>
-      <c r="H20" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>16</v>
-      </c>
+      <c r="H20" s="39"/>
       <c r="I20" s="49"/>
       <c r="J20" s="49"/>
       <c r="K20" s="49"/>
@@ -4874,19 +4937,26 @@
       <c r="EA20" s="49"/>
       <c r="EB20" s="49"/>
     </row>
-    <row r="21" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B21" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+    <row r="21" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="40">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57">
+        <v>45895</v>
+      </c>
+      <c r="F21" s="37">
+        <f t="shared" si="78"/>
+        <v>45897</v>
+      </c>
       <c r="G21" s="38"/>
-      <c r="H21" s="39" t="str">
-        <f t="shared" ref="H21:H30" si="79">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H21" s="39"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
       <c r="K21" s="49"/>
@@ -4903,7 +4973,7 @@
       <c r="V21" s="49"/>
       <c r="W21" s="49"/>
       <c r="X21" s="49"/>
-      <c r="Y21" s="50"/>
+      <c r="Y21" s="49"/>
       <c r="Z21" s="49"/>
       <c r="AA21" s="49"/>
       <c r="AB21" s="49"/>
@@ -5012,28 +5082,26 @@
       <c r="EA21" s="49"/>
       <c r="EB21" s="49"/>
     </row>
-    <row r="22" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="22" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A22" s="18"/>
       <c r="B22" s="54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="57">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="F22" s="37">
-        <f>E22+20</f>
-        <v>45921</v>
+        <f t="shared" si="78"/>
+        <v>45898</v>
       </c>
       <c r="G22" s="38"/>
-      <c r="H22" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>21</v>
-      </c>
+      <c r="H22" s="39"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
@@ -5159,28 +5227,26 @@
       <c r="EA22" s="49"/>
       <c r="EB22" s="49"/>
     </row>
-    <row r="23" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="23" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A23" s="18"/>
       <c r="B23" s="54" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="57">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="F23" s="37">
-        <f>E23+20</f>
-        <v>45921</v>
+        <f t="shared" si="78"/>
+        <v>45899</v>
       </c>
       <c r="G23" s="38"/>
-      <c r="H23" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>21</v>
-      </c>
+      <c r="H23" s="39"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
@@ -5306,22 +5372,23 @@
       <c r="EA23" s="49"/>
       <c r="EB23" s="49"/>
     </row>
-    <row r="24" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="24" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A24" s="18"/>
       <c r="B24" s="54" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="57">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="F24" s="37">
-        <f>E24+20</f>
-        <v>45921</v>
+        <f>E24+1</f>
+        <v>45899</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="39"/>
@@ -5450,23 +5517,15 @@
       <c r="EA24" s="49"/>
       <c r="EB24" s="49"/>
     </row>
-    <row r="25" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B25" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0</v>
-      </c>
-      <c r="E25" s="57">
-        <v>45901</v>
-      </c>
-      <c r="F25" s="37">
-        <f>E25+20</f>
-        <v>45921</v>
-      </c>
+    <row r="25" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="38"/>
       <c r="H25" s="39"/>
       <c r="I25" s="49"/>
@@ -5594,14 +5653,24 @@
       <c r="EA25" s="49"/>
       <c r="EB25" s="49"/>
     </row>
-    <row r="26" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B26" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+    <row r="26" spans="1:132" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="40">
+        <v>1</v>
+      </c>
+      <c r="E26" s="57">
+        <v>45898</v>
+      </c>
+      <c r="F26" s="37">
+        <f>E26+2</f>
+        <v>45900</v>
+      </c>
       <c r="G26" s="38"/>
       <c r="H26" s="39"/>
       <c r="I26" s="49"/>
@@ -5729,25 +5798,28 @@
       <c r="EA26" s="49"/>
       <c r="EB26" s="49"/>
     </row>
-    <row r="27" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="27" spans="1:132" ht="30" customHeight="1" thickBot="1">
       <c r="B27" s="54" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27" s="35" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="40">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="57">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="F27" s="37">
-        <f>E27+15</f>
-        <v>45925</v>
+        <f>E27+4</f>
+        <v>45902</v>
       </c>
       <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <f t="shared" ref="H27" si="79">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>5</v>
+      </c>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
       <c r="K27" s="49"/>
@@ -5764,7 +5836,7 @@
       <c r="V27" s="49"/>
       <c r="W27" s="49"/>
       <c r="X27" s="49"/>
-      <c r="Y27" s="49"/>
+      <c r="Y27" s="50"/>
       <c r="Z27" s="49"/>
       <c r="AA27" s="49"/>
       <c r="AB27" s="49"/>
@@ -5873,22 +5945,22 @@
       <c r="EA27" s="49"/>
       <c r="EB27" s="49"/>
     </row>
-    <row r="28" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B28" s="58" t="s">
-        <v>75</v>
+    <row r="28" spans="1:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B28" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="40">
         <v>0</v>
       </c>
       <c r="E28" s="57">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="F28" s="37">
-        <f>E28+15</f>
-        <v>45925</v>
+        <f>E28+2</f>
+        <v>45903</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
@@ -6017,22 +6089,22 @@
       <c r="EA28" s="49"/>
       <c r="EB28" s="49"/>
     </row>
-    <row r="29" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B29" s="58" t="s">
-        <v>76</v>
+    <row r="29" spans="1:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B29" s="54" t="s">
+        <v>84</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D29" s="40">
         <v>0</v>
       </c>
       <c r="E29" s="57">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="F29" s="37">
-        <f>E29+15</f>
-        <v>45925</v>
+        <f>E29+2</f>
+        <v>45905</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
@@ -6161,19 +6233,25 @@
       <c r="EA29" s="49"/>
       <c r="EB29" s="49"/>
     </row>
-    <row r="30" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B30" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B30" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="40">
+        <v>0</v>
+      </c>
+      <c r="E30" s="57">
+        <v>45904</v>
+      </c>
+      <c r="F30" s="37">
+        <f>E30+2</f>
+        <v>45906</v>
+      </c>
       <c r="G30" s="38"/>
-      <c r="H30" s="39" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
+      <c r="H30" s="39"/>
       <c r="I30" s="49"/>
       <c r="J30" s="49"/>
       <c r="K30" s="49"/>
@@ -6190,7 +6268,7 @@
       <c r="V30" s="49"/>
       <c r="W30" s="49"/>
       <c r="X30" s="49"/>
-      <c r="Y30" s="50"/>
+      <c r="Y30" s="49"/>
       <c r="Z30" s="49"/>
       <c r="AA30" s="49"/>
       <c r="AB30" s="49"/>
@@ -6299,28 +6377,16 @@
       <c r="EA30" s="49"/>
       <c r="EB30" s="49"/>
     </row>
-    <row r="31" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B31" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="40">
-        <v>0</v>
-      </c>
-      <c r="E31" s="57">
-        <v>45918</v>
-      </c>
-      <c r="F31" s="37">
-        <f>E31+15</f>
-        <v>45933</v>
-      </c>
+    <row r="31" spans="1:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B31" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="38"/>
-      <c r="H31" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>16</v>
-      </c>
+      <c r="H31" s="39"/>
       <c r="I31" s="49"/>
       <c r="J31" s="49"/>
       <c r="K31" s="49"/>
@@ -6446,28 +6512,25 @@
       <c r="EA31" s="49"/>
       <c r="EB31" s="49"/>
     </row>
-    <row r="32" spans="2:132" ht="30" customHeight="1" thickBot="1">
+    <row r="32" spans="1:132" ht="30" customHeight="1" thickBot="1">
       <c r="B32" s="54" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" s="40">
         <v>0</v>
       </c>
       <c r="E32" s="57">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="F32" s="37">
-        <f>E31+30</f>
-        <v>45948</v>
+        <f>E32+3</f>
+        <v>45911</v>
       </c>
       <c r="G32" s="38"/>
-      <c r="H32" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
-      </c>
+      <c r="H32" s="39"/>
       <c r="I32" s="49"/>
       <c r="J32" s="49"/>
       <c r="K32" s="49"/>
@@ -6595,20 +6658,20 @@
     </row>
     <row r="33" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B33" s="54" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="40">
         <v>0</v>
       </c>
       <c r="E33" s="57">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="F33" s="37">
-        <f>F32</f>
-        <v>45948</v>
+        <f>E32+4</f>
+        <v>45912</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="39"/>
@@ -6738,18 +6801,24 @@
       <c r="EB33" s="49"/>
     </row>
     <row r="34" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="C34" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="40">
+        <v>0</v>
+      </c>
+      <c r="E34" s="57">
+        <v>45910</v>
+      </c>
+      <c r="F34" s="37">
+        <f>F33</f>
+        <v>45912</v>
+      </c>
       <c r="G34" s="38"/>
-      <c r="H34" s="39" t="str">
-        <f t="shared" ref="H34" si="80">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H34" s="39"/>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
       <c r="K34" s="49"/>
@@ -6766,7 +6835,7 @@
       <c r="V34" s="49"/>
       <c r="W34" s="49"/>
       <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
+      <c r="Y34" s="49"/>
       <c r="Z34" s="49"/>
       <c r="AA34" s="49"/>
       <c r="AB34" s="49"/>
@@ -6876,27 +6945,15 @@
       <c r="EB34" s="49"/>
     </row>
     <row r="35" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B35" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="40">
-        <v>0</v>
-      </c>
-      <c r="E35" s="57">
-        <v>45926</v>
-      </c>
-      <c r="F35" s="37">
-        <f>E35+30</f>
-        <v>45956</v>
-      </c>
+      <c r="B35" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
-      </c>
+      <c r="H35" s="39"/>
       <c r="I35" s="49"/>
       <c r="J35" s="49"/>
       <c r="K35" s="49"/>
@@ -7024,25 +7081,25 @@
     </row>
     <row r="36" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B36" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="40">
         <v>0</v>
       </c>
       <c r="E36" s="57">
-        <v>45926</v>
+        <v>45915</v>
       </c>
       <c r="F36" s="37">
-        <f>E36+31</f>
-        <v>45957</v>
+        <f>E36+3</f>
+        <v>45918</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>32</v>
+        <f t="shared" ref="H36" si="80">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
       </c>
       <c r="I36" s="49"/>
       <c r="J36" s="49"/>
@@ -7060,7 +7117,7 @@
       <c r="V36" s="49"/>
       <c r="W36" s="49"/>
       <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
+      <c r="Y36" s="50"/>
       <c r="Z36" s="49"/>
       <c r="AA36" s="49"/>
       <c r="AB36" s="49"/>
@@ -7171,7 +7228,7 @@
     </row>
     <row r="37" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B37" s="54" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>22</v>
@@ -7180,11 +7237,11 @@
         <v>0</v>
       </c>
       <c r="E37" s="57">
-        <v>45926</v>
+        <v>45916</v>
       </c>
       <c r="F37" s="37">
-        <f>E37+32</f>
-        <v>45958</v>
+        <f>E37+3</f>
+        <v>45919</v>
       </c>
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
@@ -7204,7 +7261,7 @@
       <c r="V37" s="49"/>
       <c r="W37" s="49"/>
       <c r="X37" s="49"/>
-      <c r="Y37" s="49"/>
+      <c r="Y37" s="50"/>
       <c r="Z37" s="49"/>
       <c r="AA37" s="49"/>
       <c r="AB37" s="49"/>
@@ -7315,7 +7372,7 @@
     </row>
     <row r="38" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B38" s="54" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>23</v>
@@ -7324,14 +7381,17 @@
         <v>0</v>
       </c>
       <c r="E38" s="57">
-        <v>45926</v>
+        <v>45916</v>
       </c>
       <c r="F38" s="37">
-        <f>E38+32</f>
-        <v>45958</v>
+        <f>E38+3</f>
+        <v>45919</v>
       </c>
       <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
+      </c>
       <c r="I38" s="49"/>
       <c r="J38" s="49"/>
       <c r="K38" s="49"/>
@@ -7459,7 +7519,7 @@
     </row>
     <row r="39" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B39" s="54" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C39" s="35" t="s">
         <v>22</v>
@@ -7468,14 +7528,17 @@
         <v>0</v>
       </c>
       <c r="E39" s="57">
-        <v>45926</v>
+        <v>45919</v>
       </c>
       <c r="F39" s="37">
-        <f>E39+33</f>
-        <v>45959</v>
+        <f>E39+4</f>
+        <v>45923</v>
       </c>
       <c r="G39" s="38"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>5</v>
+      </c>
       <c r="I39" s="49"/>
       <c r="J39" s="49"/>
       <c r="K39" s="49"/>
@@ -7603,7 +7666,7 @@
     </row>
     <row r="40" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B40" s="54" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C40" s="35" t="s">
         <v>23</v>
@@ -7612,11 +7675,11 @@
         <v>0</v>
       </c>
       <c r="E40" s="57">
-        <v>45926</v>
+        <v>45919</v>
       </c>
       <c r="F40" s="37">
-        <f>E40+34</f>
-        <v>45960</v>
+        <f>E40+4</f>
+        <v>45923</v>
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="39"/>
@@ -7747,7 +7810,7 @@
     </row>
     <row r="41" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B41" s="54" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C41" s="35" t="s">
         <v>22</v>
@@ -7756,14 +7819,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="57">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="F41" s="37">
-        <f>E41+35</f>
-        <v>45961</v>
+        <f>E41+7</f>
+        <v>45929</v>
       </c>
       <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="39">
+        <f t="shared" ref="H41" si="81">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>8</v>
+      </c>
       <c r="I41" s="49"/>
       <c r="J41" s="49"/>
       <c r="K41" s="49"/>
@@ -7780,7 +7846,7 @@
       <c r="V41" s="49"/>
       <c r="W41" s="49"/>
       <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
+      <c r="Y41" s="50"/>
       <c r="Z41" s="49"/>
       <c r="AA41" s="49"/>
       <c r="AB41" s="49"/>
@@ -7891,7 +7957,7 @@
     </row>
     <row r="42" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B42" s="54" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C42" s="35" t="s">
         <v>23</v>
@@ -7900,11 +7966,11 @@
         <v>0</v>
       </c>
       <c r="E42" s="57">
-        <v>45926</v>
+        <v>45922</v>
       </c>
       <c r="F42" s="37">
-        <f>E42+36</f>
-        <v>45962</v>
+        <f>E42+7</f>
+        <v>45929</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="39"/>
@@ -7924,7 +7990,7 @@
       <c r="V42" s="49"/>
       <c r="W42" s="49"/>
       <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
+      <c r="Y42" s="50"/>
       <c r="Z42" s="49"/>
       <c r="AA42" s="49"/>
       <c r="AB42" s="49"/>
@@ -8034,18 +8100,24 @@
       <c r="EB42" s="49"/>
     </row>
     <row r="43" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B43" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="B43" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="40">
+        <v>0</v>
+      </c>
+      <c r="E43" s="57">
+        <v>45929</v>
+      </c>
+      <c r="F43" s="37">
+        <f>E43+7</f>
+        <v>45936</v>
+      </c>
       <c r="G43" s="38"/>
-      <c r="H43" s="39" t="str">
-        <f t="shared" ref="H43" si="81">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H43" s="39"/>
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
@@ -8173,26 +8245,23 @@
     </row>
     <row r="44" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B44" s="54" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44" s="40">
         <v>0</v>
       </c>
       <c r="E44" s="57">
-        <v>45946</v>
+        <v>45929</v>
       </c>
       <c r="F44" s="37">
-        <f>E44+30</f>
-        <v>45976</v>
+        <f>E44+7</f>
+        <v>45936</v>
       </c>
       <c r="G44" s="38"/>
-      <c r="H44" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>31</v>
-      </c>
+      <c r="H44" s="39"/>
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
@@ -8209,7 +8278,7 @@
       <c r="V44" s="49"/>
       <c r="W44" s="49"/>
       <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
+      <c r="Y44" s="50"/>
       <c r="Z44" s="49"/>
       <c r="AA44" s="49"/>
       <c r="AB44" s="49"/>
@@ -8320,25 +8389,25 @@
     </row>
     <row r="45" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B45" s="54" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="40">
         <v>0</v>
       </c>
       <c r="E45" s="57">
-        <v>45946</v>
+        <v>45936</v>
       </c>
       <c r="F45" s="37">
-        <f>E45+31</f>
-        <v>45977</v>
+        <f>E45+6</f>
+        <v>45942</v>
       </c>
       <c r="G45" s="38"/>
       <c r="H45" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I45" s="49"/>
       <c r="J45" s="49"/>
@@ -8467,20 +8536,20 @@
     </row>
     <row r="46" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B46" s="54" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D46" s="40">
         <v>0</v>
       </c>
       <c r="E46" s="57">
-        <v>45946</v>
+        <v>45936</v>
       </c>
       <c r="F46" s="37">
-        <f>E46+32</f>
-        <v>45978</v>
+        <f>E46+7</f>
+        <v>45943</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="39"/>
@@ -8611,20 +8680,20 @@
     </row>
     <row r="47" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B47" s="54" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="40">
         <v>0</v>
       </c>
       <c r="E47" s="57">
-        <v>45946</v>
+        <v>45940</v>
       </c>
       <c r="F47" s="37">
-        <f>E47+33</f>
-        <v>45979</v>
+        <f>E47+5</f>
+        <v>45945</v>
       </c>
       <c r="G47" s="38"/>
       <c r="H47" s="39"/>
@@ -8754,18 +8823,24 @@
       <c r="EB47" s="49"/>
     </row>
     <row r="48" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
+      <c r="B48" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="40">
+        <v>0</v>
+      </c>
+      <c r="E48" s="57">
+        <v>45940</v>
+      </c>
+      <c r="F48" s="37">
+        <f>E48+7</f>
+        <v>45947</v>
+      </c>
       <c r="G48" s="38"/>
-      <c r="H48" s="39" t="str">
-        <f t="shared" ref="H48" si="82">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H48" s="39"/>
       <c r="I48" s="49"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
@@ -8782,7 +8857,7 @@
       <c r="V48" s="49"/>
       <c r="W48" s="49"/>
       <c r="X48" s="49"/>
-      <c r="Y48" s="50"/>
+      <c r="Y48" s="49"/>
       <c r="Z48" s="49"/>
       <c r="AA48" s="49"/>
       <c r="AB48" s="49"/>
@@ -8892,8 +8967,8 @@
       <c r="EB48" s="49"/>
     </row>
     <row r="49" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B49" s="54" t="s">
-        <v>52</v>
+      <c r="B49" s="58" t="s">
+        <v>86</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>22</v>
@@ -8902,17 +8977,14 @@
         <v>0</v>
       </c>
       <c r="E49" s="57">
-        <v>45979</v>
+        <v>45945</v>
       </c>
       <c r="F49" s="37">
-        <f t="shared" ref="F49:F55" si="83">E49+12</f>
-        <v>45991</v>
+        <f>E49+7</f>
+        <v>45952</v>
       </c>
       <c r="G49" s="38"/>
-      <c r="H49" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>13</v>
-      </c>
+      <c r="H49" s="39"/>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
       <c r="K49" s="49"/>
@@ -9039,8 +9111,8 @@
       <c r="EB49" s="49"/>
     </row>
     <row r="50" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B50" s="54" t="s">
-        <v>53</v>
+      <c r="B50" s="58" t="s">
+        <v>87</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>23</v>
@@ -9049,17 +9121,14 @@
         <v>0</v>
       </c>
       <c r="E50" s="57">
-        <v>45979</v>
+        <v>45947</v>
       </c>
       <c r="F50" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
+        <f>E50+7</f>
+        <v>45954</v>
       </c>
       <c r="G50" s="38"/>
-      <c r="H50" s="39">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>13</v>
-      </c>
+      <c r="H50" s="39"/>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
       <c r="K50" s="49"/>
@@ -9186,22 +9255,13 @@
       <c r="EB50" s="49"/>
     </row>
     <row r="51" spans="2:132" ht="30" customHeight="1" thickBot="1">
-      <c r="B51" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="40">
-        <v>0</v>
-      </c>
-      <c r="E51" s="57">
-        <v>45979</v>
-      </c>
-      <c r="F51" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
-      </c>
+      <c r="B51" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="38"/>
       <c r="H51" s="39"/>
       <c r="I51" s="49"/>
@@ -9331,20 +9391,20 @@
     </row>
     <row r="52" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B52" s="54" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="40">
         <v>0</v>
       </c>
       <c r="E52" s="57">
-        <v>45979</v>
+        <v>45952</v>
       </c>
       <c r="F52" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
+        <f>E52+5</f>
+        <v>45957</v>
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="39"/>
@@ -9475,20 +9535,20 @@
     </row>
     <row r="53" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B53" s="54" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" s="40">
         <v>0</v>
       </c>
       <c r="E53" s="57">
-        <v>45979</v>
+        <v>45954</v>
       </c>
       <c r="F53" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
+        <f>E53+5</f>
+        <v>45959</v>
       </c>
       <c r="G53" s="38"/>
       <c r="H53" s="39"/>
@@ -9619,20 +9679,20 @@
     </row>
     <row r="54" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B54" s="54" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" s="40">
         <v>0</v>
       </c>
       <c r="E54" s="57">
-        <v>45979</v>
+        <v>45958</v>
       </c>
       <c r="F54" s="37">
-        <f t="shared" si="83"/>
-        <v>45991</v>
+        <f>E54+7</f>
+        <v>45965</v>
       </c>
       <c r="G54" s="38"/>
       <c r="H54" s="39"/>
@@ -9763,20 +9823,20 @@
     </row>
     <row r="55" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B55" s="54" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" s="40">
         <v>0</v>
       </c>
       <c r="E55" s="57">
-        <v>45979</v>
+        <v>45960</v>
       </c>
       <c r="F55" s="37">
-        <f>E55+12</f>
-        <v>45991</v>
+        <f>E55+7</f>
+        <v>45967</v>
       </c>
       <c r="G55" s="38"/>
       <c r="H55" s="39"/>
@@ -9907,7 +9967,7 @@
     </row>
     <row r="56" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B56" s="55" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C56" s="32"/>
       <c r="D56" s="33"/>
@@ -9915,7 +9975,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="38"/>
       <c r="H56" s="39" t="str">
-        <f t="shared" ref="H56" si="84">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H56" si="82">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I56" s="49"/>
@@ -10045,25 +10105,25 @@
     </row>
     <row r="57" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B57" s="54" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D57" s="40">
         <v>0</v>
       </c>
       <c r="E57" s="57">
-        <v>45992</v>
+        <v>45967</v>
       </c>
       <c r="F57" s="37">
-        <f>E57+11</f>
-        <v>46003</v>
+        <f>E57+3</f>
+        <v>45970</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I57" s="49"/>
       <c r="J57" s="49"/>
@@ -10192,25 +10252,25 @@
     </row>
     <row r="58" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B58" s="54" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D58" s="40">
         <v>0</v>
       </c>
       <c r="E58" s="57">
-        <v>45992</v>
+        <v>45969</v>
       </c>
       <c r="F58" s="37">
-        <f>E58+11</f>
-        <v>46003</v>
+        <f>E58+3</f>
+        <v>45972</v>
       </c>
       <c r="G58" s="38"/>
       <c r="H58" s="39">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I58" s="49"/>
       <c r="J58" s="49"/>
@@ -10337,25 +10397,25 @@
       <c r="EA58" s="49"/>
       <c r="EB58" s="49"/>
     </row>
-    <row r="59" spans="2:132" ht="30" customHeight="1">
+    <row r="59" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B59" s="54" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D59" s="40">
         <v>0</v>
       </c>
       <c r="E59" s="57">
-        <v>45992</v>
+        <v>45972</v>
       </c>
       <c r="F59" s="37">
-        <f>E59+11</f>
-        <v>46003</v>
+        <f>E59+9</f>
+        <v>45981</v>
       </c>
       <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="49"/>
       <c r="J59" s="49"/>
       <c r="K59" s="49"/>
@@ -10481,25 +10541,25 @@
       <c r="EA59" s="49"/>
       <c r="EB59" s="49"/>
     </row>
-    <row r="60" spans="2:132" ht="30" customHeight="1">
+    <row r="60" spans="2:132" ht="30" customHeight="1" thickBot="1">
       <c r="B60" s="54" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D60" s="40">
         <v>0</v>
       </c>
       <c r="E60" s="57">
-        <v>45992</v>
+        <v>45979</v>
       </c>
       <c r="F60" s="37">
-        <f>E60+11</f>
-        <v>46003</v>
+        <f t="shared" ref="F60:F61" si="83">E60+12</f>
+        <v>45991</v>
       </c>
       <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="H60" s="39"/>
       <c r="I60" s="49"/>
       <c r="J60" s="49"/>
       <c r="K60" s="49"/>
@@ -10625,32 +10685,1047 @@
       <c r="EA60" s="49"/>
       <c r="EB60" s="49"/>
     </row>
-    <row r="61" spans="2:132" ht="30" customHeight="1">
-      <c r="E61"/>
+    <row r="61" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B61" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="40">
+        <v>0</v>
+      </c>
+      <c r="E61" s="57">
+        <v>45979</v>
+      </c>
+      <c r="F61" s="37">
+        <f t="shared" si="83"/>
+        <v>45991</v>
+      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="39">
+        <f t="shared" ref="H61" si="84">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>13</v>
+      </c>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="49"/>
+      <c r="V61" s="49"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="49"/>
+      <c r="Y61" s="50"/>
+      <c r="Z61" s="49"/>
+      <c r="AA61" s="49"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="49"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="49"/>
+      <c r="AF61" s="49"/>
+      <c r="AG61" s="49"/>
+      <c r="AH61" s="49"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="49"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="49"/>
+      <c r="AS61" s="49"/>
+      <c r="AT61" s="49"/>
+      <c r="AU61" s="49"/>
+      <c r="AV61" s="49"/>
+      <c r="AW61" s="49"/>
+      <c r="AX61" s="49"/>
+      <c r="AY61" s="49"/>
+      <c r="AZ61" s="49"/>
+      <c r="BA61" s="49"/>
+      <c r="BB61" s="49"/>
+      <c r="BC61" s="49"/>
+      <c r="BD61" s="49"/>
+      <c r="BE61" s="49"/>
+      <c r="BF61" s="49"/>
+      <c r="BG61" s="49"/>
+      <c r="BH61" s="49"/>
+      <c r="BI61" s="49"/>
+      <c r="BJ61" s="49"/>
+      <c r="BK61" s="49"/>
+      <c r="BL61" s="49"/>
+      <c r="BM61" s="49"/>
+      <c r="BN61" s="49"/>
+      <c r="BO61" s="49"/>
+      <c r="BP61" s="49"/>
+      <c r="BQ61" s="49"/>
+      <c r="BR61" s="49"/>
+      <c r="BS61" s="49"/>
+      <c r="BT61" s="49"/>
+      <c r="BU61" s="49"/>
+      <c r="BV61" s="49"/>
+      <c r="BW61" s="49"/>
+      <c r="BX61" s="49"/>
+      <c r="BY61" s="49"/>
+      <c r="BZ61" s="49"/>
+      <c r="CA61" s="49"/>
+      <c r="CB61" s="49"/>
+      <c r="CC61" s="49"/>
+      <c r="CD61" s="49"/>
+      <c r="CE61" s="49"/>
+      <c r="CF61" s="49"/>
+      <c r="CG61" s="49"/>
+      <c r="CH61" s="49"/>
+      <c r="CI61" s="49"/>
+      <c r="CJ61" s="49"/>
+      <c r="CK61" s="49"/>
+      <c r="CL61" s="49"/>
+      <c r="CM61" s="49"/>
+      <c r="CN61" s="49"/>
+      <c r="CO61" s="49"/>
+      <c r="CP61" s="49"/>
+      <c r="CQ61" s="49"/>
+      <c r="CR61" s="49"/>
+      <c r="CS61" s="49"/>
+      <c r="CT61" s="49"/>
+      <c r="CU61" s="49"/>
+      <c r="CV61" s="49"/>
+      <c r="CW61" s="49"/>
+      <c r="CX61" s="49"/>
+      <c r="CY61" s="49"/>
+      <c r="CZ61" s="49"/>
+      <c r="DA61" s="49"/>
+      <c r="DB61" s="49"/>
+      <c r="DC61" s="49"/>
+      <c r="DD61" s="49"/>
+      <c r="DE61" s="49"/>
+      <c r="DF61" s="49"/>
+      <c r="DG61" s="49"/>
+      <c r="DH61" s="49"/>
+      <c r="DI61" s="49"/>
+      <c r="DJ61" s="49"/>
+      <c r="DK61" s="49"/>
+      <c r="DL61" s="49"/>
+      <c r="DM61" s="49"/>
+      <c r="DN61" s="49"/>
+      <c r="DO61" s="49"/>
+      <c r="DP61" s="49"/>
+      <c r="DQ61" s="49"/>
+      <c r="DR61" s="49"/>
+      <c r="DS61" s="49"/>
+      <c r="DT61" s="49"/>
+      <c r="DU61" s="49"/>
+      <c r="DV61" s="49"/>
+      <c r="DW61" s="49"/>
+      <c r="DX61" s="49"/>
+      <c r="DY61" s="49"/>
+      <c r="DZ61" s="49"/>
+      <c r="EA61" s="49"/>
+      <c r="EB61" s="49"/>
     </row>
-    <row r="62" spans="2:132" ht="30" customHeight="1">
-      <c r="E62"/>
+    <row r="62" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B62" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="40">
+        <v>0</v>
+      </c>
+      <c r="E62" s="57">
+        <v>45991</v>
+      </c>
+      <c r="F62" s="37">
+        <f>E62+3</f>
+        <v>45994</v>
+      </c>
+      <c r="G62" s="38"/>
+      <c r="H62" s="39">
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v>4</v>
+      </c>
+      <c r="I62" s="49"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="49"/>
+      <c r="Z62" s="49"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="49"/>
+      <c r="AI62" s="49"/>
+      <c r="AJ62" s="49"/>
+      <c r="AK62" s="49"/>
+      <c r="AL62" s="49"/>
+      <c r="AM62" s="49"/>
+      <c r="AN62" s="49"/>
+      <c r="AO62" s="49"/>
+      <c r="AP62" s="49"/>
+      <c r="AQ62" s="49"/>
+      <c r="AR62" s="49"/>
+      <c r="AS62" s="49"/>
+      <c r="AT62" s="49"/>
+      <c r="AU62" s="49"/>
+      <c r="AV62" s="49"/>
+      <c r="AW62" s="49"/>
+      <c r="AX62" s="49"/>
+      <c r="AY62" s="49"/>
+      <c r="AZ62" s="49"/>
+      <c r="BA62" s="49"/>
+      <c r="BB62" s="49"/>
+      <c r="BC62" s="49"/>
+      <c r="BD62" s="49"/>
+      <c r="BE62" s="49"/>
+      <c r="BF62" s="49"/>
+      <c r="BG62" s="49"/>
+      <c r="BH62" s="49"/>
+      <c r="BI62" s="49"/>
+      <c r="BJ62" s="49"/>
+      <c r="BK62" s="49"/>
+      <c r="BL62" s="49"/>
+      <c r="BM62" s="49"/>
+      <c r="BN62" s="49"/>
+      <c r="BO62" s="49"/>
+      <c r="BP62" s="49"/>
+      <c r="BQ62" s="49"/>
+      <c r="BR62" s="49"/>
+      <c r="BS62" s="49"/>
+      <c r="BT62" s="49"/>
+      <c r="BU62" s="49"/>
+      <c r="BV62" s="49"/>
+      <c r="BW62" s="49"/>
+      <c r="BX62" s="49"/>
+      <c r="BY62" s="49"/>
+      <c r="BZ62" s="49"/>
+      <c r="CA62" s="49"/>
+      <c r="CB62" s="49"/>
+      <c r="CC62" s="49"/>
+      <c r="CD62" s="49"/>
+      <c r="CE62" s="49"/>
+      <c r="CF62" s="49"/>
+      <c r="CG62" s="49"/>
+      <c r="CH62" s="49"/>
+      <c r="CI62" s="49"/>
+      <c r="CJ62" s="49"/>
+      <c r="CK62" s="49"/>
+      <c r="CL62" s="49"/>
+      <c r="CM62" s="49"/>
+      <c r="CN62" s="49"/>
+      <c r="CO62" s="49"/>
+      <c r="CP62" s="49"/>
+      <c r="CQ62" s="49"/>
+      <c r="CR62" s="49"/>
+      <c r="CS62" s="49"/>
+      <c r="CT62" s="49"/>
+      <c r="CU62" s="49"/>
+      <c r="CV62" s="49"/>
+      <c r="CW62" s="49"/>
+      <c r="CX62" s="49"/>
+      <c r="CY62" s="49"/>
+      <c r="CZ62" s="49"/>
+      <c r="DA62" s="49"/>
+      <c r="DB62" s="49"/>
+      <c r="DC62" s="49"/>
+      <c r="DD62" s="49"/>
+      <c r="DE62" s="49"/>
+      <c r="DF62" s="49"/>
+      <c r="DG62" s="49"/>
+      <c r="DH62" s="49"/>
+      <c r="DI62" s="49"/>
+      <c r="DJ62" s="49"/>
+      <c r="DK62" s="49"/>
+      <c r="DL62" s="49"/>
+      <c r="DM62" s="49"/>
+      <c r="DN62" s="49"/>
+      <c r="DO62" s="49"/>
+      <c r="DP62" s="49"/>
+      <c r="DQ62" s="49"/>
+      <c r="DR62" s="49"/>
+      <c r="DS62" s="49"/>
+      <c r="DT62" s="49"/>
+      <c r="DU62" s="49"/>
+      <c r="DV62" s="49"/>
+      <c r="DW62" s="49"/>
+      <c r="DX62" s="49"/>
+      <c r="DY62" s="49"/>
+      <c r="DZ62" s="49"/>
+      <c r="EA62" s="49"/>
+      <c r="EB62" s="49"/>
     </row>
-    <row r="63" spans="2:132" ht="30" customHeight="1">
-      <c r="E63"/>
+    <row r="63" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B63" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="49"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
+      <c r="AL63" s="49"/>
+      <c r="AM63" s="49"/>
+      <c r="AN63" s="49"/>
+      <c r="AO63" s="49"/>
+      <c r="AP63" s="49"/>
+      <c r="AQ63" s="49"/>
+      <c r="AR63" s="49"/>
+      <c r="AS63" s="49"/>
+      <c r="AT63" s="49"/>
+      <c r="AU63" s="49"/>
+      <c r="AV63" s="49"/>
+      <c r="AW63" s="49"/>
+      <c r="AX63" s="49"/>
+      <c r="AY63" s="49"/>
+      <c r="AZ63" s="49"/>
+      <c r="BA63" s="49"/>
+      <c r="BB63" s="49"/>
+      <c r="BC63" s="49"/>
+      <c r="BD63" s="49"/>
+      <c r="BE63" s="49"/>
+      <c r="BF63" s="49"/>
+      <c r="BG63" s="49"/>
+      <c r="BH63" s="49"/>
+      <c r="BI63" s="49"/>
+      <c r="BJ63" s="49"/>
+      <c r="BK63" s="49"/>
+      <c r="BL63" s="49"/>
+      <c r="BM63" s="49"/>
+      <c r="BN63" s="49"/>
+      <c r="BO63" s="49"/>
+      <c r="BP63" s="49"/>
+      <c r="BQ63" s="49"/>
+      <c r="BR63" s="49"/>
+      <c r="BS63" s="49"/>
+      <c r="BT63" s="49"/>
+      <c r="BU63" s="49"/>
+      <c r="BV63" s="49"/>
+      <c r="BW63" s="49"/>
+      <c r="BX63" s="49"/>
+      <c r="BY63" s="49"/>
+      <c r="BZ63" s="49"/>
+      <c r="CA63" s="49"/>
+      <c r="CB63" s="49"/>
+      <c r="CC63" s="49"/>
+      <c r="CD63" s="49"/>
+      <c r="CE63" s="49"/>
+      <c r="CF63" s="49"/>
+      <c r="CG63" s="49"/>
+      <c r="CH63" s="49"/>
+      <c r="CI63" s="49"/>
+      <c r="CJ63" s="49"/>
+      <c r="CK63" s="49"/>
+      <c r="CL63" s="49"/>
+      <c r="CM63" s="49"/>
+      <c r="CN63" s="49"/>
+      <c r="CO63" s="49"/>
+      <c r="CP63" s="49"/>
+      <c r="CQ63" s="49"/>
+      <c r="CR63" s="49"/>
+      <c r="CS63" s="49"/>
+      <c r="CT63" s="49"/>
+      <c r="CU63" s="49"/>
+      <c r="CV63" s="49"/>
+      <c r="CW63" s="49"/>
+      <c r="CX63" s="49"/>
+      <c r="CY63" s="49"/>
+      <c r="CZ63" s="49"/>
+      <c r="DA63" s="49"/>
+      <c r="DB63" s="49"/>
+      <c r="DC63" s="49"/>
+      <c r="DD63" s="49"/>
+      <c r="DE63" s="49"/>
+      <c r="DF63" s="49"/>
+      <c r="DG63" s="49"/>
+      <c r="DH63" s="49"/>
+      <c r="DI63" s="49"/>
+      <c r="DJ63" s="49"/>
+      <c r="DK63" s="49"/>
+      <c r="DL63" s="49"/>
+      <c r="DM63" s="49"/>
+      <c r="DN63" s="49"/>
+      <c r="DO63" s="49"/>
+      <c r="DP63" s="49"/>
+      <c r="DQ63" s="49"/>
+      <c r="DR63" s="49"/>
+      <c r="DS63" s="49"/>
+      <c r="DT63" s="49"/>
+      <c r="DU63" s="49"/>
+      <c r="DV63" s="49"/>
+      <c r="DW63" s="49"/>
     </row>
-    <row r="64" spans="2:132" ht="30" customHeight="1">
-      <c r="E64"/>
+    <row r="64" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B64" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="40">
+        <v>0</v>
+      </c>
+      <c r="E64" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F64" s="37">
+        <f>E64+11</f>
+        <v>46005</v>
+      </c>
+      <c r="G64" s="38"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="49"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="49"/>
+      <c r="U64" s="49"/>
+      <c r="V64" s="49"/>
+      <c r="W64" s="49"/>
+      <c r="X64" s="49"/>
+      <c r="Y64" s="49"/>
+      <c r="Z64" s="49"/>
+      <c r="AA64" s="49"/>
+      <c r="AB64" s="49"/>
+      <c r="AC64" s="49"/>
+      <c r="AD64" s="49"/>
+      <c r="AE64" s="49"/>
+      <c r="AF64" s="49"/>
+      <c r="AG64" s="49"/>
+      <c r="AH64" s="49"/>
+      <c r="AI64" s="49"/>
+      <c r="AJ64" s="49"/>
+      <c r="AK64" s="49"/>
+      <c r="AL64" s="49"/>
+      <c r="AM64" s="49"/>
+      <c r="AN64" s="49"/>
+      <c r="AO64" s="49"/>
+      <c r="AP64" s="49"/>
+      <c r="AQ64" s="49"/>
+      <c r="AR64" s="49"/>
+      <c r="AS64" s="49"/>
+      <c r="AT64" s="49"/>
+      <c r="AU64" s="49"/>
+      <c r="AV64" s="49"/>
+      <c r="AW64" s="49"/>
+      <c r="AX64" s="49"/>
+      <c r="AY64" s="49"/>
+      <c r="AZ64" s="49"/>
+      <c r="BA64" s="49"/>
+      <c r="BB64" s="49"/>
+      <c r="BC64" s="49"/>
+      <c r="BD64" s="49"/>
+      <c r="BE64" s="49"/>
+      <c r="BF64" s="49"/>
+      <c r="BG64" s="49"/>
+      <c r="BH64" s="49"/>
+      <c r="BI64" s="49"/>
+      <c r="BJ64" s="49"/>
+      <c r="BK64" s="49"/>
+      <c r="BL64" s="49"/>
+      <c r="BM64" s="49"/>
+      <c r="BN64" s="49"/>
+      <c r="BO64" s="49"/>
+      <c r="BP64" s="49"/>
+      <c r="BQ64" s="49"/>
+      <c r="BR64" s="49"/>
+      <c r="BS64" s="49"/>
+      <c r="BT64" s="49"/>
+      <c r="BU64" s="49"/>
+      <c r="BV64" s="49"/>
+      <c r="BW64" s="49"/>
+      <c r="BX64" s="49"/>
+      <c r="BY64" s="49"/>
+      <c r="BZ64" s="49"/>
+      <c r="CA64" s="49"/>
+      <c r="CB64" s="49"/>
+      <c r="CC64" s="49"/>
+      <c r="CD64" s="49"/>
+      <c r="CE64" s="49"/>
+      <c r="CF64" s="49"/>
+      <c r="CG64" s="49"/>
+      <c r="CH64" s="49"/>
+      <c r="CI64" s="49"/>
+      <c r="CJ64" s="49"/>
+      <c r="CK64" s="49"/>
+      <c r="CL64" s="49"/>
+      <c r="CM64" s="49"/>
+      <c r="CN64" s="49"/>
+      <c r="CO64" s="49"/>
+      <c r="CP64" s="49"/>
+      <c r="CQ64" s="49"/>
+      <c r="CR64" s="49"/>
+      <c r="CS64" s="49"/>
+      <c r="CT64" s="49"/>
+      <c r="CU64" s="49"/>
+      <c r="CV64" s="49"/>
+      <c r="CW64" s="49"/>
+      <c r="CX64" s="49"/>
+      <c r="CY64" s="49"/>
+      <c r="CZ64" s="49"/>
+      <c r="DA64" s="49"/>
+      <c r="DB64" s="49"/>
+      <c r="DC64" s="49"/>
+      <c r="DD64" s="49"/>
+      <c r="DE64" s="49"/>
+      <c r="DF64" s="49"/>
+      <c r="DG64" s="49"/>
+      <c r="DH64" s="49"/>
+      <c r="DI64" s="49"/>
+      <c r="DJ64" s="49"/>
+      <c r="DK64" s="49"/>
+      <c r="DL64" s="49"/>
+      <c r="DM64" s="49"/>
+      <c r="DN64" s="49"/>
+      <c r="DO64" s="49"/>
+      <c r="DP64" s="49"/>
+      <c r="DQ64" s="49"/>
+      <c r="DR64" s="49"/>
+      <c r="DS64" s="49"/>
+      <c r="DT64" s="49"/>
+      <c r="DU64" s="49"/>
+      <c r="DV64" s="49"/>
+      <c r="DW64" s="49"/>
+      <c r="DX64" s="49"/>
+      <c r="DY64" s="49"/>
+      <c r="DZ64" s="49"/>
+      <c r="EA64" s="49"/>
+      <c r="EB64" s="49"/>
     </row>
-    <row r="65" spans="5:5" ht="30" customHeight="1">
-      <c r="E65"/>
+    <row r="65" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B65" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="40">
+        <v>0</v>
+      </c>
+      <c r="E65" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F65" s="37">
+        <f>E65+11</f>
+        <v>46005</v>
+      </c>
+      <c r="G65" s="38"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="49"/>
+      <c r="U65" s="49"/>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49"/>
+      <c r="X65" s="49"/>
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49"/>
+      <c r="AD65" s="49"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49"/>
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="49"/>
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="49"/>
+      <c r="AL65" s="49"/>
+      <c r="AM65" s="49"/>
+      <c r="AN65" s="49"/>
+      <c r="AO65" s="49"/>
+      <c r="AP65" s="49"/>
+      <c r="AQ65" s="49"/>
+      <c r="AR65" s="49"/>
+      <c r="AS65" s="49"/>
+      <c r="AT65" s="49"/>
+      <c r="AU65" s="49"/>
+      <c r="AV65" s="49"/>
+      <c r="AW65" s="49"/>
+      <c r="AX65" s="49"/>
+      <c r="AY65" s="49"/>
+      <c r="AZ65" s="49"/>
+      <c r="BA65" s="49"/>
+      <c r="BB65" s="49"/>
+      <c r="BC65" s="49"/>
+      <c r="BD65" s="49"/>
+      <c r="BE65" s="49"/>
+      <c r="BF65" s="49"/>
+      <c r="BG65" s="49"/>
+      <c r="BH65" s="49"/>
+      <c r="BI65" s="49"/>
+      <c r="BJ65" s="49"/>
+      <c r="BK65" s="49"/>
+      <c r="BL65" s="49"/>
+      <c r="BM65" s="49"/>
+      <c r="BN65" s="49"/>
+      <c r="BO65" s="49"/>
+      <c r="BP65" s="49"/>
+      <c r="BQ65" s="49"/>
+      <c r="BR65" s="49"/>
+      <c r="BS65" s="49"/>
+      <c r="BT65" s="49"/>
+      <c r="BU65" s="49"/>
+      <c r="BV65" s="49"/>
+      <c r="BW65" s="49"/>
+      <c r="BX65" s="49"/>
+      <c r="BY65" s="49"/>
+      <c r="BZ65" s="49"/>
+      <c r="CA65" s="49"/>
+      <c r="CB65" s="49"/>
+      <c r="CC65" s="49"/>
+      <c r="CD65" s="49"/>
+      <c r="CE65" s="49"/>
+      <c r="CF65" s="49"/>
+      <c r="CG65" s="49"/>
+      <c r="CH65" s="49"/>
+      <c r="CI65" s="49"/>
+      <c r="CJ65" s="49"/>
+      <c r="CK65" s="49"/>
+      <c r="CL65" s="49"/>
+      <c r="CM65" s="49"/>
+      <c r="CN65" s="49"/>
+      <c r="CO65" s="49"/>
+      <c r="CP65" s="49"/>
+      <c r="CQ65" s="49"/>
+      <c r="CR65" s="49"/>
+      <c r="CS65" s="49"/>
+      <c r="CT65" s="49"/>
+      <c r="CU65" s="49"/>
+      <c r="CV65" s="49"/>
+      <c r="CW65" s="49"/>
+      <c r="CX65" s="49"/>
+      <c r="CY65" s="49"/>
+      <c r="CZ65" s="49"/>
+      <c r="DA65" s="49"/>
+      <c r="DB65" s="49"/>
+      <c r="DC65" s="49"/>
+      <c r="DD65" s="49"/>
+      <c r="DE65" s="49"/>
+      <c r="DF65" s="49"/>
+      <c r="DG65" s="49"/>
+      <c r="DH65" s="49"/>
+      <c r="DI65" s="49"/>
+      <c r="DJ65" s="49"/>
+      <c r="DK65" s="49"/>
+      <c r="DL65" s="49"/>
+      <c r="DM65" s="49"/>
+      <c r="DN65" s="49"/>
+      <c r="DO65" s="49"/>
+      <c r="DP65" s="49"/>
+      <c r="DQ65" s="49"/>
+      <c r="DR65" s="49"/>
+      <c r="DS65" s="49"/>
+      <c r="DT65" s="49"/>
+      <c r="DU65" s="49"/>
+      <c r="DV65" s="49"/>
+      <c r="DW65" s="49"/>
+      <c r="DX65" s="49"/>
+      <c r="DY65" s="49"/>
+      <c r="DZ65" s="49"/>
+      <c r="EA65" s="49"/>
+      <c r="EB65" s="49"/>
     </row>
-    <row r="66" spans="5:5" ht="30" customHeight="1">
-      <c r="E66"/>
+    <row r="66" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B66" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="40">
+        <v>0</v>
+      </c>
+      <c r="E66" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F66" s="37">
+        <f>E66+11</f>
+        <v>46005</v>
+      </c>
+      <c r="G66" s="38"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="49"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="49"/>
+      <c r="U66" s="49"/>
+      <c r="V66" s="49"/>
+      <c r="W66" s="49"/>
+      <c r="X66" s="49"/>
+      <c r="Y66" s="49"/>
+      <c r="Z66" s="49"/>
+      <c r="AA66" s="49"/>
+      <c r="AB66" s="49"/>
+      <c r="AC66" s="49"/>
+      <c r="AD66" s="49"/>
+      <c r="AE66" s="49"/>
+      <c r="AF66" s="49"/>
+      <c r="AG66" s="49"/>
+      <c r="AH66" s="49"/>
+      <c r="AI66" s="49"/>
+      <c r="AJ66" s="49"/>
+      <c r="AK66" s="49"/>
+      <c r="AL66" s="49"/>
+      <c r="AM66" s="49"/>
+      <c r="AN66" s="49"/>
+      <c r="AO66" s="49"/>
+      <c r="AP66" s="49"/>
+      <c r="AQ66" s="49"/>
+      <c r="AR66" s="49"/>
+      <c r="AS66" s="49"/>
+      <c r="AT66" s="49"/>
+      <c r="AU66" s="49"/>
+      <c r="AV66" s="49"/>
+      <c r="AW66" s="49"/>
+      <c r="AX66" s="49"/>
+      <c r="AY66" s="49"/>
+      <c r="AZ66" s="49"/>
+      <c r="BA66" s="49"/>
+      <c r="BB66" s="49"/>
+      <c r="BC66" s="49"/>
+      <c r="BD66" s="49"/>
+      <c r="BE66" s="49"/>
+      <c r="BF66" s="49"/>
+      <c r="BG66" s="49"/>
+      <c r="BH66" s="49"/>
+      <c r="BI66" s="49"/>
+      <c r="BJ66" s="49"/>
+      <c r="BK66" s="49"/>
+      <c r="BL66" s="49"/>
+      <c r="BM66" s="49"/>
+      <c r="BN66" s="49"/>
+      <c r="BO66" s="49"/>
+      <c r="BP66" s="49"/>
+      <c r="BQ66" s="49"/>
+      <c r="BR66" s="49"/>
+      <c r="BS66" s="49"/>
+      <c r="BT66" s="49"/>
+      <c r="BU66" s="49"/>
+      <c r="BV66" s="49"/>
+      <c r="BW66" s="49"/>
+      <c r="BX66" s="49"/>
+      <c r="BY66" s="49"/>
+      <c r="BZ66" s="49"/>
+      <c r="CA66" s="49"/>
+      <c r="CB66" s="49"/>
+      <c r="CC66" s="49"/>
+      <c r="CD66" s="49"/>
+      <c r="CE66" s="49"/>
+      <c r="CF66" s="49"/>
+      <c r="CG66" s="49"/>
+      <c r="CH66" s="49"/>
+      <c r="CI66" s="49"/>
+      <c r="CJ66" s="49"/>
+      <c r="CK66" s="49"/>
+      <c r="CL66" s="49"/>
+      <c r="CM66" s="49"/>
+      <c r="CN66" s="49"/>
+      <c r="CO66" s="49"/>
+      <c r="CP66" s="49"/>
+      <c r="CQ66" s="49"/>
+      <c r="CR66" s="49"/>
+      <c r="CS66" s="49"/>
+      <c r="CT66" s="49"/>
+      <c r="CU66" s="49"/>
+      <c r="CV66" s="49"/>
+      <c r="CW66" s="49"/>
+      <c r="CX66" s="49"/>
+      <c r="CY66" s="49"/>
+      <c r="CZ66" s="49"/>
+      <c r="DA66" s="49"/>
+      <c r="DB66" s="49"/>
+      <c r="DC66" s="49"/>
+      <c r="DD66" s="49"/>
+      <c r="DE66" s="49"/>
+      <c r="DF66" s="49"/>
+      <c r="DG66" s="49"/>
+      <c r="DH66" s="49"/>
+      <c r="DI66" s="49"/>
+      <c r="DJ66" s="49"/>
+      <c r="DK66" s="49"/>
+      <c r="DL66" s="49"/>
+      <c r="DM66" s="49"/>
+      <c r="DN66" s="49"/>
+      <c r="DO66" s="49"/>
+      <c r="DP66" s="49"/>
+      <c r="DQ66" s="49"/>
+      <c r="DR66" s="49"/>
+      <c r="DS66" s="49"/>
+      <c r="DT66" s="49"/>
+      <c r="DU66" s="49"/>
+      <c r="DV66" s="49"/>
+      <c r="DW66" s="49"/>
+      <c r="DX66" s="49"/>
+      <c r="DY66" s="49"/>
+      <c r="DZ66" s="49"/>
+      <c r="EA66" s="49"/>
+      <c r="EB66" s="49"/>
     </row>
-    <row r="67" spans="5:5" ht="30" customHeight="1">
-      <c r="E67"/>
+    <row r="67" spans="2:132" ht="30" customHeight="1" thickBot="1">
+      <c r="B67" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="40">
+        <v>0</v>
+      </c>
+      <c r="E67" s="57">
+        <v>45994</v>
+      </c>
+      <c r="F67" s="37">
+        <f>E67+11</f>
+        <v>46005</v>
+      </c>
+      <c r="G67" s="38"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="49"/>
+      <c r="J67" s="49"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="49"/>
+      <c r="U67" s="49"/>
+      <c r="V67" s="49"/>
+      <c r="W67" s="49"/>
+      <c r="X67" s="49"/>
+      <c r="Y67" s="49"/>
+      <c r="Z67" s="49"/>
+      <c r="AA67" s="49"/>
+      <c r="AB67" s="49"/>
+      <c r="AC67" s="49"/>
+      <c r="AD67" s="49"/>
+      <c r="AE67" s="49"/>
+      <c r="AF67" s="49"/>
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="49"/>
+      <c r="AI67" s="49"/>
+      <c r="AJ67" s="49"/>
+      <c r="AK67" s="49"/>
+      <c r="AL67" s="49"/>
+      <c r="AM67" s="49"/>
+      <c r="AN67" s="49"/>
+      <c r="AO67" s="49"/>
+      <c r="AP67" s="49"/>
+      <c r="AQ67" s="49"/>
+      <c r="AR67" s="49"/>
+      <c r="AS67" s="49"/>
+      <c r="AT67" s="49"/>
+      <c r="AU67" s="49"/>
+      <c r="AV67" s="49"/>
+      <c r="AW67" s="49"/>
+      <c r="AX67" s="49"/>
+      <c r="AY67" s="49"/>
+      <c r="AZ67" s="49"/>
+      <c r="BA67" s="49"/>
+      <c r="BB67" s="49"/>
+      <c r="BC67" s="49"/>
+      <c r="BD67" s="49"/>
+      <c r="BE67" s="49"/>
+      <c r="BF67" s="49"/>
+      <c r="BG67" s="49"/>
+      <c r="BH67" s="49"/>
+      <c r="BI67" s="49"/>
+      <c r="BJ67" s="49"/>
+      <c r="BK67" s="49"/>
+      <c r="BL67" s="49"/>
+      <c r="BM67" s="49"/>
+      <c r="BN67" s="49"/>
+      <c r="BO67" s="49"/>
+      <c r="BP67" s="49"/>
+      <c r="BQ67" s="49"/>
+      <c r="BR67" s="49"/>
+      <c r="BS67" s="49"/>
+      <c r="BT67" s="49"/>
+      <c r="BU67" s="49"/>
+      <c r="BV67" s="49"/>
+      <c r="BW67" s="49"/>
+      <c r="BX67" s="49"/>
+      <c r="BY67" s="49"/>
+      <c r="BZ67" s="49"/>
+      <c r="CA67" s="49"/>
+      <c r="CB67" s="49"/>
+      <c r="CC67" s="49"/>
+      <c r="CD67" s="49"/>
+      <c r="CE67" s="49"/>
+      <c r="CF67" s="49"/>
+      <c r="CG67" s="49"/>
+      <c r="CH67" s="49"/>
+      <c r="CI67" s="49"/>
+      <c r="CJ67" s="49"/>
+      <c r="CK67" s="49"/>
+      <c r="CL67" s="49"/>
+      <c r="CM67" s="49"/>
+      <c r="CN67" s="49"/>
+      <c r="CO67" s="49"/>
+      <c r="CP67" s="49"/>
+      <c r="CQ67" s="49"/>
+      <c r="CR67" s="49"/>
+      <c r="CS67" s="49"/>
+      <c r="CT67" s="49"/>
+      <c r="CU67" s="49"/>
+      <c r="CV67" s="49"/>
+      <c r="CW67" s="49"/>
+      <c r="CX67" s="49"/>
+      <c r="CY67" s="49"/>
+      <c r="CZ67" s="49"/>
+      <c r="DA67" s="49"/>
+      <c r="DB67" s="49"/>
+      <c r="DC67" s="49"/>
+      <c r="DD67" s="49"/>
+      <c r="DE67" s="49"/>
+      <c r="DF67" s="49"/>
+      <c r="DG67" s="49"/>
+      <c r="DH67" s="49"/>
+      <c r="DI67" s="49"/>
+      <c r="DJ67" s="49"/>
+      <c r="DK67" s="49"/>
+      <c r="DL67" s="49"/>
+      <c r="DM67" s="49"/>
+      <c r="DN67" s="49"/>
+      <c r="DO67" s="49"/>
+      <c r="DP67" s="49"/>
+      <c r="DQ67" s="49"/>
+      <c r="DR67" s="49"/>
+      <c r="DS67" s="49"/>
+      <c r="DT67" s="49"/>
+      <c r="DU67" s="49"/>
+      <c r="DV67" s="49"/>
+      <c r="DW67" s="49"/>
+      <c r="DX67" s="49"/>
+      <c r="DY67" s="49"/>
+      <c r="DZ67" s="49"/>
+      <c r="EA67" s="49"/>
+      <c r="EB67" s="49"/>
     </row>
-    <row r="68" spans="5:5" ht="30" customHeight="1">
-      <c r="E68"/>
+    <row r="69" spans="2:132" ht="30" customHeight="1">
+      <c r="E69"/>
+    </row>
+    <row r="70" spans="2:132" ht="30" customHeight="1">
+      <c r="E70"/>
+    </row>
+    <row r="71" spans="2:132" ht="30" customHeight="1">
+      <c r="E71"/>
+    </row>
+    <row r="72" spans="2:132" ht="30" customHeight="1">
+      <c r="E72"/>
+    </row>
+    <row r="73" spans="2:132" ht="30" customHeight="1">
+      <c r="E73"/>
+    </row>
+    <row r="74" spans="2:132" ht="30" customHeight="1">
+      <c r="E74"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:EB4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="I2:O2"/>
@@ -10658,29 +11733,8 @@
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:EB4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D60">
+  <conditionalFormatting sqref="D7:D67">
     <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10694,51 +11748,67 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:EA60">
-    <cfRule type="expression" dxfId="5" priority="23">
+  <conditionalFormatting sqref="G63:DV63">
+    <cfRule type="expression" dxfId="9" priority="250">
+      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="252" stopIfTrue="1">
+      <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:DW63">
+    <cfRule type="expression" dxfId="7" priority="254">
+      <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:EA62 I64:EA67">
+    <cfRule type="expression" dxfId="6" priority="23">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:EA55">
-    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
+  <conditionalFormatting sqref="I9:EA62 I64:EA67">
+    <cfRule type="expression" dxfId="5" priority="93" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:EA60">
-    <cfRule type="expression" dxfId="3" priority="22" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:EB60">
-    <cfRule type="expression" dxfId="2" priority="21">
+  <conditionalFormatting sqref="I9:EB62 I64:EB67">
+    <cfRule type="expression" dxfId="4" priority="21">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EB4:EB60">
+  <conditionalFormatting sqref="DW63">
+    <cfRule type="expression" dxfId="3" priority="256">
+      <formula>AND(TODAY()&gt;=EB$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="258" stopIfTrue="1">
+      <formula>AND(task_end&gt;=EB$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="EB4:EB62 EB64:EB67">
     <cfRule type="expression" dxfId="1" priority="244">
       <formula>AND(TODAY()&gt;=EB$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EB9:EB60">
+  <conditionalFormatting sqref="EB9:EB62 EB64:EB67">
     <cfRule type="expression" dxfId="0" priority="248" stopIfTrue="1">
       <formula>AND(task_end&gt;=EB$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Schedule in this worksheet._x000a_Enter title of this project in cell B1. _x000a_Information on how to use this worksheet, including instructions for screen readers and the author of this workbook, is in the About worksheet._x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company name in cel B2." sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A16"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the name of the Project Lead in cell C3. Enter the Project Start date in cell Q1. Project Start: label is in cell I1." sqref="A3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The Display week in cell Q2 is the starting week to display in the project schedule in cell I4. The project start date is Week 1. To change the display week, enter a new week number in cell Q2._x000a__x000a_Start date for each week is auto calculated starting in I4." sqref="A4" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="B9 contains the task name.  C9 is the assignee.  D9 is a progress bar that shades based on the number entered into the cell.  _x000a__x000a_E9 contains the start date and F9 contains the end date._x000a__x000a_The Gantt chart will fill in starting in cell I9 based on task dates." sqref="A9 A12" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10 A13:A26" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells I5 through BL5 contain the day number for the week represented in the cell block above each date and are auto calculated._x000a__x000a_Today's date is outlined from today's date in row 5 through the entire date column to the end of the project schedule." sqref="A5:A6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="17" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -10758,7 +11828,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D60</xm:sqref>
+          <xm:sqref>D7:D67</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10767,19 +11837,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="87" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1"/>
-    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:2" s="1" customFormat="1" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -10789,7 +11859,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -10804,42 +11874,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.15" customHeight="1">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="205.2" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="8" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57">
+    <row r="9" spans="1:2" ht="41.4">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="28.2" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="11" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A11" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5">
+    <row r="12" spans="1:2" ht="27.6">
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.15" customHeight="1">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="28.2" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="31.5">
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="30">
       <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
@@ -10849,7 +11919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="71.25">
+    <row r="16" spans="1:2" ht="69">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -10880,9 +11950,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -10891,6 +11961,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11202,15 +12281,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11232,13 +12302,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
